--- a/Docs/Расчет.xlsx
+++ b/Docs/Расчет.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urfume-my.sharepoint.com/personal/nikita_ryzhkov_urfu_me/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="998" documentId="8_{1C0635E3-8ABB-4BDF-8D1E-E488DC0A3FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327968E3-8852-410A-A92A-A51380606955}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FFCD8FE1-3062-4DD7-A890-A7265D21738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12502936-3C0D-41B5-894E-9285558EAC51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="НСИ" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="399">
+  <futureMetadata name="XLRICHVALUE" count="404">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -77,7 +77,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -91,14 +91,28 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
         </ext>
       </extLst>
     </bk>
@@ -112,20 +126,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="16"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="17"/>
         </ext>
       </extLst>
@@ -231,6 +231,20 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="34"/>
         </ext>
       </extLst>
@@ -245,20 +259,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="36"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="37"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="38"/>
         </ext>
       </extLst>
@@ -280,6 +280,13 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="42"/>
         </ext>
       </extLst>
@@ -287,7 +294,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="45"/>
+          <xlrd:rvb i="43"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
         </ext>
       </extLst>
     </bk>
@@ -301,20 +315,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="47"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="48"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="49"/>
         </ext>
       </extLst>
@@ -2850,6 +2850,41 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="411"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="412"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="413"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="414"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="415"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="416"/>
         </ext>
       </extLst>
     </bk>
@@ -2859,7 +2894,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="399">
+  <valueMetadata count="404">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -4056,13 +4091,28 @@
     </bk>
     <bk>
       <rc t="2" v="398"/>
+    </bk>
+    <bk>
+      <rc t="2" v="399"/>
+    </bk>
+    <bk>
+      <rc t="2" v="400"/>
+    </bk>
+    <bk>
+      <rc t="2" v="401"/>
+    </bk>
+    <bk>
+      <rc t="2" v="402"/>
+    </bk>
+    <bk>
+      <rc t="2" v="403"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>Инструмент</t>
   </si>
@@ -4136,12 +4186,6 @@
     <t>Учет</t>
   </si>
   <si>
-    <t>Изменение, 1 шт.</t>
-  </si>
-  <si>
-    <t>Изменение, сумм.</t>
-  </si>
-  <si>
     <t>Учет (неторговый день)</t>
   </si>
   <si>
@@ -4169,13 +4213,7 @@
     <t>Облигация</t>
   </si>
   <si>
-    <t>Выплата дивидендов</t>
-  </si>
-  <si>
     <t>Облигация 2</t>
-  </si>
-  <si>
-    <t>Выплата купонов</t>
   </si>
   <si>
     <t>Продажа</t>
@@ -4200,6 +4238,30 @@
   </si>
   <si>
     <t>сумма_продажи - сумма_вложений</t>
+  </si>
+  <si>
+    <t>Зачисление дивидендов</t>
+  </si>
+  <si>
+    <t>Зачисление купонов</t>
+  </si>
+  <si>
+    <t>Доп. зачисления</t>
+  </si>
+  <si>
+    <t>Сред. цена покупки</t>
+  </si>
+  <si>
+    <t>Сред. цена продажи</t>
+  </si>
+  <si>
+    <t>Ставка доходности, % год</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Срок инвестиций, дней</t>
   </si>
 </sst>
 </file>
@@ -4312,10 +4374,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -4420,7 +4478,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="39">
-  <a r="1" c="80">
+  <a r="1" c="81">
     <v t="i">0</v>
     <v t="i">1</v>
     <v t="i">2</v>
@@ -4501,8 +4559,9 @@
     <v t="i">111</v>
     <v t="i">112</v>
     <v t="i">113</v>
+    <v t="i">114</v>
   </a>
-  <a r="1" c="80">
+  <a r="1" c="81">
     <v>273.64</v>
     <v>274.04000000000002</v>
     <v>273.45999999999998</v>
@@ -4583,6 +4642,7 @@
     <v>308.3</v>
     <v>307.86</v>
     <v>308.39999999999998</v>
+    <v>309.14999999999998</v>
   </a>
   <a r="1">
     <v t="i">0</v>
@@ -4609,12 +4669,12 @@
     <v>275.89999999999998</v>
   </a>
   <a r="1">
+    <v>2573.8000000000002</v>
+  </a>
+  <a r="1">
     <v>2570.4</v>
   </a>
-  <a r="1">
-    <v>2573.8000000000002</v>
-  </a>
-  <a r="1" c="80">
+  <a r="1" c="81">
     <v>2570.4</v>
     <v>2568.6</v>
     <v>2573.8000000000002</v>
@@ -4695,6 +4755,7 @@
     <v>4153</v>
     <v>4099</v>
     <v>4103</v>
+    <v>4228</v>
   </a>
   <a r="1">
     <v>2568.6</v>
@@ -4714,13 +4775,7 @@
   <a r="1">
     <v>2800</v>
   </a>
-  <a r="1">
-    <v>2829</v>
-  </a>
-  <a r="1">
-    <v>2816</v>
-  </a>
-  <a r="1" c="80">
+  <a r="1" c="81">
     <v>2829</v>
     <v>2816</v>
     <v>2800</v>
@@ -4801,6 +4856,13 @@
     <v>4077</v>
     <v>3998</v>
     <v>4148.5</v>
+    <v>4232</v>
+  </a>
+  <a r="1">
+    <v>2816</v>
+  </a>
+  <a r="1">
+    <v>2829</v>
   </a>
   <a r="1">
     <v>2815</v>
@@ -4815,21 +4877,12 @@
     <v>2953.5</v>
   </a>
   <a r="1">
-    <v>13.278</v>
-  </a>
-  <a r="1">
     <v>13.231999999999999</v>
   </a>
   <a r="1">
-    <v>250.9</v>
+    <v>13.278</v>
   </a>
-  <a r="1">
-    <v>250.95</v>
-  </a>
-  <a r="1">
-    <v>249.55</v>
-  </a>
-  <a r="1" c="80">
+  <a r="1" c="81">
     <v>249.55</v>
     <v>250.95</v>
     <v>250.9</v>
@@ -4910,6 +4963,16 @@
     <v>316.89999999999998</v>
     <v>307.60000000000002</v>
     <v>308.45</v>
+    <v>310.5</v>
+  </a>
+  <a r="1">
+    <v>250.9</v>
+  </a>
+  <a r="1">
+    <v>250.95</v>
+  </a>
+  <a r="1">
+    <v>249.55</v>
   </a>
   <a r="1">
     <v>253.25</v>
@@ -4936,7 +4999,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="449">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="454">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aly352&amp;q=MISX%3aSBER&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -4955,9 +5018,9 @@
     <v>4</v>
     <v>315.79000000000002</v>
     <v>215.7</v>
-    <v>1.3743000000000001</v>
-    <v>1.33</v>
-    <v>4.3119999999999999E-3</v>
+    <v>1.3740000000000001</v>
+    <v>0.73</v>
+    <v>2.3669999999999997E-3</v>
     <v>RUB</v>
     <v>Sberbank Rossii PAO is a Russia-based company, which is primarily focused on the financial services industry. The Company operates as a commercial bank and provides services to individual and corporate clients. Its offerings for individual clients include deposits, credit cards issuing, money transfers, depositary cells, consumer loans, mortgages, utility payments, online banking, mutual funds, among others. The Company's corporate products portfolio includes corporate loans, asset management, payroll projects, leasing, online banking, cash and settlement services, among others. In addition, the Company offers a wide range of services to financial institutions, such as correspondent accounts, custody services, and interbank lending, among others.</v>
     <v>287866</v>
@@ -4965,23 +5028,23 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>ul. Vavilova, dom 19, MOSCOW, MOSCOW, 117997 RU</v>
-    <v>309.89999999999998</v>
+    <v>309.99</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45408.703472222223</v>
+    <v>45409.70899352969</v>
     <v>0</v>
-    <v>308</v>
-    <v>6966955000000</v>
+    <v>308.76</v>
+    <v>6983335000000</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
-    <v>308.5</v>
+    <v>309.25</v>
     <v>308.41000000000003</v>
-    <v>309.74</v>
+    <v>309.14</v>
     <v>22586950000</v>
     <v>SBER</v>
     <v>Public Joint-Stock Company Sberbank of Russia (MISX:SBER)</v>
-    <v>19807110</v>
-    <v>29949820</v>
+    <v>11292620</v>
+    <v>30552870</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -4989,6 +5052,10 @@
   </rv>
   <rv s="3">
     <fb>273.64</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>294.3</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5010,8 +5077,8 @@
     <v>5653.2</v>
     <v>1922.2</v>
     <v>0.48899999999999999</v>
-    <v>79.599999999999994</v>
-    <v>1.9113000000000002E-2</v>
+    <v>-1.2</v>
+    <v>-2.8810000000000001E-4</v>
     <v>RUB</v>
     <v>Yandex N.V. is an Internet and technology company, and operates Internet search engine. The Company's segments include Search and Portal, E-commerce, Taxi, Classifieds and Experimental businesses. The Company's Search and Portal segment offers a range of services in Russia, Ukraine, Belarus and Kazakhstan, among which are search, location-based, personalized and mobile services, that enable the Company's users to find relevant and objective information to communicate and connect over the Internet, from both their desktops and mobile devices. The Company's search engine offers access to a range of information available online. The Company's Yandex.Market gives retailers a platform to reach customers seeking specific retailer, product or price information. As of December 31, 2016, Yandex.Taxi was operating in 46 cities across Russia, Georgia, Armenia, Kazakhstan, Belarus and Ukraine. The Company's Classifieds business unit includes Auto.ru, Yandex.Realty, Yandex.Jobs and Yandex.Travel.</v>
     <v>25703</v>
@@ -5019,29 +5086,33 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Schiphol Boulevard 165, SCHIPHOL, NOORD-HOLLAND, 1118 BG NL</v>
-    <v>4251</v>
+    <v>4260.3999999999996</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45408.703943032029</v>
-    <v>4</v>
-    <v>4101.2</v>
+    <v>45409.708986075784</v>
+    <v>5</v>
+    <v>4120.3999999999996</v>
     <v>6846475000</v>
     <v>Yandex NV</v>
     <v>Yandex NV</v>
-    <v>4165</v>
+    <v>4231.6000000000004</v>
     <v>4164.6000000000004</v>
-    <v>4244.2</v>
+    <v>4163.3999999999996</v>
     <v>361482300</v>
     <v>YNDX</v>
     <v>Yandex NV (MISX:YNDX)</v>
-    <v>917538</v>
+    <v>780351</v>
     <v>2004</v>
   </rv>
   <rv s="2">
-    <v>5</v>
+    <v>6</v>
   </rv>
   <rv s="3">
     <fb>2570.4</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>3990.4</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5062,9 +5133,9 @@
     <v>4</v>
     <v>348.9</v>
     <v>245.85</v>
-    <v>0.60229999999999995</v>
-    <v>-0.05</v>
-    <v>-1.616E-4</v>
+    <v>0.60289999999999999</v>
+    <v>1.8</v>
+    <v>5.8180000000000003E-3</v>
     <v>RUB</v>
     <v>Mobil'nye Telesistemy PAO is a Russia-based provider of telecommunications services. The Company provides mobile and fixed-line voice and data telecommunications services, including data transfer, broadband, pay-television (pay-TV) and various value-added services, as well as selling equipment and accessories. The Company operates through segments, which include Russia convergent, Moscow fixed line and Ukraine. Its Russia Convergent segment includes mobile and fixed-line operations, which encompasses services rendered to customers across regions of Russia, including voice and data services, transmission, broadband, pay-TV and other value-added services. Its Moscow fixed-line segment includes fixed-line operations carried out in Moscow by the Company's subsidiary MGTS. Its Ukraine segment includes mobile and fixed-line operations carried out across multiple regions of Ukraine. The Company also offers software solutions, such as LiteBox, a cloud-based tool for online cash operations.</v>
     <v>65102</v>
@@ -5072,30 +5143,34 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Ul. Marksistskaya, D. 4, MOSCOW, MOSCOW, 109147 RU</v>
-    <v>314.7</v>
+    <v>313</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45408.703472222223</v>
-    <v>8</v>
-    <v>303.95</v>
-    <v>616400800000</v>
+    <v>45409.708924096878</v>
+    <v>10</v>
+    <v>307</v>
+    <v>620497500000</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
-    <v>310.5</v>
+    <v>310.39999999999998</v>
     <v>309.39999999999998</v>
-    <v>309.35000000000002</v>
+    <v>311.2</v>
     <v>1998382000</v>
     <v>MTSS</v>
     <v>Mobile TeleSystems Public Joint Stock Company (MISX:MTSS)</v>
-    <v>7411020</v>
-    <v>6342950</v>
+    <v>5808390</v>
+    <v>6721780</v>
     <v>2002</v>
   </rv>
   <rv s="2">
-    <v>9</v>
+    <v>11</v>
   </rv>
   <rv s="3">
     <fb>249.55</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>291.5</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5114,9 +5189,9 @@
     <v>9</v>
     <v>Finance</v>
     <v>4</v>
-    <v>1.4922</v>
-    <v>94</v>
-    <v>2.2572000000000002E-2</v>
+    <v>1.4947999999999999</v>
+    <v>76.5</v>
+    <v>1.8370000000000001E-2</v>
     <v>RUB</v>
     <v>Ozon Holdings PLC is an electronic commerce platform. The Company is an e-commerce platform in Russia. The Company connects and facilitates transactions between buyers and sellers. The Company also sells products directly to their buyers. The Company provides also two platforms Ozon.ru and Ozon.travel.</v>
     <v>49889</v>
@@ -5124,30 +5199,34 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Arch. Makariou III, 2-4, Capital Center, 9th floor, NICOSIA, 1065 CY</v>
-    <v>4270</v>
+    <v>4257.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45408.703472222223</v>
-    <v>12</v>
-    <v>4131.5</v>
-    <v>339272800000</v>
+    <v>45409.708333333336</v>
+    <v>15</v>
+    <v>4192.5</v>
+    <v>346101500000</v>
     <v>Ozon Holdings PLC</v>
     <v>Ozon Holdings PLC</v>
-    <v>4164</v>
+    <v>4228</v>
     <v>4164.5</v>
-    <v>4258.5</v>
+    <v>4241</v>
     <v>81782030</v>
     <v>OZON</v>
     <v>Ozon Holdings PLC (MISX:OZON)</v>
-    <v>581785</v>
-    <v>520870</v>
+    <v>248524</v>
+    <v>527940</v>
     <v>1999</v>
   </rv>
   <rv s="2">
-    <v>13</v>
+    <v>16</v>
   </rv>
   <rv s="3">
     <fb>2829</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>3525</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -5232,9 +5311,9 @@
     <v>4</v>
     <v>184</v>
     <v>155.75</v>
-    <v>0.95089999999999997</v>
-    <v>-0.9</v>
-    <v>-5.5100000000000001E-3</v>
+    <v>0.95020000000000004</v>
+    <v>1.19</v>
+    <v>7.2850000000000007E-3</v>
     <v>RUB</v>
     <v>Gazprom PAO is a Russia-based operator of gas pipeline systems. The Company's principal activities include exploration and production of gas; transportation of gas; sales of gas within the Russian Federation and abroad; gas storage; production of crude oil and gas condensate; processing of oil, gas condensate and other hydrocarbons, and sales of refined products, and electric and heat energy generation and sales. The Company's segments include Production of gas, Transportation, Distribution of gas, Gas storage, Production of crude oil and gas condensate, Refining, Electric and heat energy generation and sales, and Other. The Production of gas segment is engaged in the exploration and production of gas. The Transportation segment is engaged in the transportation of gas. The Distribution of gas segment is engaged in the sales of gas within the Russian Federation and abroad. The Gas storage segment is engaged in the storage of extracted and purchased gas in underground gas storages.</v>
     <v>492200</v>
@@ -5242,27 +5321,27 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Vn.Ter. G. Munitsipal'nyi Okrug Lakhta-Ol'gina, Pr-Kt Lakhtinskiy, D 2, K.3, Str. 1, SAINT PETERSBURG, SAINT PETERSBURG, 197229 RU</v>
-    <v>164.19</v>
+    <v>166.49</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45408.70391523125</v>
-    <v>32</v>
-    <v>162.11000000000001</v>
-    <v>3859966000000</v>
+    <v>45409.708333333336</v>
+    <v>36</v>
+    <v>161.69999999999999</v>
+    <v>3837713000000</v>
     <v>Public Joint Stock Company Gazprom</v>
     <v>Public Joint Stock Company Gazprom</v>
-    <v>163.49</v>
+    <v>162.69</v>
     <v>163.35</v>
-    <v>162.44999999999999</v>
+    <v>164.54</v>
     <v>23673510000</v>
     <v>GAZP</v>
     <v>Public Joint Stock Company Gazprom (MISX:GAZP)</v>
-    <v>21052600</v>
-    <v>23393580</v>
+    <v>29105540</v>
+    <v>22394990</v>
     <v>2002</v>
   </rv>
   <rv s="2">
-    <v>33</v>
+    <v>37</v>
   </rv>
   <rv s="3">
     <fb>162.25</fb>
@@ -5306,19 +5385,16 @@
     <v>-3.6870000000000002E-3</v>
     <v>RUB</v>
     <v>USD</v>
-    <v>92.495500000000007</v>
     <v>Currency Pair</v>
     <v>45408.6721875</v>
-    <v>91.084999999999994</v>
     <v>US Dollar/Russian Rouble FX Spot Rate</v>
-    <v>92.1999</v>
     <v>92.215500000000006</v>
     <v>91.875500000000002</v>
     <v>USDRUB</v>
     <v>USD/RUB</v>
   </rv>
   <rv s="2">
-    <v>41</v>
+    <v>45</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=bwa6r7&amp;q=MISX%3aSBRI&amp;form=skydnc</v>
@@ -5336,27 +5412,27 @@
     <v>16</v>
     <v>Finance</v>
     <v>4</v>
-    <v>2.1999999999999999E-2</v>
-    <v>1.5199999999999999E-3</v>
+    <v>4.2000000000000003E-2</v>
+    <v>2.9010000000000004E-3</v>
     <v>RUB</v>
     <v>Moscow Exchange</v>
     <v>MISX</v>
-    <v>14.571999999999999</v>
+    <v>14.9</v>
     <v>ETF</v>
-    <v>45408.652083333334</v>
-    <v>43</v>
-    <v>14.43</v>
+    <v>45409.655555555553</v>
+    <v>47</v>
+    <v>14.446</v>
     <v>946067500</v>
     <v>Sber-Otvetstvennye inv BPIRFI</v>
-    <v>14.478</v>
+    <v>14.49</v>
     <v>14.476000000000001</v>
-    <v>14.497999999999999</v>
+    <v>14.518000000000001</v>
     <v>SBRI</v>
     <v>Sber-Otvetstvennye inv BPIRFI (MISX:SBRI)</v>
-    <v>32483</v>
+    <v>73755</v>
   </rv>
   <rv s="2">
-    <v>44</v>
+    <v>48</v>
   </rv>
   <rv s="3">
     <fb>13.231999999999999</fb>
@@ -5803,10 +5879,6 @@
     <v>17</v>
   </rv>
   <rv s="3">
-    <fb>294.3</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>45377</fb>
     <v>17</v>
   </rv>
@@ -5991,6 +6063,14 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>45408</fb>
+    <v>17</v>
+  </rv>
+  <rv s="3">
+    <fb>309.14999999999998</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2625.4</fb>
     <v>5</v>
   </rv>
@@ -6179,10 +6259,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3990.4</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>3999</fb>
     <v>5</v>
   </rv>
@@ -6275,6 +6351,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>4228</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>266.10000000000002</fb>
     <v>5</v>
   </rv>
@@ -6451,10 +6531,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>291.5</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>292.85000000000002</fb>
     <v>5</v>
   </rv>
@@ -6543,6 +6619,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>310.5</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2943</fb>
     <v>5</v>
   </rv>
@@ -6731,10 +6811,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3525</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>3607</fb>
     <v>5</v>
   </rv>
@@ -6820,6 +6896,10 @@
   </rv>
   <rv s="3">
     <fb>4148.5</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4232</fb>
     <v>5</v>
   </rv>
   <rv s="8">
@@ -6827,10 +6907,10 @@
     <v>aly352</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45408</v>
+    <v>45409</v>
     <v>0</v>
     <v>1</v>
-    <v>638496000000000000,638497363612318373,0</v>
+    <v>638496864000000000,638497978313152221,0</v>
     <v>0</v>
     <v>aly352</v>
     <v>MISX:SBER</v>
@@ -6938,39 +7018,39 @@
     <v>18</v>
     <v>aly8fr</v>
     <v>Daily</v>
-    <v>45294</v>
-    <v>45294</v>
+    <v>45296</v>
+    <v>45296</v>
     <v>0</v>
     <v>1</v>
-    <v>638398368000000000,638497363247754099,0</v>
+    <v>638400096000000000,638497990966862948,0</v>
     <v>2</v>
     <v>aly8fr</v>
     <v>MISX:YNDX</v>
     <v>10</v>
-  </rv>
-  <rv s="8">
-    <v>18</v>
-    <v>aly8fr</v>
-    <v>Daily</v>
-    <v>45296</v>
-    <v>45296</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638400096000000000,638497363247764058,0</v>
-    <v>2</v>
-    <v>aly8fr</v>
-    <v>MISX:YNDX</v>
-    <v>11</v>
   </rv>
   <rv s="8">
     <v>18</v>
     <v>aly8fr</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45408</v>
+    <v>45294</v>
     <v>0</v>
     <v>1</v>
-    <v>638496000000000000,638497396442673341,0</v>
+    <v>638398368000000000,638497990970377489,0</v>
+    <v>2</v>
+    <v>aly8fr</v>
+    <v>MISX:YNDX</v>
+    <v>11</v>
+  </rv>
+  <rv s="8">
+    <v>18</v>
+    <v>aly8fr</v>
+    <v>Daily</v>
+    <v>45294</v>
+    <v>45409</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638496864000000000,638497978313165498,0</v>
     <v>0</v>
     <v>aly8fr</v>
     <v>MISX:YNDX</v>
@@ -7054,11 +7134,39 @@
     <v>45296</v>
     <v>0</v>
     <v>1</v>
-    <v>638400096000000000,638497363247766701,0</v>
+    <v>638400096000000000,638497990970374945,0</v>
     <v>2</v>
     <v>bwvzww</v>
     <v>MISX:OZON</v>
     <v>18</v>
+  </rv>
+  <rv s="8">
+    <v>18</v>
+    <v>bwvzww</v>
+    <v>Daily</v>
+    <v>45294</v>
+    <v>45409</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638496864000000000,638497978319170427,0</v>
+    <v>0</v>
+    <v>bwvzww</v>
+    <v>MISX:OZON</v>
+    <v>19</v>
+  </rv>
+  <rv s="8">
+    <v>18</v>
+    <v>bwvzww</v>
+    <v>Daily</v>
+    <v>45295</v>
+    <v>45295</v>
+    <v>0</v>
+    <v>1</v>
+    <v/>
+    <v>2</v>
+    <v>bwvzww</v>
+    <v>MISX:OZON</v>
+    <v>20</v>
   </rv>
   <rv s="8">
     <v>18</v>
@@ -7068,36 +7176,8 @@
     <v>45294</v>
     <v>0</v>
     <v>1</v>
-    <v>638398368000000000,638497363247766701,0</v>
+    <v/>
     <v>2</v>
-    <v>bwvzww</v>
-    <v>MISX:OZON</v>
-    <v>19</v>
-  </rv>
-  <rv s="8">
-    <v>18</v>
-    <v>bwvzww</v>
-    <v>Daily</v>
-    <v>45295</v>
-    <v>45295</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638399232000000000,638497363247776656,0</v>
-    <v>2</v>
-    <v>bwvzww</v>
-    <v>MISX:OZON</v>
-    <v>20</v>
-  </rv>
-  <rv s="8">
-    <v>18</v>
-    <v>bwvzww</v>
-    <v>Daily</v>
-    <v>45294</v>
-    <v>45408</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638496000000000000,638497396442599827,0</v>
-    <v>0</v>
     <v>bwvzww</v>
     <v>MISX:OZON</v>
     <v>21</v>
@@ -7162,29 +7242,43 @@
     <v>18</v>
     <v>bwa6r7</v>
     <v>Daily</v>
+    <v>45301</v>
+    <v>45301</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638404416000000000,638497990966867894,0</v>
+    <v>2</v>
+    <v>bwa6r7</v>
+    <v>MISX:SBRI</v>
+    <v>26</v>
+  </rv>
+  <rv s="8">
+    <v>18</v>
+    <v>bwa6r7</v>
+    <v>Daily</v>
     <v>45302</v>
     <v>45302</v>
     <v>0</v>
     <v>1</v>
-    <v>638405280000000000,638497369511213719,0</v>
-    <v>2</v>
-    <v>bwa6r7</v>
-    <v>MISX:SBRI</v>
-    <v>26</v>
-  </rv>
-  <rv s="8">
-    <v>18</v>
-    <v>bwa6r7</v>
-    <v>Daily</v>
-    <v>45301</v>
-    <v>45301</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638404416000000000,638497353263838412,0</v>
+    <v>638405280000000000,638497990966867894,0</v>
     <v>2</v>
     <v>bwa6r7</v>
     <v>MISX:SBRI</v>
     <v>27</v>
+  </rv>
+  <rv s="8">
+    <v>18</v>
+    <v>alxwtc</v>
+    <v>Daily</v>
+    <v>45294</v>
+    <v>45409</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638496864000000000,638497978313182052,0</v>
+    <v>0</v>
+    <v>alxwtc</v>
+    <v>MISX:MTSS</v>
+    <v>28</v>
   </rv>
   <rv s="8">
     <v>18</v>
@@ -7194,11 +7288,11 @@
     <v>45296</v>
     <v>0</v>
     <v>1</v>
-    <v>638400096000000000,638497363247770068,0</v>
+    <v>638400096000000000,638498349620006645,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
-    <v>28</v>
+    <v>29</v>
   </rv>
   <rv s="8">
     <v>18</v>
@@ -7208,11 +7302,11 @@
     <v>45295</v>
     <v>0</v>
     <v>1</v>
-    <v>638399232000000000,638497399465373077,0</v>
+    <v>638399232000000000,638498349620006645,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
-    <v>29</v>
+    <v>30</v>
   </rv>
   <rv s="8">
     <v>18</v>
@@ -7222,22 +7316,8 @@
     <v>45294</v>
     <v>0</v>
     <v>1</v>
-    <v>638398368000000000,638497399465373077,0</v>
+    <v>638398368000000000,638498349620016656,0</v>
     <v>2</v>
-    <v>alxwtc</v>
-    <v>MISX:MTSS</v>
-    <v>30</v>
-  </rv>
-  <rv s="8">
-    <v>18</v>
-    <v>alxwtc</v>
-    <v>Daily</v>
-    <v>45294</v>
-    <v>45408</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638496000000000000,638497363612508265,0</v>
-    <v>0</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
     <v>31</v>
@@ -7250,7 +7330,7 @@
     <v>45299</v>
     <v>0</v>
     <v>1</v>
-    <v/>
+    <v>638402688000000000,638498349620016656,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -7264,7 +7344,7 @@
     <v>45300</v>
     <v>0</v>
     <v>1</v>
-    <v/>
+    <v>638403552000000000,638498349620016656,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -7278,7 +7358,7 @@
     <v>45301</v>
     <v>0</v>
     <v>1</v>
-    <v/>
+    <v>638404416000000000,638498349620026654,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -7292,7 +7372,7 @@
     <v>45302</v>
     <v>0</v>
     <v>1</v>
-    <v/>
+    <v>638405280000000000,638498349620026654,0</v>
     <v>2</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -7306,7 +7386,7 @@
     <v>45300</v>
     <v>0</v>
     <v>1</v>
-    <v>638403552000000000,638493650147810752,0</v>
+    <v>638403552000000000,638497978319339880,0</v>
     <v>2</v>
     <v>alxpec</v>
     <v>MISX:GAZP</v>
@@ -7320,7 +7400,7 @@
     <v>45301</v>
     <v>0</v>
     <v>1</v>
-    <v>638404416000000000,638497286157200738,0</v>
+    <v>638404416000000000,638497978319349831,0</v>
     <v>2</v>
     <v>alxpec</v>
     <v>MISX:GAZP</v>
@@ -7334,7 +7414,7 @@
     <v>45302</v>
     <v>0</v>
     <v>1</v>
-    <v>638405280000000000,638497369511212217,0</v>
+    <v>638405280000000000,638497978318993399,0</v>
     <v>2</v>
     <v>alxpec</v>
     <v>MISX:GAZP</v>
@@ -7499,12 +7579,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -7687,7 +7764,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -7705,9 +7782,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -7853,10 +7927,7 @@
       <v>1</v>
     </spb>
     <spb s="10">
-      <v>1</v>
-      <v>1</v>
       <v>3</v>
-      <v>1</v>
       <v>1</v>
       <v>1</v>
       <v>5</v>
@@ -8000,10 +8071,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -8449,10 +8517,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -8461,10 +8529,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -8477,7 +8545,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148E147-ED61-E142-951B-E021769BC110}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8491,7 +8559,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B82" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B83" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
         <v>MISX:OZON</v>
       </c>
       <c r="B1" t="str">
@@ -8510,803 +8578,813 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="41">
+      <c r="A3" vm="45">
         <f ca="1"/>
         <v>45294</v>
       </c>
-      <c r="B3" vm="8">
+      <c r="B3" vm="11">
         <f ca="1"/>
         <v>2829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="42">
+      <c r="A4" vm="46">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="12">
+      <c r="B4" vm="16">
         <f ca="1"/>
         <v>2816</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="43">
+      <c r="A5" vm="47">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="16">
+      <c r="B5" vm="20">
         <f ca="1"/>
         <v>2800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="44">
+      <c r="A6" vm="48">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="20">
+      <c r="B6" vm="24">
         <f ca="1"/>
         <v>2815</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="45">
+      <c r="A7" vm="49">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="24">
+      <c r="B7" vm="28">
         <f ca="1"/>
         <v>2860.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="46">
+      <c r="A8" vm="50">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="30">
+      <c r="B8" vm="34">
         <f ca="1"/>
         <v>2935</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="47">
+      <c r="A9" vm="51">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="38">
+      <c r="B9" vm="42">
         <f ca="1"/>
         <v>2953.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="48">
+      <c r="A10" vm="52">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="330">
+      <c r="B10" vm="335">
         <f ca="1"/>
         <v>2943</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="50">
+      <c r="A11" vm="54">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="331">
+      <c r="B11" vm="336">
         <f ca="1"/>
         <v>3010</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="52">
+      <c r="A12" vm="56">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="332">
+      <c r="B12" vm="337">
         <f ca="1"/>
         <v>2954.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="54">
+      <c r="A13" vm="58">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="333">
+      <c r="B13" vm="338">
         <f ca="1"/>
         <v>2901.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="56">
+      <c r="A14" vm="60">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="334">
+      <c r="B14" vm="339">
         <f ca="1"/>
         <v>2853</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="58">
+      <c r="A15" vm="62">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="335">
+      <c r="B15" vm="340">
         <f ca="1"/>
         <v>2826</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="60">
+      <c r="A16" vm="64">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="336">
+      <c r="B16" vm="341">
         <f ca="1"/>
         <v>2837</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="62">
+      <c r="A17" vm="66">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="337">
+      <c r="B17" vm="342">
         <f ca="1"/>
         <v>2797</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="63">
+      <c r="A18" vm="67">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="338">
+      <c r="B18" vm="343">
         <f ca="1"/>
         <v>2805</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="65">
+      <c r="A19" vm="69">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="339">
+      <c r="B19" vm="344">
         <f ca="1"/>
         <v>2768</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="67">
+      <c r="A20" vm="71">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="340">
+      <c r="B20" vm="345">
         <f ca="1"/>
         <v>2835</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="69">
+      <c r="A21" vm="73">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="341">
+      <c r="B21" vm="346">
         <f ca="1"/>
         <v>2877</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="71">
+      <c r="A22" vm="75">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="342">
+      <c r="B22" vm="347">
         <f ca="1"/>
         <v>2908.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="73">
+      <c r="A23" vm="77">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="343">
+      <c r="B23" vm="348">
         <f ca="1"/>
         <v>2911.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="74">
+      <c r="A24" vm="78">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="344">
+      <c r="B24" vm="349">
         <f ca="1"/>
         <v>2910</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="76">
+      <c r="A25" vm="80">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="345">
+      <c r="B25" vm="350">
         <f ca="1"/>
         <v>2885.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="78">
+      <c r="A26" vm="82">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="346">
+      <c r="B26" vm="351">
         <f ca="1"/>
         <v>2872</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="80">
+      <c r="A27" vm="84">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="347">
+      <c r="B27" vm="352">
         <f ca="1"/>
         <v>2865.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="82">
+      <c r="A28" vm="86">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="348">
+      <c r="B28" vm="353">
         <f ca="1"/>
         <v>2875.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="84">
+      <c r="A29" vm="88">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="349">
+      <c r="B29" vm="354">
         <f ca="1"/>
         <v>2820</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="86">
+      <c r="A30" vm="90">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="350">
+      <c r="B30" vm="355">
         <f ca="1"/>
         <v>2836</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="88">
+      <c r="A31" vm="92">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="351">
+      <c r="B31" vm="356">
         <f ca="1"/>
         <v>2986</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="90">
+      <c r="A32" vm="94">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="352">
+      <c r="B32" vm="357">
         <f ca="1"/>
         <v>3042</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="92">
+      <c r="A33" vm="96">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="353">
+      <c r="B33" vm="358">
         <f ca="1"/>
         <v>3096</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="94">
+      <c r="A34" vm="98">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="354">
+      <c r="B34" vm="359">
         <f ca="1"/>
         <v>3165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="96">
+      <c r="A35" vm="100">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="355">
+      <c r="B35" vm="360">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="98">
+      <c r="A36" vm="102">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="356">
+      <c r="B36" vm="361">
         <f ca="1"/>
         <v>3135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="100">
+      <c r="A37" vm="104">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="355">
+      <c r="B37" vm="360">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="102">
+      <c r="A38" vm="106">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="357">
+      <c r="B38" vm="362">
         <f ca="1"/>
         <v>2999.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="104">
+      <c r="A39" vm="108">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="358">
+      <c r="B39" vm="363">
         <f ca="1"/>
         <v>3050</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="106">
+      <c r="A40" vm="110">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="359">
+      <c r="B40" vm="364">
         <f ca="1"/>
         <v>3110.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="108">
+      <c r="A41" vm="112">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="360">
+      <c r="B41" vm="365">
         <f ca="1"/>
         <v>3157</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="110">
+      <c r="A42" vm="114">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="361">
+      <c r="B42" vm="366">
         <f ca="1"/>
         <v>3150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="112">
+      <c r="A43" vm="116">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="362">
+      <c r="B43" vm="367">
         <f ca="1"/>
         <v>3174</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="114">
+      <c r="A44" vm="118">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="363">
+      <c r="B44" vm="368">
         <f ca="1"/>
         <v>3255</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="116">
+      <c r="A45" vm="120">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="364">
+      <c r="B45" vm="369">
         <f ca="1"/>
         <v>3375</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="118">
+      <c r="A46" vm="122">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="365">
+      <c r="B46" vm="370">
         <f ca="1"/>
         <v>3328</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="120">
+      <c r="A47" vm="124">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="366">
+      <c r="B47" vm="371">
         <f ca="1"/>
         <v>3323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="122">
+      <c r="A48" vm="126">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="367">
+      <c r="B48" vm="372">
         <f ca="1"/>
         <v>3302.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="124">
+      <c r="A49" vm="128">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="368">
+      <c r="B49" vm="373">
         <f ca="1"/>
         <v>3307</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="126">
+      <c r="A50" vm="130">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="369">
+      <c r="B50" vm="374">
         <f ca="1"/>
         <v>3286.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="128">
+      <c r="A51" vm="132">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="370">
+      <c r="B51" vm="375">
         <f ca="1"/>
         <v>3308.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="130">
+      <c r="A52" vm="134">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="363">
+      <c r="B52" vm="368">
         <f ca="1"/>
         <v>3255</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="132">
+      <c r="A53" vm="136">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="371">
+      <c r="B53" vm="376">
         <f ca="1"/>
         <v>3300</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="134">
+      <c r="A54" vm="138">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="372">
+      <c r="B54" vm="377">
         <f ca="1"/>
         <v>3350</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="136">
+      <c r="A55" vm="140">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="373">
+      <c r="B55" vm="378">
         <f ca="1"/>
         <v>3364.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="138">
+      <c r="A56" vm="142">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="374">
+      <c r="B56" vm="379">
         <f ca="1"/>
         <v>3493</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="140">
+      <c r="A57" vm="144">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="375">
+      <c r="B57" vm="380">
         <f ca="1"/>
         <v>3519</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="142">
+      <c r="A58" vm="146">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="376">
+      <c r="B58" vm="381">
         <f ca="1"/>
         <v>3482.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="144">
+      <c r="A59" vm="148">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="377">
+      <c r="B59" vm="12">
         <f ca="1"/>
         <v>3525</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="146">
+      <c r="A60" vm="149">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="378">
+      <c r="B60" vm="382">
         <f ca="1"/>
         <v>3607</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="148">
+      <c r="A61" vm="151">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="379">
+      <c r="B61" vm="383">
         <f ca="1"/>
         <v>3692</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="150">
+      <c r="A62" vm="153">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="380">
+      <c r="B62" vm="384">
         <f ca="1"/>
         <v>3774.5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="152">
+      <c r="A63" vm="155">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="381">
+      <c r="B63" vm="385">
         <f ca="1"/>
         <v>3770</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="154">
+      <c r="A64" vm="157">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="382">
+      <c r="B64" vm="386">
         <f ca="1"/>
         <v>3871</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="159">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="383">
+      <c r="B65" vm="387">
         <f ca="1"/>
         <v>3839.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="161">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="384">
+      <c r="B66" vm="388">
         <f ca="1"/>
         <v>3791.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="160">
+      <c r="A67" vm="163">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="385">
+      <c r="B67" vm="389">
         <f ca="1"/>
         <v>3880</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="162">
+      <c r="A68" vm="165">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="386">
+      <c r="B68" vm="390">
         <f ca="1"/>
         <v>3847</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="164">
+      <c r="A69" vm="167">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="387">
+      <c r="B69" vm="391">
         <f ca="1"/>
         <v>3852</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="166">
+      <c r="A70" vm="169">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="388">
+      <c r="B70" vm="392">
         <f ca="1"/>
         <v>3739.5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="168">
+      <c r="A71" vm="171">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="389">
+      <c r="B71" vm="393">
         <f ca="1"/>
         <v>3779.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="170">
+      <c r="A72" vm="173">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="381">
+      <c r="B72" vm="385">
         <f ca="1"/>
         <v>3770</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="172">
+      <c r="A73" vm="175">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="390">
+      <c r="B73" vm="394">
         <f ca="1"/>
         <v>3704.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="174">
+      <c r="A74" vm="177">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="391">
+      <c r="B74" vm="395">
         <f ca="1"/>
         <v>3826</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="176">
+      <c r="A75" vm="179">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="392">
+      <c r="B75" vm="396">
         <f ca="1"/>
         <v>3822</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="178">
+      <c r="A76" vm="181">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="393">
+      <c r="B76" vm="397">
         <f ca="1"/>
         <v>3900</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="180">
+      <c r="A77" vm="183">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="394">
+      <c r="B77" vm="398">
         <f ca="1"/>
         <v>3981</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="182">
+      <c r="A78" vm="185">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="395">
+      <c r="B78" vm="399">
         <f ca="1"/>
         <v>4078</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="184">
+      <c r="A79" vm="187">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="396">
+      <c r="B79" vm="400">
         <f ca="1"/>
         <v>4179.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="186">
+      <c r="A80" vm="189">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="397">
+      <c r="B80" vm="401">
         <f ca="1"/>
         <v>4077</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="188">
+      <c r="A81" vm="191">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="398">
+      <c r="B81" vm="402">
         <f ca="1"/>
         <v>3998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="190">
+      <c r="A82" vm="193">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="399">
+      <c r="B82" vm="403">
         <f ca="1"/>
         <v>4148.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" vm="195">
+        <f ca="1"/>
+        <v>45408</v>
+      </c>
+      <c r="B83" vm="404">
+        <f ca="1"/>
+        <v>4232</v>
       </c>
     </row>
   </sheetData>
@@ -9381,7 +9459,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">B2+COUNTA(SBER!A:A)-1</f>
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -9390,29 +9468,29 @@
         <f ca="1">VLOOKUP('Учет акций'!B2,SBER!A:B,2,FALSE)</f>
         <v>273.64</v>
       </c>
-      <c r="F2" s="2" t="e">
+      <c r="F2" s="2" vm="3">
         <f ca="1">VLOOKUP('Учет акций'!C2,SBER!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>294.3</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">E2*D2</f>
         <v>2736.3999999999996</v>
       </c>
-      <c r="H2" s="8" t="e">
+      <c r="H2" s="8">
         <f ca="1">F2*D2</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="4" t="e">
+        <v>2943</v>
+      </c>
+      <c r="J2" s="4">
         <f ca="1">H2-G2</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="6" t="e">
+        <v>206.60000000000036</v>
+      </c>
+      <c r="K2" s="6">
         <f ca="1">(J2/G2)</f>
-        <v>#N/A</v>
+        <v>7.55006577985676E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="e" vm="3">
+      <c r="A3" s="7" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3">
@@ -9420,38 +9498,38 @@
       </c>
       <c r="C3" s="3">
         <f ca="1">B2+COUNTA(YNDX!A:A)-1</f>
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="4" vm="4">
+      <c r="E3" s="4" vm="5">
         <f ca="1">VLOOKUP('Учет акций'!B3,YNDX!A:B,2,FALSE)</f>
         <v>2570.4</v>
       </c>
-      <c r="F3" s="2" t="e">
+      <c r="F3" s="2" vm="6">
         <f ca="1">VLOOKUP('Учет акций'!C3,YNDX!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3990.4</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">E3*D3</f>
         <v>12852</v>
       </c>
-      <c r="H3" s="8" t="e">
+      <c r="H3" s="8">
         <f ca="1">F3*D3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="4" t="e">
+        <v>19952</v>
+      </c>
+      <c r="J3" s="4">
         <f ca="1">H3-G3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="6" t="e">
+        <v>7100</v>
+      </c>
+      <c r="K3" s="6">
         <f ca="1">(J3/G3)</f>
-        <v>#N/A</v>
+        <v>0.55244319950202303</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="e" vm="5">
+      <c r="A4" s="7" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="10">
@@ -9459,38 +9537,38 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">B2+COUNTA(MTSS!A:A)-1</f>
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="4" vm="6">
+      <c r="E4" s="4" vm="8">
         <f ca="1">VLOOKUP('Учет акций'!B4,MTSS!A:B,2,FALSE)</f>
         <v>249.55</v>
       </c>
-      <c r="F4" s="2" t="e">
+      <c r="F4" s="2" vm="9">
         <f ca="1">VLOOKUP('Учет акций'!C4,MTSS!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>291.5</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G5" ca="1" si="0">E4*D4</f>
         <v>1746.8500000000001</v>
       </c>
-      <c r="H4" s="8" t="e">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H5" ca="1" si="1">F4*D4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="4" t="e">
+        <v>2040.5</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J5" ca="1" si="2">H4-G4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="6" t="e">
+        <v>293.64999999999986</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K5" ca="1" si="3">(J4/G4)</f>
-        <v>#N/A</v>
+        <v>0.16810258465237418</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="e" vm="7">
+      <c r="A5" s="7" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="10">
@@ -9498,34 +9576,34 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">B2+COUNTA(OZON!A:A)-1</f>
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="4" vm="8">
+      <c r="E5" s="4" vm="11">
         <f ca="1">VLOOKUP('Учет акций'!B5,OZON!A:B,2,FALSE)</f>
         <v>2829</v>
       </c>
-      <c r="F5" s="2" t="e">
+      <c r="F5" s="2" vm="12">
         <f ca="1">VLOOKUP('Учет акций'!C5,OZON!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3525</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>11316</v>
       </c>
-      <c r="H5" s="8" t="e">
+      <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="4" t="e">
+        <v>14100</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="6" t="e">
+        <v>2784</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
+        <v>0.24602332979851538</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9534,13 +9612,13 @@
       <c r="E6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
-      <c r="J6" s="4" t="e">
+      <c r="J6" s="4">
         <f ca="1">SUM(J2:J5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="6" t="e">
+        <v>10384.25</v>
+      </c>
+      <c r="K6" s="6">
         <f ca="1">J6/SUM(G2:G5)</f>
-        <v>#N/A</v>
+        <v>0.36243619388333842</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9564,10 +9642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6B9AD-6B93-4006-9A0A-710E3C14A242}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9578,17 +9656,15 @@
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
@@ -9606,16 +9682,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9639,22 +9709,15 @@
         <f ca="1">E2*F2</f>
         <v>2736.3999999999996</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <f>H2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="e" vm="3">
+      <c r="B3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C3" t="s">
@@ -9663,7 +9726,7 @@
       <c r="D3" s="5">
         <v>45294</v>
       </c>
-      <c r="E3" cm="1" vm="4">
+      <c r="E3" cm="1" vm="5">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.STOCKHISTORY(B3,D3,D3,0,0,1)</f>
         <v>2570.4</v>
       </c>
@@ -9674,22 +9737,15 @@
         <f t="shared" ref="G3:G5" ca="1" si="0">E3*F3</f>
         <v>12852</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <f t="shared" ref="I3:I17" si="1">H3*F3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="e" vm="5">
+      <c r="B4" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C4" t="s">
@@ -9698,7 +9754,7 @@
       <c r="D4" s="5">
         <v>45294</v>
       </c>
-      <c r="E4" cm="1" vm="6">
+      <c r="E4" cm="1" vm="8">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.STOCKHISTORY(B4,D4,D4,0,0,1)</f>
         <v>249.55</v>
       </c>
@@ -9709,22 +9765,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>1746.8500000000001</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="e" vm="7">
+      <c r="B5" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C5" t="s">
@@ -9733,7 +9782,7 @@
       <c r="D5" s="5">
         <v>45294</v>
       </c>
-      <c r="E5" cm="1" vm="8">
+      <c r="E5" cm="1" vm="11">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.STOCKHISTORY(B5,D5,D5,0,0,1)</f>
         <v>2829</v>
       </c>
@@ -9744,18 +9793,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>11316</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9769,7 +9811,7 @@
         <f>D2+1</f>
         <v>45295</v>
       </c>
-      <c r="E6" cm="1" vm="9">
+      <c r="E6" cm="1" vm="13">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.STOCKHISTORY(B6,D6,D6,0,0,1)</f>
         <v>274.04000000000002</v>
       </c>
@@ -9777,36 +9819,28 @@
         <v>10</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:G27" ca="1" si="2">IF(J6 = "Покупка", -(E6*F6), E6*F6)</f>
+        <f ca="1">IF(H6 = "Покупка", -(E6*F6), E6*F6)</f>
         <v>2740.4</v>
       </c>
-      <c r="H6" s="13">
-        <f ca="1">E6-E2</f>
-        <v>0.40000000000003411</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.0000000000003411</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="e" vm="3">
+      <c r="B7" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D9" si="3">D3+1</f>
+        <f t="shared" ref="D7:D9" si="1">D3+1</f>
         <v>45295</v>
       </c>
-      <c r="E7" cm="1" vm="10">
+      <c r="E7" cm="1" vm="14">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.STOCKHISTORY(B7,D7,D7,0,0,1)</f>
         <v>2568.6</v>
       </c>
@@ -9814,36 +9848,28 @@
         <v>5</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H7 = "Покупка", -(E7*F7), E7*F7)</f>
         <v>12843</v>
       </c>
-      <c r="H7" s="13">
-        <f t="shared" ref="H7:H17" ca="1" si="4">E7-E3</f>
-        <v>-1.8000000000001819</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-9.0000000000009095</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="e" vm="5">
+      <c r="B8" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45295</v>
       </c>
-      <c r="E8" cm="1" vm="11">
+      <c r="E8" cm="1" vm="15">
         <f t="array" aca="1" ref="E8" ca="1">_xlfn.STOCKHISTORY(B8,D8,D8,0,0,1)</f>
         <v>250.95</v>
       </c>
@@ -9851,36 +9877,28 @@
         <v>7</v>
       </c>
       <c r="G8" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H8 = "Покупка", -(E8*F8), E8*F8)</f>
         <v>1756.6499999999999</v>
       </c>
-      <c r="H8" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.3999999999999773</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.7999999999998408</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="e" vm="7">
+      <c r="B9" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45295</v>
       </c>
-      <c r="E9" cm="1" vm="12">
+      <c r="E9" cm="1" vm="16">
         <f t="array" aca="1" ref="E9" ca="1">_xlfn.STOCKHISTORY(B9,D9,D9,0,0,1)</f>
         <v>2816</v>
       </c>
@@ -9888,22 +9906,14 @@
         <v>4</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H9 = "Покупка", -(E9*F9), E9*F9)</f>
         <v>11264</v>
       </c>
-      <c r="H9" s="13">
-        <f ca="1">E9-E5</f>
-        <v>-13</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-52</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9917,7 +9927,7 @@
         <f>D6+1</f>
         <v>45296</v>
       </c>
-      <c r="E10" cm="1" vm="13">
+      <c r="E10" cm="1" vm="17">
         <f t="array" aca="1" ref="E10" ca="1">_xlfn.STOCKHISTORY(B10,D10,D10,0,0,1)</f>
         <v>273.45999999999998</v>
       </c>
@@ -9925,36 +9935,28 @@
         <v>10</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H10 = "Покупка", -(E10*F10), E10*F10)</f>
         <v>2734.6</v>
       </c>
-      <c r="H10" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.58000000000004093</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.8000000000004093</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="e" vm="3">
+      <c r="B11" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:D13" si="5">D7+1</f>
+        <f t="shared" ref="D11:D13" si="2">D7+1</f>
         <v>45296</v>
       </c>
-      <c r="E11" cm="1" vm="14">
+      <c r="E11" cm="1" vm="18">
         <f t="array" aca="1" ref="E11" ca="1">_xlfn.STOCKHISTORY(B11,D11,D11,0,0,1)</f>
         <v>2573.8000000000002</v>
       </c>
@@ -9962,36 +9964,28 @@
         <v>5</v>
       </c>
       <c r="G11" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H11 = "Покупка", -(E11*F11), E11*F11)</f>
         <v>12869</v>
       </c>
-      <c r="H11" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2000000000002728</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>26.000000000001364</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="e" vm="5">
+      <c r="B12" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>45296</v>
       </c>
-      <c r="E12" cm="1" vm="15">
+      <c r="E12" cm="1" vm="19">
         <f t="array" aca="1" ref="E12" ca="1">_xlfn.STOCKHISTORY(B12,D12,D12,0,0,1)</f>
         <v>250.9</v>
       </c>
@@ -9999,36 +9993,28 @@
         <v>7</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H12 = "Покупка", -(E12*F12), E12*F12)</f>
         <v>1756.3</v>
       </c>
-      <c r="H12" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.9999999999982947E-2</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.34999999999988063</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="e" vm="7">
+      <c r="B13" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>45296</v>
       </c>
-      <c r="E13" cm="1" vm="16">
+      <c r="E13" cm="1" vm="20">
         <f t="array" aca="1" ref="E13" ca="1">_xlfn.STOCKHISTORY(B13,D13,D13,0,0,1)</f>
         <v>2800</v>
       </c>
@@ -10036,22 +10022,14 @@
         <v>4</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H13 = "Покупка", -(E13*F13), E13*F13)</f>
         <v>11200</v>
       </c>
-      <c r="H13" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>-16</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-64</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10065,7 +10043,7 @@
         <f>D10+1</f>
         <v>45297</v>
       </c>
-      <c r="E14" cm="1" vm="13">
+      <c r="E14" cm="1" vm="17">
         <f t="array" aca="1" ref="E14" ca="1">IFERROR(_xlfn.STOCKHISTORY(B14,D14,D14,0,0,1),E10)</f>
         <v>273.45999999999998</v>
       </c>
@@ -10073,36 +10051,28 @@
         <v>10</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H14 = "Покупка", -(E14*F14), E14*F14)</f>
         <v>2734.6</v>
       </c>
-      <c r="H14" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="e" vm="3">
+      <c r="B15" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ref="D15:D25" si="6">D11+1</f>
+        <f t="shared" ref="D15:D25" si="3">D11+1</f>
         <v>45297</v>
       </c>
-      <c r="E15" cm="1" vm="14">
+      <c r="E15" cm="1" vm="18">
         <f t="array" aca="1" ref="E15" ca="1">IFERROR(_xlfn.STOCKHISTORY(B15,D15,D15,0,0,1),E11)</f>
         <v>2573.8000000000002</v>
       </c>
@@ -10110,36 +10080,28 @@
         <v>5</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H15 = "Покупка", -(E15*F15), E15*F15)</f>
         <v>12869</v>
       </c>
-      <c r="H15" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="e" vm="5">
+      <c r="B16" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45297</v>
       </c>
-      <c r="E16" cm="1" vm="15">
+      <c r="E16" cm="1" vm="19">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(_xlfn.STOCKHISTORY(B16,D16,D16,0,0,1),E12)</f>
         <v>250.9</v>
       </c>
@@ -10147,36 +10109,28 @@
         <v>7</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H16 = "Покупка", -(E16*F16), E16*F16)</f>
         <v>1756.3</v>
       </c>
-      <c r="H16" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="e" vm="7">
+      <c r="B17" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45297</v>
       </c>
-      <c r="E17" cm="1" vm="16">
+      <c r="E17" cm="1" vm="20">
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(_xlfn.STOCKHISTORY(B17,D17,D17,0,0,1),E13)</f>
         <v>2800</v>
       </c>
@@ -10184,22 +10138,14 @@
         <v>4</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H17 = "Покупка", -(E17*F17), E17*F17)</f>
         <v>11200</v>
       </c>
-      <c r="H17" s="13">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10213,7 +10159,7 @@
         <f>D14+1</f>
         <v>45298</v>
       </c>
-      <c r="E18" cm="1" vm="13">
+      <c r="E18" cm="1" vm="17">
         <f t="array" aca="1" ref="E18" ca="1">IFERROR(_xlfn.STOCKHISTORY(B18,D18,D18,0,0,1),E14)</f>
         <v>273.45999999999998</v>
       </c>
@@ -10221,36 +10167,28 @@
         <v>10</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H18 = "Покупка", -(E18*F18), E18*F18)</f>
         <v>2734.6</v>
       </c>
-      <c r="H18" s="13">
-        <f t="shared" ref="H18:H21" ca="1" si="7">E18-E14</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" ref="I18:I21" ca="1" si="8">H18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="e" vm="3">
+      <c r="B19" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45298</v>
       </c>
-      <c r="E19" cm="1" vm="14">
+      <c r="E19" cm="1" vm="18">
         <f t="array" aca="1" ref="E19" ca="1">IFERROR(_xlfn.STOCKHISTORY(B19,D19,D19,0,0,1),E15)</f>
         <v>2573.8000000000002</v>
       </c>
@@ -10258,36 +10196,28 @@
         <v>5</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H19 = "Покупка", -(E19*F19), E19*F19)</f>
         <v>12869</v>
       </c>
-      <c r="H19" s="13">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="e" vm="5">
+      <c r="B20" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45298</v>
       </c>
-      <c r="E20" cm="1" vm="15">
+      <c r="E20" cm="1" vm="19">
         <f t="array" aca="1" ref="E20" ca="1">IFERROR(_xlfn.STOCKHISTORY(B20,D20,D20,0,0,1),E16)</f>
         <v>250.9</v>
       </c>
@@ -10295,36 +10225,28 @@
         <v>7</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H20 = "Покупка", -(E20*F20), E20*F20)</f>
         <v>1756.3</v>
       </c>
-      <c r="H20" s="13">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="e" vm="7">
+      <c r="B21" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45298</v>
       </c>
-      <c r="E21" cm="1" vm="16">
+      <c r="E21" cm="1" vm="20">
         <f t="array" aca="1" ref="E21" ca="1">IFERROR(_xlfn.STOCKHISTORY(B21,D21,D21,0,0,1),E17)</f>
         <v>2800</v>
       </c>
@@ -10332,22 +10254,14 @@
         <v>4</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H21 = "Покупка", -(E21*F21), E21*F21)</f>
         <v>11200</v>
       </c>
-      <c r="H21" s="13">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10361,7 +10275,7 @@
         <f>D18+1</f>
         <v>45299</v>
       </c>
-      <c r="E22" cm="1" vm="17">
+      <c r="E22" cm="1" vm="21">
         <f t="array" aca="1" ref="E22" ca="1">IFERROR(_xlfn.STOCKHISTORY(B22,D22,D22,0,0,1),E18)</f>
         <v>275.81</v>
       </c>
@@ -10369,36 +10283,28 @@
         <v>10</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H22 = "Покупка", -(E22*F22), E22*F22)</f>
         <v>2758.1</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" ref="H22:H24" ca="1" si="9">E22-E18</f>
-        <v>2.3500000000000227</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" ref="I22:I31" ca="1" si="10">H22*F22</f>
-        <v>23.500000000000227</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="e" vm="3">
+      <c r="B23" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45299</v>
       </c>
-      <c r="E23" cm="1" vm="18">
+      <c r="E23" cm="1" vm="22">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(_xlfn.STOCKHISTORY(B23,D23,D23,0,0,1),E19)</f>
         <v>2605</v>
       </c>
@@ -10406,36 +10312,28 @@
         <v>5</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H23 = "Покупка", -(E23*F23), E23*F23)</f>
         <v>13025</v>
       </c>
-      <c r="H23" s="13">
-        <f ca="1">E23-E19</f>
-        <v>31.199999999999818</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>155.99999999999909</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="e" vm="5">
+      <c r="B24" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45299</v>
       </c>
-      <c r="E24" cm="1" vm="19">
+      <c r="E24" cm="1" vm="23">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(_xlfn.STOCKHISTORY(B24,D24,D24,0,0,1),E20)</f>
         <v>253.25</v>
       </c>
@@ -10443,36 +10341,28 @@
         <v>7</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H24 = "Покупка", -(E24*F24), E24*F24)</f>
         <v>1772.75</v>
       </c>
-      <c r="H24" s="13">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.3499999999999943</v>
-      </c>
-      <c r="I24" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>16.44999999999996</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="e" vm="7">
+      <c r="B25" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45299</v>
       </c>
-      <c r="E25" cm="1" vm="20">
+      <c r="E25" cm="1" vm="24">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(_xlfn.STOCKHISTORY(B25,D25,D25,0,0,1),E21)</f>
         <v>2815</v>
       </c>
@@ -10480,22 +10370,14 @@
         <v>4</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(H25 = "Покупка", -(E25*F25), E25*F25)</f>
         <v>11260</v>
       </c>
-      <c r="H25" s="13">
-        <f ca="1">E25-E21</f>
-        <v>15</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10508,7 +10390,7 @@
       <c r="D26" s="5">
         <v>45299</v>
       </c>
-      <c r="E26" cm="1" vm="17">
+      <c r="E26" cm="1" vm="21">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(_xlfn.STOCKHISTORY(B26,D26,D26,0,0,1),E22)</f>
         <v>275.81</v>
       </c>
@@ -10519,23 +10401,15 @@
         <f ca="1">E26*F26</f>
         <v>1379.05</v>
       </c>
-      <c r="H26" s="13">
-        <f ca="1">H22</f>
-        <v>2.3500000000000227</v>
-      </c>
-      <c r="I26" s="13">
-        <f>IF(J26="Покупка",0,H26*F26)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="H26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="e" vm="5">
+      <c r="B27" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C27" t="s">
@@ -10544,7 +10418,7 @@
       <c r="D27" s="5">
         <v>45299</v>
       </c>
-      <c r="E27" cm="1" vm="19">
+      <c r="E27" cm="1" vm="23">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(_xlfn.STOCKHISTORY(B27,D27,D27,0,0,1),E23)</f>
         <v>253.25</v>
       </c>
@@ -10555,19 +10429,11 @@
         <f ca="1">E27*F27</f>
         <v>2532.5</v>
       </c>
-      <c r="H27" s="13">
-        <f ca="1">H24</f>
-        <v>2.3499999999999943</v>
-      </c>
-      <c r="I27" s="13">
-        <f>IF(J27="Покупка",0,H27*F27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10580,35 +10446,26 @@
       <c r="D28" s="5">
         <v>45300</v>
       </c>
-      <c r="E28" cm="1" vm="21">
+      <c r="E28" cm="1" vm="25">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(_xlfn.STOCKHISTORY(B28,D28,D28,0,0,1),E24)</f>
         <v>276</v>
       </c>
       <c r="F28">
-        <f>F22+F26</f>
         <v>15</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" ref="G28:G31" ca="1" si="11">IF(J28 = "Покупка", -(E28*F28), E28*F28)</f>
+        <f ca="1">IF(H28 = "Покупка", -(E28*F28), E28*F28)</f>
         <v>4140</v>
       </c>
-      <c r="H28" s="13">
-        <f t="shared" ref="H28:H30" ca="1" si="12">E28-E24</f>
-        <v>22.75</v>
-      </c>
-      <c r="I28" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>341.25</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="e" vm="3">
+      <c r="B29" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C29" t="s">
@@ -10617,7 +10474,7 @@
       <c r="D29" s="5">
         <v>45300</v>
       </c>
-      <c r="E29" cm="1" vm="22">
+      <c r="E29" cm="1" vm="26">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(_xlfn.STOCKHISTORY(B29,D29,D29,0,0,1),E25)</f>
         <v>2611</v>
       </c>
@@ -10625,26 +10482,18 @@
         <v>5</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(H29 = "Покупка", -(E29*F29), E29*F29)</f>
         <v>13055</v>
       </c>
-      <c r="H29" s="13">
-        <f ca="1">E29-E23</f>
-        <v>6</v>
-      </c>
-      <c r="I29" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="e" vm="5">
+      <c r="B30" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C30" t="s">
@@ -10653,35 +10502,26 @@
       <c r="D30" s="5">
         <v>45300</v>
       </c>
-      <c r="E30" cm="1" vm="23">
+      <c r="E30" cm="1" vm="27">
         <f t="array" aca="1" ref="E30" ca="1">IFERROR(_xlfn.STOCKHISTORY(B30,D30,D30,0,0,1),E26)</f>
         <v>259.39999999999998</v>
       </c>
       <c r="F30">
-        <f>F24+F27</f>
         <v>17</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(H30 = "Покупка", -(E30*F30), E30*F30)</f>
         <v>4409.7999999999993</v>
       </c>
-      <c r="H30" s="13">
-        <f ca="1">E30-E27</f>
-        <v>6.1499999999999773</v>
-      </c>
-      <c r="I30" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>104.54999999999961</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="H30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="e" vm="7">
+      <c r="B31" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C31" t="s">
@@ -10690,7 +10530,7 @@
       <c r="D31" s="5">
         <v>45300</v>
       </c>
-      <c r="E31" cm="1" vm="24">
+      <c r="E31" cm="1" vm="28">
         <f t="array" aca="1" ref="E31" ca="1">IFERROR(_xlfn.STOCKHISTORY(B31,D31,D31,0,0,1),E27)</f>
         <v>2860.5</v>
       </c>
@@ -10698,26 +10538,18 @@
         <v>4</v>
       </c>
       <c r="G31" s="13">
-        <f ca="1">IF(J31 = "Покупка", -(E31*F31), E31*F31)</f>
+        <f ca="1">IF(H31 = "Покупка", -(E31*F31), E31*F31)</f>
         <v>11442</v>
       </c>
-      <c r="H31" s="13">
-        <f ca="1">E31-E25</f>
-        <v>45.5</v>
-      </c>
-      <c r="I31" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>182</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="e" vm="25">
+      <c r="B32" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="C32" t="s">
@@ -10726,7 +10558,7 @@
       <c r="D32" s="5">
         <v>45300</v>
       </c>
-      <c r="E32" cm="1" vm="26">
+      <c r="E32" cm="1" vm="30">
         <f t="array" aca="1" ref="E32" ca="1">IFERROR(_xlfn.STOCKHISTORY(B32,D32,D32,0,0,1),E28)</f>
         <v>162.25</v>
       </c>
@@ -10737,18 +10569,11 @@
         <f ca="1">E32*F32</f>
         <v>811.25</v>
       </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
-        <f>H32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="H32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10761,7 +10586,7 @@
       <c r="D33" s="5">
         <v>45301</v>
       </c>
-      <c r="E33" cm="1" vm="27">
+      <c r="E33" cm="1" vm="31">
         <f t="array" aca="1" ref="E33" ca="1">IFERROR(_xlfn.STOCKHISTORY(B33,D33,D33,0,0,1),E28)</f>
         <v>275.68</v>
       </c>
@@ -10769,26 +10594,18 @@
         <v>15</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" ref="G33:G36" ca="1" si="13">IF(J33 = "Покупка", -(E33*F33), E33*F33)</f>
+        <f ca="1">IF(H33 = "Покупка", -(E33*F33), E33*F33)</f>
         <v>4135.2</v>
       </c>
-      <c r="H33" s="13">
-        <f ca="1">E33-E28</f>
-        <v>-0.31999999999999318</v>
-      </c>
-      <c r="I33" s="13">
-        <f t="shared" ref="I33:I36" ca="1" si="14">H33*F33</f>
-        <v>-4.7999999999998977</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="e" vm="3">
+      <c r="B34" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C34" t="s">
@@ -10797,7 +10614,7 @@
       <c r="D34" s="5">
         <v>45301</v>
       </c>
-      <c r="E34" cm="1" vm="28">
+      <c r="E34" cm="1" vm="32">
         <f t="array" aca="1" ref="E34" ca="1">IFERROR(_xlfn.STOCKHISTORY(B34,D34,D34,0,0,1),E29)</f>
         <v>2599.6</v>
       </c>
@@ -10805,26 +10622,18 @@
         <v>5</v>
       </c>
       <c r="G34" s="13">
-        <f ca="1">IF(J34 = "Покупка", -(E34*F34), E34*F34)</f>
+        <f ca="1">IF(H34 = "Покупка", -(E34*F34), E34*F34)</f>
         <v>12998</v>
       </c>
-      <c r="H34" s="13">
-        <f ca="1">E34-E29</f>
-        <v>-11.400000000000091</v>
-      </c>
-      <c r="I34" s="13">
-        <f ca="1">H34*F34</f>
-        <v>-57.000000000000455</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="H34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="e" vm="5">
+      <c r="B35" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C35" t="s">
@@ -10833,7 +10642,7 @@
       <c r="D35" s="5">
         <v>45301</v>
       </c>
-      <c r="E35" cm="1" vm="29">
+      <c r="E35" cm="1" vm="33">
         <f t="array" aca="1" ref="E35" ca="1">IFERROR(_xlfn.STOCKHISTORY(B35,D35,D35,0,0,1),E30)</f>
         <v>263</v>
       </c>
@@ -10841,26 +10650,18 @@
         <v>17</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(H35 = "Покупка", -(E35*F35), E35*F35)</f>
         <v>4471</v>
       </c>
-      <c r="H35" s="13">
-        <f ca="1">E35-E30</f>
-        <v>3.6000000000000227</v>
-      </c>
-      <c r="I35" s="13">
-        <f t="shared" ca="1" si="14"/>
-        <v>61.200000000000387</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="H35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="e" vm="7">
+      <c r="B36" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C36" t="s">
@@ -10869,7 +10670,7 @@
       <c r="D36" s="5">
         <v>45301</v>
       </c>
-      <c r="E36" cm="1" vm="30">
+      <c r="E36" cm="1" vm="34">
         <f t="array" aca="1" ref="E36" ca="1">IFERROR(_xlfn.STOCKHISTORY(B36,D36,D36,0,0,1),E31)</f>
         <v>2935</v>
       </c>
@@ -10877,26 +10678,18 @@
         <v>4</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(H36 = "Покупка", -(E36*F36), E36*F36)</f>
         <v>11740</v>
       </c>
-      <c r="H36" s="13">
-        <f ca="1">E36-E31</f>
-        <v>74.5</v>
-      </c>
-      <c r="I36" s="13">
-        <f t="shared" ca="1" si="14"/>
-        <v>298</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="e" vm="25">
+      <c r="B37" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="C37" t="s">
@@ -10905,7 +10698,7 @@
       <c r="D37" s="5">
         <v>45301</v>
       </c>
-      <c r="E37" cm="1" vm="31">
+      <c r="E37" cm="1" vm="35">
         <f t="array" aca="1" ref="E37" ca="1">IFERROR(_xlfn.STOCKHISTORY(B37,D37,D37,0,0,1),E32)</f>
         <v>163.05000000000001</v>
       </c>
@@ -10913,30 +10706,22 @@
         <v>5</v>
       </c>
       <c r="G37" s="13">
-        <f ca="1">IF(J37 = "Покупка", -(E37*F37), E37*F37)</f>
+        <f ca="1">IF(H37 = "Покупка", -(E37*F37), E37*F37)</f>
         <v>815.25</v>
       </c>
-      <c r="H37" s="13">
-        <f ca="1">E37-E32</f>
-        <v>0.80000000000001137</v>
-      </c>
-      <c r="I37" s="13">
-        <f ca="1">H37*F37</f>
-        <v>4.0000000000000568</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="e" vm="32">
+      <c r="B38" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="5">
         <v>45301</v>
@@ -10952,31 +10737,24 @@
         <f>E38*F38</f>
         <v>1808.08</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <f>H38*F38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="H38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="e" vm="33">
+      <c r="B39" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="5">
         <v>45301</v>
       </c>
-      <c r="E39" cm="1" vm="34">
+      <c r="E39" cm="1" vm="38">
         <f t="array" aca="1" ref="E39" ca="1">_xlfn.STOCKHISTORY(B39,D39,D39,0,0,1)</f>
         <v>13.231999999999999</v>
       </c>
@@ -10987,26 +10765,19 @@
         <f ca="1">E39*F39</f>
         <v>1323.1999999999998</v>
       </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
-        <f>H39*F39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="5">
         <v>45301</v>
@@ -11022,18 +10793,11 @@
         <f>E40*F40</f>
         <v>5886.06</v>
       </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <f>H40*F40</f>
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11046,7 +10810,7 @@
       <c r="D41" s="5">
         <v>45302</v>
       </c>
-      <c r="E41" cm="1" vm="35">
+      <c r="E41" cm="1" vm="39">
         <f t="array" aca="1" ref="E41" ca="1">IFERROR(_xlfn.STOCKHISTORY(B41,D41,D41,0,0,1),E33)</f>
         <v>275.89999999999998</v>
       </c>
@@ -11054,26 +10818,18 @@
         <v>15</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" ref="G41:G48" ca="1" si="15">E41*F41</f>
+        <f t="shared" ref="G41:G48" ca="1" si="4">E41*F41</f>
         <v>4138.5</v>
       </c>
-      <c r="H41" s="13">
-        <f t="shared" ref="H41:H48" ca="1" si="16">E41-E33</f>
-        <v>0.21999999999997044</v>
-      </c>
-      <c r="I41" s="13">
-        <f ca="1">H41*F41</f>
-        <v>3.2999999999995566</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="e" vm="3">
+      <c r="B42" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="C42" t="s">
@@ -11082,7 +10838,7 @@
       <c r="D42" s="5">
         <v>45302</v>
       </c>
-      <c r="E42" cm="1" vm="36">
+      <c r="E42" cm="1" vm="40">
         <f t="array" aca="1" ref="E42" ca="1">IFERROR(_xlfn.STOCKHISTORY(B42,D42,D42,0,0,1),E34)</f>
         <v>2614.6</v>
       </c>
@@ -11090,26 +10846,18 @@
         <v>5</v>
       </c>
       <c r="G42" s="13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="4"/>
         <v>13073</v>
       </c>
-      <c r="H42" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="I42" s="13">
-        <f t="shared" ref="I42:I48" ca="1" si="17">H42*F42</f>
-        <v>75</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="H42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="e" vm="5">
+      <c r="B43" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="C43" t="s">
@@ -11118,7 +10866,7 @@
       <c r="D43" s="5">
         <v>45302</v>
       </c>
-      <c r="E43" cm="1" vm="37">
+      <c r="E43" cm="1" vm="41">
         <f t="array" aca="1" ref="E43" ca="1">IFERROR(_xlfn.STOCKHISTORY(B43,D43,D43,0,0,1),E35)</f>
         <v>264.85000000000002</v>
       </c>
@@ -11126,26 +10874,18 @@
         <v>17</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4502.4500000000007</v>
       </c>
-      <c r="H43" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8500000000000227</v>
-      </c>
-      <c r="I43" s="13">
-        <f t="shared" ca="1" si="17"/>
-        <v>31.450000000000387</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="H43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="e" vm="7">
+      <c r="B44" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="C44" t="s">
@@ -11154,7 +10894,7 @@
       <c r="D44" s="5">
         <v>45302</v>
       </c>
-      <c r="E44" cm="1" vm="38">
+      <c r="E44" cm="1" vm="42">
         <f t="array" aca="1" ref="E44" ca="1">IFERROR(_xlfn.STOCKHISTORY(B44,D44,D44,0,0,1),E36)</f>
         <v>2953.5</v>
       </c>
@@ -11162,26 +10902,18 @@
         <v>4</v>
       </c>
       <c r="G44" s="13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="4"/>
         <v>11814</v>
       </c>
-      <c r="H44" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>18.5</v>
-      </c>
-      <c r="I44" s="13">
-        <f t="shared" ca="1" si="17"/>
-        <v>74</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="H44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="e" vm="25">
+      <c r="B45" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="C45" t="s">
@@ -11190,7 +10922,7 @@
       <c r="D45" s="5">
         <v>45302</v>
       </c>
-      <c r="E45" cm="1" vm="39">
+      <c r="E45" cm="1" vm="43">
         <f t="array" aca="1" ref="E45" ca="1">IFERROR(_xlfn.STOCKHISTORY(B45,D45,D45,0,0,1),E37)</f>
         <v>162.86000000000001</v>
       </c>
@@ -11198,30 +10930,22 @@
         <v>5</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="4"/>
         <v>814.30000000000007</v>
       </c>
-      <c r="H45" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>-0.18999999999999773</v>
-      </c>
-      <c r="I45" s="13">
-        <f t="shared" ca="1" si="17"/>
-        <v>-0.94999999999998863</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="H45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="e" vm="32">
+      <c r="B46" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D46" s="5">
         <v>45302</v>
@@ -11234,35 +10958,27 @@
         <v>20</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1787.8780000000002</v>
       </c>
-      <c r="H46" s="13">
-        <f t="shared" si="16"/>
-        <v>-1.0100999999999942</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="17"/>
-        <v>-20.201999999999884</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="e" vm="33">
+      <c r="B47" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="5">
         <v>45302</v>
       </c>
-      <c r="E47" cm="1" vm="40">
+      <c r="E47" cm="1" vm="44">
         <f t="array" aca="1" ref="E47" ca="1">_xlfn.STOCKHISTORY(B47,D47,D47,0,0,1)</f>
         <v>13.278</v>
       </c>
@@ -11270,30 +10986,22 @@
         <v>100</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1327.8</v>
       </c>
-      <c r="H47" s="13">
-        <f t="shared" ca="1" si="16"/>
-        <v>4.6000000000001151E-2</v>
-      </c>
-      <c r="I47" s="13">
-        <f t="shared" ca="1" si="17"/>
-        <v>4.6000000000001151</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="H47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="5">
         <v>45302</v>
@@ -11306,40 +11014,32 @@
         <v>1</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>5848.46</v>
       </c>
-      <c r="H48" s="13">
-        <f t="shared" si="16"/>
-        <v>-37.600000000000364</v>
-      </c>
-      <c r="I48" s="13">
-        <f t="shared" si="17"/>
-        <v>-37.600000000000364</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="H48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
         <v>32</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
       </c>
       <c r="D51" s="5">
         <v>45383</v>
@@ -11354,23 +11054,16 @@
         <f>E51*F51</f>
         <v>4930</v>
       </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
-        <f>H51*F51</f>
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="H51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -11388,26 +11081,19 @@
         <f>E52*F52</f>
         <v>541.31999999999994</v>
       </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
-        <f>H52*F52</f>
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" s="5">
         <v>45384</v>
@@ -11422,33 +11108,26 @@
         <f>E53*F53</f>
         <v>337.60999999999996</v>
       </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13">
-        <f>H53*F53</f>
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
@@ -11466,550 +11145,470 @@
         <f>E56*F56</f>
         <v>11728.3</v>
       </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
-        <f>H56*F56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>38</v>
+      <c r="H56" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{5B4C2AA0-4746-4460-BF11-0B784B6EA7B9}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H28:H31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{917351F1-3D0D-4EEE-8306-911DDB06506F}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H33:H36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{9C160D47-4295-4FCF-B46F-5098A2E7C9E4}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H41:H48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{F5DB8272-C834-4E8C-9D15-C61A81DDFD4A}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H2:I27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4D9DFF4B-88DE-4BDB-B291-5F9B6BCB48EA}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H32:I32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{0845C8C3-35CD-4359-BB5F-ECC0966D7FF1}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H37:I37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{9453D0B4-4E13-45B7-8E38-7F1CBFC35889}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H38:I38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{820AB551-9E1E-4C6F-B00F-DE799FC2A8C3}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H39:I39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{096AD034-2E59-48A3-BAB1-78F861124B69}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H40:I40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{35FCCFB8-49BA-45CE-8B73-AA7BD4FBAF93}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I28:I31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{8139F04E-84D2-482B-BE0D-5D9EDE698F2B}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I33:I36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{50450A03-5755-43D9-80AB-87424EA10759}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I41:I48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{31A3CE84-306E-47B1-A7DD-68A69A16BFEA}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H51:I51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{9FDCD719-E329-42D5-B99E-B9D318C7C446}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H52:I52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{6E106F3E-F195-4E4C-957C-FDB82B5159DF}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H53:I53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{6856AC89-43D0-40AF-9662-149EF550F573}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H56:I56</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D46DA0-15A4-4C75-A55D-C48D77690821}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15">
         <f ca="1">История!G2+История!G26</f>
         <v>4115.45</v>
       </c>
-      <c r="D2" s="15">
+      <c r="F2" s="15">
+        <f ca="1">E2/C2</f>
+        <v>274.36333333333334</v>
+      </c>
+      <c r="G2" s="15">
         <f ca="1">История!G41</f>
         <v>4138.5</v>
       </c>
-      <c r="E2" s="15">
-        <f ca="1">D2-C2</f>
+      <c r="H2" s="15">
+        <f ca="1">G2/C2</f>
+        <v>275.89999999999998</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J7" ca="1" si="0">G2-E2+I2</f>
         <v>23.050000000000182</v>
       </c>
-      <c r="F2" s="16">
-        <f ca="1">E2/C2</f>
+      <c r="K2" s="16">
+        <f t="shared" ref="K2:K7" ca="1" si="1">J2/E2</f>
         <v>5.6008455940420084E-3</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="e" vm="3">
+      <c r="L2" s="16">
+        <f ca="1">K2/D2*365</f>
+        <v>0.25553858022816661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15">
         <f ca="1">История!G3</f>
         <v>12852</v>
       </c>
-      <c r="D3" s="15">
+      <c r="F3" s="15">
+        <f ca="1">E3/C3</f>
+        <v>2570.4</v>
+      </c>
+      <c r="G3" s="15">
         <f ca="1">История!G42</f>
         <v>13073</v>
       </c>
-      <c r="E3" s="15">
-        <f ca="1">D3-C3</f>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H9" ca="1" si="2">G3/C3</f>
+        <v>2614.6</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ca="1" si="0"/>
         <v>221</v>
       </c>
-      <c r="F3" s="16">
-        <f t="shared" ref="F3:F9" ca="1" si="0">E3/C3</f>
+      <c r="K3" s="16">
+        <f t="shared" ca="1" si="1"/>
         <v>1.7195767195767195E-2</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="e" vm="5">
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L9" ca="1" si="3">K3/D3*365</f>
+        <v>0.78455687830687826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15">
         <f ca="1">История!G4+История!G27</f>
         <v>4279.3500000000004</v>
       </c>
-      <c r="D4" s="15">
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F9" ca="1" si="4">E4/C4</f>
+        <v>251.72647058823532</v>
+      </c>
+      <c r="G4" s="15">
         <f ca="1">История!G43</f>
         <v>4502.4500000000007</v>
       </c>
-      <c r="E4" s="15">
-        <f t="shared" ref="E4:E11" ca="1" si="1">D4-C4</f>
+      <c r="H4" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>264.85000000000002</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ca="1" si="0"/>
         <v>223.10000000000036</v>
       </c>
-      <c r="F4" s="16">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K4" s="16">
+        <f t="shared" ca="1" si="1"/>
         <v>5.2134085784056074E-2</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="e" vm="7">
+      <c r="L4" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.3786176638975585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15">
         <f ca="1">История!G5</f>
         <v>11316</v>
       </c>
-      <c r="D5" s="15">
+      <c r="F5" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>2829</v>
+      </c>
+      <c r="G5" s="15">
         <f ca="1">История!G44</f>
         <v>11814</v>
       </c>
-      <c r="E5" s="15">
+      <c r="H5" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>2953.5</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>498</v>
+      </c>
+      <c r="K5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>498</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" ca="1" si="0"/>
         <v>4.4008483563096501E-2</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="e" vm="25">
+      <c r="L5" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0078870625662777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
         <f ca="1">История!G32</f>
         <v>811.25</v>
       </c>
-      <c r="D6" s="15">
+      <c r="F6" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>162.25</v>
+      </c>
+      <c r="G6" s="15">
         <f ca="1">История!G45</f>
         <v>814.30000000000007</v>
       </c>
-      <c r="E6" s="15">
+      <c r="H6" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>162.86000000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0500000000000682</v>
+      </c>
+      <c r="K6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0500000000000682</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" ca="1" si="0"/>
         <v>3.7596302003082504E-3</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="e" vm="32">
+      <c r="L6" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.68613251155625565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="e" vm="36">
         <v>#VALUE!</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
         <f>История!G38</f>
         <v>1808.08</v>
       </c>
-      <c r="D7" s="15">
+      <c r="F7" s="15">
+        <f t="shared" si="4"/>
+        <v>90.403999999999996</v>
+      </c>
+      <c r="G7" s="15">
         <f>История!G46</f>
         <v>1787.8780000000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>89.393900000000002</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>-20.201999999999771</v>
+      </c>
+      <c r="K7" s="16">
         <f t="shared" si="1"/>
-        <v>-20.201999999999771</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="0"/>
         <v>-1.1173178177956601E-2</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="e" vm="33">
+      <c r="L7" s="16">
+        <f t="shared" si="3"/>
+        <v>-4.0782100349541599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
         <f ca="1">История!G39</f>
         <v>1323.1999999999998</v>
       </c>
-      <c r="D8" s="15">
+      <c r="F8" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.231999999999998</v>
+      </c>
+      <c r="G8" s="15">
         <f ca="1">История!G47</f>
         <v>1327.8</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" ca="1" si="1"/>
+      <c r="H8" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.277999999999999</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" ref="J8" ca="1" si="5">G8-E8+I8</f>
         <v>4.6000000000001364</v>
       </c>
-      <c r="F8" s="16">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K8" s="16">
+        <f t="shared" ref="K8" ca="1" si="6">J8/E8</f>
         <v>3.4764207980653998E-3</v>
       </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L8" s="16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.268893591293871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <f>История!G40</f>
         <v>5886.06</v>
       </c>
-      <c r="D9" s="15">
+      <c r="F9" s="15">
+        <f t="shared" si="4"/>
+        <v>5886.06</v>
+      </c>
+      <c r="G9" s="15">
         <f>История!G48</f>
         <v>5848.46</v>
       </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>5848.46</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f>G9-E9+I9</f>
         <v>-37.600000000000364</v>
       </c>
-      <c r="F9" s="16">
-        <f t="shared" si="0"/>
+      <c r="K9" s="16">
+        <f>J9/E9</f>
         <v>-6.3879742985970857E-3</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L9" s="16">
+        <f t="shared" si="3"/>
+        <v>-2.3316106189879364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="15"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15">
-        <f ca="1">AVERAGE(C2:C9)</f>
-        <v>5298.9237499999999</v>
-      </c>
-      <c r="D11" s="15">
-        <f ca="1">AVERAGE(D2:D9)</f>
-        <v>5413.2984999999999</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15">
         <f ca="1">AVERAGE(E2:E9)</f>
+        <v>5298.9237499999999</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
+        <f ca="1">AVERAGE(G2:G9)</f>
+        <v>5413.2984999999999</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
+        <f ca="1">AVERAGE(J2:J9)</f>
         <v>114.37475000000008</v>
       </c>
-      <c r="F11" s="17">
-        <f ca="1">AVERAGE(F2:F9)</f>
+      <c r="K11" s="17">
+        <f ca="1">AVERAGE(K2:K9)</f>
         <v>1.3576760082347719E-2</v>
       </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="17"/>
+      <c r="L11" s="16">
+        <f ca="1">AVERAGE(L2:L9)</f>
+        <v>0.1214757042383639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12653,7 +12252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE0B6D-BE8F-4FB1-8BC4-E02124DE7E5B}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -13278,7 +12877,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7E6F50-DDBE-412B-87AD-3B0F03A2B4A2}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -13292,7 +12891,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B82" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B83" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
         <v>MISX:SBER</v>
       </c>
       <c r="B1" t="str">
@@ -13311,7 +12910,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" vm="41">
+      <c r="A3" s="5" vm="45">
         <f ca="1"/>
         <v>45294</v>
       </c>
@@ -13321,793 +12920,803 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" vm="42">
+      <c r="A4" s="5" vm="46">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="9">
+      <c r="B4" vm="13">
         <f ca="1"/>
         <v>274.04000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" vm="43">
+      <c r="A5" s="5" vm="47">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="13">
+      <c r="B5" vm="17">
         <f ca="1"/>
         <v>273.45999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" vm="44">
+      <c r="A6" s="5" vm="48">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="17">
+      <c r="B6" vm="21">
         <f ca="1"/>
         <v>275.81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" vm="45">
+      <c r="A7" s="5" vm="49">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="21">
+      <c r="B7" vm="25">
         <f ca="1"/>
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" vm="46">
+      <c r="A8" s="5" vm="50">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="27">
+      <c r="B8" vm="31">
         <f ca="1"/>
         <v>275.68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" vm="47">
+      <c r="A9" s="5" vm="51">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="35">
+      <c r="B9" vm="39">
         <f ca="1"/>
         <v>275.89999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" vm="48">
+      <c r="A10" s="5" vm="52">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="49">
+      <c r="B10" vm="53">
         <f ca="1"/>
         <v>275.39999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" vm="50">
+      <c r="A11" s="5" vm="54">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="51">
+      <c r="B11" vm="55">
         <f ca="1"/>
         <v>276.10000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" vm="52">
+      <c r="A12" s="5" vm="56">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="53">
+      <c r="B12" vm="57">
         <f ca="1"/>
         <v>275.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" vm="54">
+      <c r="A13" s="5" vm="58">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="55">
+      <c r="B13" vm="59">
         <f ca="1"/>
         <v>277.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" vm="56">
+      <c r="A14" s="5" vm="60">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="57">
+      <c r="B14" vm="61">
         <f ca="1"/>
         <v>277.77999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" vm="58">
+      <c r="A15" s="5" vm="62">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="59">
+      <c r="B15" vm="63">
         <f ca="1"/>
         <v>275.29000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" vm="60">
+      <c r="A16" s="5" vm="64">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="61">
+      <c r="B16" vm="65">
         <f ca="1"/>
         <v>275.01</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" vm="62">
+      <c r="A17" s="5" vm="66">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="21">
+      <c r="B17" vm="25">
         <f ca="1"/>
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" vm="63">
+      <c r="A18" s="5" vm="67">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="64">
+      <c r="B18" vm="68">
         <f ca="1"/>
         <v>274.10000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" vm="65">
+      <c r="A19" s="5" vm="69">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="66">
+      <c r="B19" vm="70">
         <f ca="1"/>
         <v>272.95999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" vm="67">
+      <c r="A20" s="5" vm="71">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="68">
+      <c r="B20" vm="72">
         <f ca="1"/>
         <v>273.12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" vm="69">
+      <c r="A21" s="5" vm="73">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="70">
+      <c r="B21" vm="74">
         <f ca="1"/>
         <v>273.73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" vm="71">
+      <c r="A22" s="5" vm="75">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="72">
+      <c r="B22" vm="76">
         <f ca="1"/>
         <v>274.70999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" vm="73">
+      <c r="A23" s="5" vm="77">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="35">
+      <c r="B23" vm="39">
         <f ca="1"/>
         <v>275.89999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" vm="74">
+      <c r="A24" s="5" vm="78">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="75">
+      <c r="B24" vm="79">
         <f ca="1"/>
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" vm="76">
+      <c r="A25" s="5" vm="80">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="77">
+      <c r="B25" vm="81">
         <f ca="1"/>
         <v>276.51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" vm="78">
+      <c r="A26" s="5" vm="82">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="79">
+      <c r="B26" vm="83">
         <f ca="1"/>
         <v>277.26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" vm="80">
+      <c r="A27" s="5" vm="84">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="81">
+      <c r="B27" vm="85">
         <f ca="1"/>
         <v>278.75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" vm="82">
+      <c r="A28" s="5" vm="86">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="83">
+      <c r="B28" vm="87">
         <f ca="1"/>
         <v>282.22000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" vm="84">
+      <c r="A29" s="5" vm="88">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="85">
+      <c r="B29" vm="89">
         <f ca="1"/>
         <v>282.82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" vm="86">
+      <c r="A30" s="5" vm="90">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="87">
+      <c r="B30" vm="91">
         <f ca="1"/>
         <v>283.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" vm="88">
+      <c r="A31" s="5" vm="92">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="89">
+      <c r="B31" vm="93">
         <f ca="1"/>
         <v>287.75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" vm="90">
+      <c r="A32" s="5" vm="94">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="91">
+      <c r="B32" vm="95">
         <f ca="1"/>
         <v>287.49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" vm="92">
+      <c r="A33" s="5" vm="96">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="93">
+      <c r="B33" vm="97">
         <f ca="1"/>
         <v>289.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" vm="94">
+      <c r="A34" s="5" vm="98">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="95">
+      <c r="B34" vm="99">
         <f ca="1"/>
         <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" vm="96">
+      <c r="A35" s="5" vm="100">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="97">
+      <c r="B35" vm="101">
         <f ca="1"/>
         <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" vm="98">
+      <c r="A36" s="5" vm="102">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="99">
+      <c r="B36" vm="103">
         <f ca="1"/>
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" vm="100">
+      <c r="A37" s="5" vm="104">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="101">
+      <c r="B37" vm="105">
         <f ca="1"/>
         <v>287.17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" vm="102">
+      <c r="A38" s="5" vm="106">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="103">
+      <c r="B38" vm="107">
         <f ca="1"/>
         <v>281.55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" vm="104">
+      <c r="A39" s="5" vm="108">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="105">
+      <c r="B39" vm="109">
         <f ca="1"/>
         <v>282.74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" vm="106">
+      <c r="A40" s="5" vm="110">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="107">
+      <c r="B40" vm="111">
         <f ca="1"/>
         <v>290.7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" vm="108">
+      <c r="A41" s="5" vm="112">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="109">
+      <c r="B41" vm="113">
         <f ca="1"/>
         <v>292.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" vm="110">
+      <c r="A42" s="5" vm="114">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="111">
+      <c r="B42" vm="115">
         <f ca="1"/>
         <v>292.81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" vm="112">
+      <c r="A43" s="5" vm="116">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="113">
+      <c r="B43" vm="117">
         <f ca="1"/>
         <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" vm="114">
+      <c r="A44" s="5" vm="118">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="115">
+      <c r="B44" vm="119">
         <f ca="1"/>
         <v>294.44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" vm="116">
+      <c r="A45" s="5" vm="120">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="117">
+      <c r="B45" vm="121">
         <f ca="1"/>
         <v>298.97000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" vm="118">
+      <c r="A46" s="5" vm="122">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="119">
+      <c r="B46" vm="123">
         <f ca="1"/>
         <v>298.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" vm="120">
+      <c r="A47" s="5" vm="124">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="121">
+      <c r="B47" vm="125">
         <f ca="1"/>
         <v>298.14999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" vm="122">
+      <c r="A48" s="5" vm="126">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="123">
+      <c r="B48" vm="127">
         <f ca="1"/>
         <v>299.38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" vm="124">
+      <c r="A49" s="5" vm="128">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="125">
+      <c r="B49" vm="129">
         <f ca="1"/>
         <v>300.05</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" vm="126">
+      <c r="A50" s="5" vm="130">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="127">
+      <c r="B50" vm="131">
         <f ca="1"/>
         <v>300.39999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" vm="128">
+      <c r="A51" s="5" vm="132">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="129">
+      <c r="B51" vm="133">
         <f ca="1"/>
         <v>300.10000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" vm="130">
+      <c r="A52" s="5" vm="134">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="131">
+      <c r="B52" vm="135">
         <f ca="1"/>
         <v>296.27999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" vm="132">
+      <c r="A53" s="5" vm="136">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="133">
+      <c r="B53" vm="137">
         <f ca="1"/>
         <v>298.60000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" vm="134">
+      <c r="A54" s="5" vm="138">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="135">
+      <c r="B54" vm="139">
         <f ca="1"/>
         <v>299.11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" vm="136">
+      <c r="A55" s="5" vm="140">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="137">
+      <c r="B55" vm="141">
         <f ca="1"/>
         <v>295.7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" vm="138">
+      <c r="A56" s="5" vm="142">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="139">
+      <c r="B56" vm="143">
         <f ca="1"/>
         <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" vm="140">
+      <c r="A57" s="5" vm="144">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="141">
+      <c r="B57" vm="145">
         <f ca="1"/>
         <v>295.99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" vm="142">
+      <c r="A58" s="5" vm="146">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="143">
+      <c r="B58" vm="147">
         <f ca="1"/>
         <v>295.44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" vm="144">
+      <c r="A59" s="5" vm="148">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="145">
+      <c r="B59" vm="3">
         <f ca="1"/>
         <v>294.3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" vm="146">
+      <c r="A60" s="5" vm="149">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="147">
+      <c r="B60" vm="150">
         <f ca="1"/>
         <v>293.83999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" vm="148">
+      <c r="A61" s="5" vm="151">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="149">
+      <c r="B61" vm="152">
         <f ca="1"/>
         <v>294.92</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" vm="150">
+      <c r="A62" s="5" vm="153">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="151">
+      <c r="B62" vm="154">
         <f ca="1"/>
         <v>298.69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" vm="152">
+      <c r="A63" s="5" vm="155">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="153">
+      <c r="B63" vm="156">
         <f ca="1"/>
         <v>298.89999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" vm="154">
+      <c r="A64" s="5" vm="157">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="155">
+      <c r="B64" vm="158">
         <f ca="1"/>
         <v>299.76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" vm="156">
+      <c r="A65" s="5" vm="159">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="157">
+      <c r="B65" vm="160">
         <f ca="1"/>
         <v>300.55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" vm="158">
+      <c r="A66" s="5" vm="161">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="159">
+      <c r="B66" vm="162">
         <f ca="1"/>
         <v>306.2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" vm="160">
+      <c r="A67" s="5" vm="163">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="161">
+      <c r="B67" vm="164">
         <f ca="1"/>
         <v>305.94</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" vm="162">
+      <c r="A68" s="5" vm="165">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="163">
+      <c r="B68" vm="166">
         <f ca="1"/>
         <v>305.7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" vm="164">
+      <c r="A69" s="5" vm="167">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="165">
+      <c r="B69" vm="168">
         <f ca="1"/>
         <v>306.92</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" vm="166">
+      <c r="A70" s="5" vm="169">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="167">
+      <c r="B70" vm="170">
         <f ca="1"/>
         <v>307.02999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" vm="168">
+      <c r="A71" s="5" vm="171">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="169">
+      <c r="B71" vm="172">
         <f ca="1"/>
         <v>306.89</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" vm="170">
+      <c r="A72" s="5" vm="173">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="171">
+      <c r="B72" vm="174">
         <f ca="1"/>
         <v>307.33</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" vm="172">
+      <c r="A73" s="5" vm="175">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="173">
+      <c r="B73" vm="176">
         <f ca="1"/>
         <v>306.8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" vm="174">
+      <c r="A74" s="5" vm="177">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="175">
+      <c r="B74" vm="178">
         <f ca="1"/>
         <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" vm="176">
+      <c r="A75" s="5" vm="179">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="177">
+      <c r="B75" vm="180">
         <f ca="1"/>
         <v>307.97000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" vm="178">
+      <c r="A76" s="5" vm="181">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="179">
+      <c r="B76" vm="182">
         <f ca="1"/>
         <v>306.43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" vm="180">
+      <c r="A77" s="5" vm="183">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="181">
+      <c r="B77" vm="184">
         <f ca="1"/>
         <v>308.16000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" vm="182">
+      <c r="A78" s="5" vm="185">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="183">
+      <c r="B78" vm="186">
         <f ca="1"/>
         <v>307.89999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" vm="184">
+      <c r="A79" s="5" vm="187">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="185">
+      <c r="B79" vm="188">
         <f ca="1"/>
         <v>313.3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" vm="186">
+      <c r="A80" s="5" vm="189">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="187">
+      <c r="B80" vm="190">
         <f ca="1"/>
         <v>308.3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" vm="188">
+      <c r="A81" s="5" vm="191">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="189">
+      <c r="B81" vm="192">
         <f ca="1"/>
         <v>307.86</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" vm="190">
+      <c r="A82" s="5" vm="193">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="191">
+      <c r="B82" vm="194">
         <f ca="1"/>
         <v>308.39999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" vm="195">
+        <f ca="1"/>
+        <v>45408</v>
+      </c>
+      <c r="B83" vm="196">
+        <f ca="1"/>
+        <v>309.14999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -14117,7 +13726,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC451C-A319-4741-8A55-3296C7226099}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -14130,7 +13739,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B82" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B83" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
         <v>MISX:YNDX</v>
       </c>
       <c r="B1" t="str">
@@ -14149,803 +13758,813 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="41">
+      <c r="A3" vm="45">
         <f ca="1"/>
         <v>45294</v>
       </c>
-      <c r="B3" vm="4">
+      <c r="B3" vm="5">
         <f ca="1"/>
         <v>2570.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="42">
+      <c r="A4" vm="46">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="10">
+      <c r="B4" vm="14">
         <f ca="1"/>
         <v>2568.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="43">
+      <c r="A5" vm="47">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="14">
+      <c r="B5" vm="18">
         <f ca="1"/>
         <v>2573.8000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="44">
+      <c r="A6" vm="48">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="18">
+      <c r="B6" vm="22">
         <f ca="1"/>
         <v>2605</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="45">
+      <c r="A7" vm="49">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="22">
+      <c r="B7" vm="26">
         <f ca="1"/>
         <v>2611</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="46">
+      <c r="A8" vm="50">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="28">
+      <c r="B8" vm="32">
         <f ca="1"/>
         <v>2599.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="47">
+      <c r="A9" vm="51">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="36">
+      <c r="B9" vm="40">
         <f ca="1"/>
         <v>2614.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="48">
+      <c r="A10" vm="52">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="192">
+      <c r="B10" vm="197">
         <f ca="1"/>
         <v>2625.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="50">
+      <c r="A11" vm="54">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="193">
+      <c r="B11" vm="198">
         <f ca="1"/>
         <v>2671</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="52">
+      <c r="A12" vm="56">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="194">
+      <c r="B12" vm="199">
         <f ca="1"/>
         <v>2649.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="54">
+      <c r="A13" vm="58">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="195">
+      <c r="B13" vm="200">
         <f ca="1"/>
         <v>2640.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="56">
+      <c r="A14" vm="60">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="196">
+      <c r="B14" vm="201">
         <f ca="1"/>
         <v>2626</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="58">
+      <c r="A15" vm="62">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="4">
+      <c r="B15" vm="5">
         <f ca="1"/>
         <v>2570.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="60">
+      <c r="A16" vm="64">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="197">
+      <c r="B16" vm="202">
         <f ca="1"/>
         <v>2599</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="62">
+      <c r="A17" vm="66">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="198">
+      <c r="B17" vm="203">
         <f ca="1"/>
         <v>2618.1999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="63">
+      <c r="A18" vm="67">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="199">
+      <c r="B18" vm="204">
         <f ca="1"/>
         <v>2642</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="65">
+      <c r="A19" vm="69">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="200">
+      <c r="B19" vm="205">
         <f ca="1"/>
         <v>2765</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="67">
+      <c r="A20" vm="71">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="201">
+      <c r="B20" vm="206">
         <f ca="1"/>
         <v>2877.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="69">
+      <c r="A21" vm="73">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="202">
+      <c r="B21" vm="207">
         <f ca="1"/>
         <v>2945</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="71">
+      <c r="A22" vm="75">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="203">
+      <c r="B22" vm="208">
         <f ca="1"/>
         <v>3101.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="73">
+      <c r="A23" vm="77">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="204">
+      <c r="B23" vm="209">
         <f ca="1"/>
         <v>3043.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="74">
+      <c r="A24" vm="78">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="205">
+      <c r="B24" vm="210">
         <f ca="1"/>
         <v>3102.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="76">
+      <c r="A25" vm="80">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="206">
+      <c r="B25" vm="211">
         <f ca="1"/>
         <v>3090</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="78">
+      <c r="A26" vm="82">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="207">
+      <c r="B26" vm="212">
         <f ca="1"/>
         <v>3066.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="80">
+      <c r="A27" vm="84">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="208">
+      <c r="B27" vm="213">
         <f ca="1"/>
         <v>3107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="82">
+      <c r="A28" vm="86">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="209">
+      <c r="B28" vm="214">
         <f ca="1"/>
         <v>3288</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="84">
+      <c r="A29" vm="88">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="209">
+      <c r="B29" vm="214">
         <f ca="1"/>
         <v>3288</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="86">
+      <c r="A30" vm="90">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="210">
+      <c r="B30" vm="215">
         <f ca="1"/>
         <v>3254.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="88">
+      <c r="A31" vm="92">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="211">
+      <c r="B31" vm="216">
         <f ca="1"/>
         <v>3280.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="90">
+      <c r="A32" vm="94">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="212">
+      <c r="B32" vm="217">
         <f ca="1"/>
         <v>3453.4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="92">
+      <c r="A33" vm="96">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="213">
+      <c r="B33" vm="218">
         <f ca="1"/>
         <v>3454</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="94">
+      <c r="A34" vm="98">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="214">
+      <c r="B34" vm="219">
         <f ca="1"/>
         <v>3439.6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="96">
+      <c r="A35" vm="100">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="215">
+      <c r="B35" vm="220">
         <f ca="1"/>
         <v>3408.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="98">
+      <c r="A36" vm="102">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="216">
+      <c r="B36" vm="221">
         <f ca="1"/>
         <v>3378.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="100">
+      <c r="A37" vm="104">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="217">
+      <c r="B37" vm="222">
         <f ca="1"/>
         <v>3310</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="102">
+      <c r="A38" vm="106">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="218">
+      <c r="B38" vm="223">
         <f ca="1"/>
         <v>3220</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="104">
+      <c r="A39" vm="108">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="219">
+      <c r="B39" vm="224">
         <f ca="1"/>
         <v>3224</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="106">
+      <c r="A40" vm="110">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="220">
+      <c r="B40" vm="225">
         <f ca="1"/>
         <v>3386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="108">
+      <c r="A41" vm="112">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="221">
+      <c r="B41" vm="226">
         <f ca="1"/>
         <v>3366.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="110">
+      <c r="A42" vm="114">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="222">
+      <c r="B42" vm="227">
         <f ca="1"/>
         <v>3355</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="112">
+      <c r="A43" vm="116">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="223">
+      <c r="B43" vm="228">
         <f ca="1"/>
         <v>3380</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="114">
+      <c r="A44" vm="118">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="224">
+      <c r="B44" vm="229">
         <f ca="1"/>
         <v>3515</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="116">
+      <c r="A45" vm="120">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="225">
+      <c r="B45" vm="230">
         <f ca="1"/>
         <v>3644</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="118">
+      <c r="A46" vm="122">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="226">
+      <c r="B46" vm="231">
         <f ca="1"/>
         <v>3640</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="120">
+      <c r="A47" vm="124">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="227">
+      <c r="B47" vm="232">
         <f ca="1"/>
         <v>3579.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="122">
+      <c r="A48" vm="126">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="228">
+      <c r="B48" vm="233">
         <f ca="1"/>
         <v>3590</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="124">
+      <c r="A49" vm="128">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="229">
+      <c r="B49" vm="234">
         <f ca="1"/>
         <v>3570</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="126">
+      <c r="A50" vm="130">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="230">
+      <c r="B50" vm="235">
         <f ca="1"/>
         <v>3491.8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="128">
+      <c r="A51" vm="132">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="231">
+      <c r="B51" vm="236">
         <f ca="1"/>
         <v>3589</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="130">
+      <c r="A52" vm="134">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="232">
+      <c r="B52" vm="237">
         <f ca="1"/>
         <v>3605</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="132">
+      <c r="A53" vm="136">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="233">
+      <c r="B53" vm="238">
         <f ca="1"/>
         <v>3639</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="134">
+      <c r="A54" vm="138">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="234">
+      <c r="B54" vm="239">
         <f ca="1"/>
         <v>3701</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="136">
+      <c r="A55" vm="140">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="235">
+      <c r="B55" vm="240">
         <f ca="1"/>
         <v>3799</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="138">
+      <c r="A56" vm="142">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="236">
+      <c r="B56" vm="241">
         <f ca="1"/>
         <v>3916.8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="140">
+      <c r="A57" vm="144">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="237">
+      <c r="B57" vm="242">
         <f ca="1"/>
         <v>3873</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="142">
+      <c r="A58" vm="146">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="238">
+      <c r="B58" vm="243">
         <f ca="1"/>
         <v>3905</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="144">
+      <c r="A59" vm="148">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="239">
+      <c r="B59" vm="6">
         <f ca="1"/>
         <v>3990.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="146">
+      <c r="A60" vm="149">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="240">
+      <c r="B60" vm="244">
         <f ca="1"/>
         <v>3999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="148">
+      <c r="A61" vm="151">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="241">
+      <c r="B61" vm="245">
         <f ca="1"/>
         <v>4014</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="150">
+      <c r="A62" vm="153">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="242">
+      <c r="B62" vm="246">
         <f ca="1"/>
         <v>4004.6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="152">
+      <c r="A63" vm="155">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="243">
+      <c r="B63" vm="247">
         <f ca="1"/>
         <v>4000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="154">
+      <c r="A64" vm="157">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="244">
+      <c r="B64" vm="248">
         <f ca="1"/>
         <v>3978</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="159">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="245">
+      <c r="B65" vm="249">
         <f ca="1"/>
         <v>3889.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="161">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="246">
+      <c r="B66" vm="250">
         <f ca="1"/>
         <v>3917.4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="160">
+      <c r="A67" vm="163">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="247">
+      <c r="B67" vm="251">
         <f ca="1"/>
         <v>3962.2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="162">
+      <c r="A68" vm="165">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="248">
+      <c r="B68" vm="252">
         <f ca="1"/>
         <v>3980.2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="164">
+      <c r="A69" vm="167">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="249">
+      <c r="B69" vm="253">
         <f ca="1"/>
         <v>3960</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="166">
+      <c r="A70" vm="169">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="250">
+      <c r="B70" vm="254">
         <f ca="1"/>
         <v>3949.4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="168">
+      <c r="A71" vm="171">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="251">
+      <c r="B71" vm="255">
         <f ca="1"/>
         <v>3985.8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="170">
+      <c r="A72" vm="173">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="252">
+      <c r="B72" vm="256">
         <f ca="1"/>
         <v>3940.6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="172">
+      <c r="A73" vm="175">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="253">
+      <c r="B73" vm="257">
         <f ca="1"/>
         <v>3993</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="174">
+      <c r="A74" vm="177">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="254">
+      <c r="B74" vm="258">
         <f ca="1"/>
         <v>4027.4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="176">
+      <c r="A75" vm="179">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="255">
+      <c r="B75" vm="259">
         <f ca="1"/>
         <v>4047</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="178">
+      <c r="A76" vm="181">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="256">
+      <c r="B76" vm="260">
         <f ca="1"/>
         <v>4190.6000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="180">
+      <c r="A77" vm="183">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="257">
+      <c r="B77" vm="261">
         <f ca="1"/>
         <v>4190</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="182">
+      <c r="A78" vm="185">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="258">
+      <c r="B78" vm="262">
         <f ca="1"/>
         <v>4244.2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="184">
+      <c r="A79" vm="187">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="259">
+      <c r="B79" vm="263">
         <f ca="1"/>
         <v>4252</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="186">
+      <c r="A80" vm="189">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="260">
+      <c r="B80" vm="264">
         <f ca="1"/>
         <v>4153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="188">
+      <c r="A81" vm="191">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="261">
+      <c r="B81" vm="265">
         <f ca="1"/>
         <v>4099</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="190">
+      <c r="A82" vm="193">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="262">
+      <c r="B82" vm="266">
         <f ca="1"/>
         <v>4103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" vm="195">
+        <f ca="1"/>
+        <v>45408</v>
+      </c>
+      <c r="B83" vm="267">
+        <f ca="1"/>
+        <v>4228</v>
       </c>
     </row>
   </sheetData>
@@ -14955,7 +14574,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926C765-3D1F-484A-A987-1141447310F5}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -14969,7 +14588,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B82" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B83" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
         <v>MISX:MTSS</v>
       </c>
       <c r="B1" t="str">
@@ -14988,803 +14607,813 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="41">
+      <c r="A3" vm="45">
         <f ca="1"/>
         <v>45294</v>
       </c>
-      <c r="B3" vm="6">
+      <c r="B3" vm="8">
         <f ca="1"/>
         <v>249.55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="42">
+      <c r="A4" vm="46">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="11">
+      <c r="B4" vm="15">
         <f ca="1"/>
         <v>250.95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="43">
+      <c r="A5" vm="47">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="15">
+      <c r="B5" vm="19">
         <f ca="1"/>
         <v>250.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="44">
+      <c r="A6" vm="48">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="19">
+      <c r="B6" vm="23">
         <f ca="1"/>
         <v>253.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="45">
+      <c r="A7" vm="49">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="23">
+      <c r="B7" vm="27">
         <f ca="1"/>
         <v>259.39999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="46">
+      <c r="A8" vm="50">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="29">
+      <c r="B8" vm="33">
         <f ca="1"/>
         <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="47">
+      <c r="A9" vm="51">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="37">
+      <c r="B9" vm="41">
         <f ca="1"/>
         <v>264.85000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="48">
+      <c r="A10" vm="52">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="263">
+      <c r="B10" vm="268">
         <f ca="1"/>
         <v>266.10000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="50">
+      <c r="A11" vm="54">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="264">
+      <c r="B11" vm="269">
         <f ca="1"/>
         <v>267.55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="52">
+      <c r="A12" vm="56">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="265">
+      <c r="B12" vm="270">
         <f ca="1"/>
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="54">
+      <c r="A13" vm="58">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="266">
+      <c r="B13" vm="271">
         <f ca="1"/>
         <v>264.25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="56">
+      <c r="A14" vm="60">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="267">
+      <c r="B14" vm="272">
         <f ca="1"/>
         <v>264.89999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="58">
+      <c r="A15" vm="62">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="268">
+      <c r="B15" vm="273">
         <f ca="1"/>
         <v>263.05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="60">
+      <c r="A16" vm="64">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="269">
+      <c r="B16" vm="274">
         <f ca="1"/>
         <v>263.35000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="62">
+      <c r="A17" vm="66">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="270">
+      <c r="B17" vm="275">
         <f ca="1"/>
         <v>264.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="63">
+      <c r="A18" vm="67">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="271">
+      <c r="B18" vm="276">
         <f ca="1"/>
         <v>267.64999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="65">
+      <c r="A19" vm="69">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="272">
+      <c r="B19" vm="277">
         <f ca="1"/>
         <v>269.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="67">
+      <c r="A20" vm="71">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="273">
+      <c r="B20" vm="278">
         <f ca="1"/>
         <v>270.75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="69">
+      <c r="A21" vm="73">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="274">
+      <c r="B21" vm="279">
         <f ca="1"/>
         <v>271.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="71">
+      <c r="A22" vm="75">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="275">
+      <c r="B22" vm="280">
         <f ca="1"/>
         <v>272.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="73">
+      <c r="A23" vm="77">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="276">
+      <c r="B23" vm="281">
         <f ca="1"/>
         <v>274.35000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="74">
+      <c r="A24" vm="78">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="277">
+      <c r="B24" vm="282">
         <f ca="1"/>
         <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="76">
+      <c r="A25" vm="80">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="278">
+      <c r="B25" vm="283">
         <f ca="1"/>
         <v>276.05</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="78">
+      <c r="A26" vm="82">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="279">
+      <c r="B26" vm="284">
         <f ca="1"/>
         <v>278.60000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="80">
+      <c r="A27" vm="84">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="280">
+      <c r="B27" vm="285">
         <f ca="1"/>
         <v>278.39999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="82">
+      <c r="A28" vm="86">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="281">
+      <c r="B28" vm="286">
         <f ca="1"/>
         <v>277.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="84">
+      <c r="A29" vm="88">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="282">
+      <c r="B29" vm="287">
         <f ca="1"/>
         <v>276.85000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="86">
+      <c r="A30" vm="90">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="283">
+      <c r="B30" vm="288">
         <f ca="1"/>
         <v>277.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="88">
+      <c r="A31" vm="92">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="284">
+      <c r="B31" vm="289">
         <f ca="1"/>
         <v>277.35000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="90">
+      <c r="A32" vm="94">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="285">
+      <c r="B32" vm="290">
         <f ca="1"/>
         <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="92">
+      <c r="A33" vm="96">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="286">
+      <c r="B33" vm="291">
         <f ca="1"/>
         <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="94">
+      <c r="A34" vm="98">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="287">
+      <c r="B34" vm="292">
         <f ca="1"/>
         <v>281.75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="96">
+      <c r="A35" vm="100">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="288">
+      <c r="B35" vm="293">
         <f ca="1"/>
         <v>281.89999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="98">
+      <c r="A36" vm="102">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="289">
+      <c r="B36" vm="294">
         <f ca="1"/>
         <v>279.7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="100">
+      <c r="A37" vm="104">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="290">
+      <c r="B37" vm="295">
         <f ca="1"/>
         <v>277.64999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="102">
+      <c r="A38" vm="106">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="291">
+      <c r="B38" vm="296">
         <f ca="1"/>
         <v>276.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="104">
+      <c r="A39" vm="108">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="292">
+      <c r="B39" vm="297">
         <f ca="1"/>
         <v>278.10000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="106">
+      <c r="A40" vm="110">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="287">
+      <c r="B40" vm="292">
         <f ca="1"/>
         <v>281.75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="108">
+      <c r="A41" vm="112">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="293">
+      <c r="B41" vm="298">
         <f ca="1"/>
         <v>282.45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="110">
+      <c r="A42" vm="114">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="294">
+      <c r="B42" vm="299">
         <f ca="1"/>
         <v>284.60000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="112">
+      <c r="A43" vm="116">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="295">
+      <c r="B43" vm="300">
         <f ca="1"/>
         <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="114">
+      <c r="A44" vm="118">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="296">
+      <c r="B44" vm="301">
         <f ca="1"/>
         <v>289.05</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="116">
+      <c r="A45" vm="120">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="297">
+      <c r="B45" vm="302">
         <f ca="1"/>
         <v>290.85000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="118">
+      <c r="A46" vm="122">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="298">
+      <c r="B46" vm="303">
         <f ca="1"/>
         <v>290.60000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="120">
+      <c r="A47" vm="124">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="99">
+      <c r="B47" vm="103">
         <f ca="1"/>
         <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="122">
+      <c r="A48" vm="126">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="299">
+      <c r="B48" vm="304">
         <f ca="1"/>
         <v>289.75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="124">
+      <c r="A49" vm="128">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="300">
+      <c r="B49" vm="305">
         <f ca="1"/>
         <v>290.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="126">
+      <c r="A50" vm="130">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="301">
+      <c r="B50" vm="306">
         <f ca="1"/>
         <v>294.10000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="128">
+      <c r="A51" vm="132">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="302">
+      <c r="B51" vm="307">
         <f ca="1"/>
         <v>294.89999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="130">
+      <c r="A52" vm="134">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="303">
+      <c r="B52" vm="308">
         <f ca="1"/>
         <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="132">
+      <c r="A53" vm="136">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="304">
+      <c r="B53" vm="309">
         <f ca="1"/>
         <v>294.55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="134">
+      <c r="A54" vm="138">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="305">
+      <c r="B54" vm="310">
         <f ca="1"/>
         <v>292.55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="136">
+      <c r="A55" vm="140">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="306">
+      <c r="B55" vm="311">
         <f ca="1"/>
         <v>289.2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="138">
+      <c r="A56" vm="142">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="307">
+      <c r="B56" vm="9">
         <f ca="1"/>
         <v>291.5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="140">
+      <c r="A57" vm="144">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="308">
+      <c r="B57" vm="312">
         <f ca="1"/>
         <v>292.85000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="142">
+      <c r="A58" vm="146">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="309">
+      <c r="B58" vm="313">
         <f ca="1"/>
         <v>290.64999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="144">
+      <c r="A59" vm="148">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="307">
+      <c r="B59" vm="9">
         <f ca="1"/>
         <v>291.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="146">
+      <c r="A60" vm="149">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="310">
+      <c r="B60" vm="314">
         <f ca="1"/>
         <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="148">
+      <c r="A61" vm="151">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="311">
+      <c r="B61" vm="315">
         <f ca="1"/>
         <v>299.7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="150">
+      <c r="A62" vm="153">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="312">
+      <c r="B62" vm="316">
         <f ca="1"/>
         <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="152">
+      <c r="A63" vm="155">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="312">
+      <c r="B63" vm="316">
         <f ca="1"/>
         <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="154">
+      <c r="A64" vm="157">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="313">
+      <c r="B64" vm="317">
         <f ca="1"/>
         <v>301.2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="159">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="314">
+      <c r="B65" vm="318">
         <f ca="1"/>
         <v>299.8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="161">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="315">
+      <c r="B66" vm="319">
         <f ca="1"/>
         <v>302.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="160">
+      <c r="A67" vm="163">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="313">
+      <c r="B67" vm="317">
         <f ca="1"/>
         <v>301.2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="162">
+      <c r="A68" vm="165">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="316">
+      <c r="B68" vm="320">
         <f ca="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="164">
+      <c r="A69" vm="167">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="317">
+      <c r="B69" vm="321">
         <f ca="1"/>
         <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="166">
+      <c r="A70" vm="169">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="318">
+      <c r="B70" vm="322">
         <f ca="1"/>
         <v>301.7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="168">
+      <c r="A71" vm="171">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="319">
+      <c r="B71" vm="323">
         <f ca="1"/>
         <v>302.85000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="170">
+      <c r="A72" vm="173">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="320">
+      <c r="B72" vm="324">
         <f ca="1"/>
         <v>304.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="172">
+      <c r="A73" vm="175">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="320">
+      <c r="B73" vm="324">
         <f ca="1"/>
         <v>304.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="174">
+      <c r="A74" vm="177">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="321">
+      <c r="B74" vm="325">
         <f ca="1"/>
         <v>310.39999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="176">
+      <c r="A75" vm="179">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="322">
+      <c r="B75" vm="326">
         <f ca="1"/>
         <v>319.3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="178">
+      <c r="A76" vm="181">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="323">
+      <c r="B76" vm="327">
         <f ca="1"/>
         <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="180">
+      <c r="A77" vm="183">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="324">
+      <c r="B77" vm="328">
         <f ca="1"/>
         <v>316.55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="182">
+      <c r="A78" vm="185">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="325">
+      <c r="B78" vm="329">
         <f ca="1"/>
         <v>319.39999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="184">
+      <c r="A79" vm="187">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="326">
+      <c r="B79" vm="330">
         <f ca="1"/>
         <v>319.35000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="186">
+      <c r="A80" vm="189">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="327">
+      <c r="B80" vm="331">
         <f ca="1"/>
         <v>316.89999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="188">
+      <c r="A81" vm="191">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="328">
+      <c r="B81" vm="332">
         <f ca="1"/>
         <v>307.60000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="190">
+      <c r="A82" vm="193">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="329">
+      <c r="B82" vm="333">
         <f ca="1"/>
         <v>308.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" vm="195">
+        <f ca="1"/>
+        <v>45408</v>
+      </c>
+      <c r="B83" vm="334">
+        <f ca="1"/>
+        <v>310.5</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Расчет.xlsx
+++ b/Docs/Расчет.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\DBs\GitHub\TRPO-Project-Team1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D803C7B5-18D9-455B-9F56-6FDAE5C4EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E9FF0-C3A9-41ED-97E6-F7179BC3EF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="НСИ" sheetId="5" r:id="rId1"/>
     <sheet name="Учет акций" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="История" sheetId="7" r:id="rId3"/>
-    <sheet name="Доходность" sheetId="10" r:id="rId4"/>
-    <sheet name="Золото" sheetId="9" r:id="rId5"/>
-    <sheet name="USD" sheetId="8" r:id="rId6"/>
-    <sheet name="SBER" sheetId="2" state="hidden" r:id="rId7"/>
-    <sheet name="YNDX" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="MTSS" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="OZON" sheetId="6" state="hidden" r:id="rId10"/>
+    <sheet name="1" sheetId="10" state="hidden" r:id="rId4"/>
+    <sheet name="Портфель" sheetId="13" r:id="rId5"/>
+    <sheet name="Золото" sheetId="9" r:id="rId6"/>
+    <sheet name="USD" sheetId="8" r:id="rId7"/>
+    <sheet name="SBER" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="YNDX" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="MTSS" sheetId="4" state="hidden" r:id="rId10"/>
+    <sheet name="OZON" sheetId="6" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="425">
+  <futureMetadata name="XLRICHVALUE" count="434">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -77,7 +78,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -91,14 +92,28 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
         </ext>
       </extLst>
     </bk>
@@ -112,20 +127,6 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="16"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="17"/>
         </ext>
       </extLst>
@@ -3032,6 +3033,69 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="432"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="433"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="434"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="435"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="436"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="437"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="438"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="439"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="440"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="441"/>
         </ext>
       </extLst>
     </bk>
@@ -3041,7 +3105,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="425">
+  <valueMetadata count="434">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -4316,13 +4380,40 @@
     </bk>
     <bk>
       <rc t="2" v="424"/>
+    </bk>
+    <bk>
+      <rc t="2" v="425"/>
+    </bk>
+    <bk>
+      <rc t="2" v="426"/>
+    </bk>
+    <bk>
+      <rc t="2" v="427"/>
+    </bk>
+    <bk>
+      <rc t="2" v="428"/>
+    </bk>
+    <bk>
+      <rc t="2" v="429"/>
+    </bk>
+    <bk>
+      <rc t="2" v="430"/>
+    </bk>
+    <bk>
+      <rc t="2" v="431"/>
+    </bk>
+    <bk>
+      <rc t="2" v="432"/>
+    </bk>
+    <bk>
+      <rc t="2" v="433"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="65">
   <si>
     <t>Инструмент</t>
   </si>
@@ -4503,6 +4594,21 @@
   <si>
     <t>Прибыль (ожид.)</t>
   </si>
+  <si>
+    <t>Кол-во (общ.)</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Общая сумма покупки</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Общая сумма активов</t>
+  </si>
 </sst>
 </file>
 
@@ -4581,7 +4687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4610,7 +4716,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -4735,7 +4840,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
-  <a r="1" c="86">
+  <a r="1" c="88">
     <v t="i">0</v>
     <v t="i">1</v>
     <v t="i">2</v>
@@ -4822,8 +4927,10 @@
     <v t="i">118</v>
     <v t="i">120</v>
     <v t="i">121</v>
+    <v t="i">124</v>
+    <v t="i">125</v>
   </a>
-  <a r="1" c="86">
+  <a r="1" c="88">
     <v>273.64</v>
     <v>274.04000000000002</v>
     <v>273.45999999999998</v>
@@ -4910,8 +5017,10 @@
     <v>308.43</v>
     <v>307.10000000000002</v>
     <v>307.83999999999997</v>
+    <v>306.97000000000003</v>
+    <v>308.39</v>
   </a>
-  <a r="1" c="86">
+  <a r="1" c="88">
     <v>2570.4</v>
     <v>2568.6</v>
     <v>2573.8000000000002</v>
@@ -4998,8 +5107,10 @@
     <v>4140</v>
     <v>4160</v>
     <v>4209.2</v>
+    <v>4267</v>
+    <v>4310</v>
   </a>
-  <a r="1" c="86">
+  <a r="1" c="88">
     <v>2829</v>
     <v>2816</v>
     <v>2800</v>
@@ -5086,8 +5197,10 @@
     <v>4352</v>
     <v>4306.5</v>
     <v>4350</v>
+    <v>4448</v>
+    <v>4555</v>
   </a>
-  <a r="1" c="86">
+  <a r="1" c="88">
     <v>249.55</v>
     <v>250.95</v>
     <v>250.9</v>
@@ -5174,12 +5287,14 @@
     <v>310.45</v>
     <v>310.2</v>
     <v>309.2</v>
+    <v>309</v>
+    <v>308.45</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="437">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="446">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aly352&amp;q=MISX%3aSBER&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -5197,10 +5312,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>315.79000000000002</v>
-    <v>223.94</v>
-    <v>1.3742000000000001</v>
-    <v>-0.94</v>
-    <v>-3.0570000000000003E-3</v>
+    <v>228.52</v>
+    <v>1.3738999999999999</v>
+    <v>2.68</v>
+    <v>8.6950000000000013E-3</v>
     <v>RUB</v>
     <v>Sberbank Rossii PAO is a Russia-based company, which is primarily focused on the financial services industry. The Company operates as a commercial bank and provides services to individual and corporate clients. Its offerings for individual clients include deposits, credit cards issuing, money transfers, depositary cells, consumer loans, mortgages, utility payments, online banking, mutual funds, among others. The Company's corporate products portfolio includes corporate loans, asset management, payroll projects, leasing, online banking, cash and settlement services, among others. In addition, the Company offers a wide range of services to financial institutions, such as correspondent accounts, custody services, and interbank lending, among others.</v>
     <v>287866</v>
@@ -5208,23 +5323,23 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>ul. Vavilova, dom 19, MOSCOW, MOSCOW, 117997 RU</v>
-    <v>308.10000000000002</v>
+    <v>311.83</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45418.704861111109</v>
+    <v>45420.659722222219</v>
     <v>0</v>
-    <v>306</v>
-    <v>6953736000000</v>
+    <v>308.08</v>
+    <v>6965689000000</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
-    <v>308.10000000000002</v>
-    <v>307.52999999999997</v>
-    <v>306.58999999999997</v>
+    <v>308.41000000000003</v>
+    <v>308.22000000000003</v>
+    <v>310.89999999999998</v>
     <v>22586950000</v>
     <v>SBER</v>
     <v>Public Joint-Stock Company Sberbank of Russia (MISX:SBER)</v>
-    <v>16748870</v>
-    <v>27090090</v>
+    <v>31818570</v>
+    <v>23236120</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -5232,6 +5347,10 @@
   </rv>
   <rv s="3">
     <fb>273.64</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>299.76</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5253,8 +5372,8 @@
     <v>5653.2</v>
     <v>1922.2</v>
     <v>0.48899999999999999</v>
-    <v>36.4</v>
-    <v>8.5919999999999989E-3</v>
+    <v>-31.6</v>
+    <v>-7.254E-3</v>
     <v>RUB</v>
     <v>Yandex N.V. is an Internet and technology company, and operates Internet search engine. The Company's segments include Search and Portal, E-commerce, Taxi, Classifieds and Experimental businesses. The Company's Search and Portal segment offers a range of services in Russia, Ukraine, Belarus and Kazakhstan, among which are search, location-based, personalized and mobile services, that enable the Company's users to find relevant and objective information to communicate and connect over the Internet, from both their desktops and mobile devices. The Company's search engine offers access to a range of information available online. The Company's Yandex.Market gives retailers a platform to reach customers seeking specific retailer, product or price information. As of December 31, 2016, Yandex.Taxi was operating in 46 cities across Russia, Georgia, Armenia, Kazakhstan, Belarus and Ukraine. The Company's Classifieds business unit includes Auto.ru, Yandex.Realty, Yandex.Jobs and Yandex.Travel.</v>
     <v>25703</v>
@@ -5262,29 +5381,33 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Schiphol Boulevard 165, SCHIPHOL, NOORD-HOLLAND, 1118 BG NL</v>
-    <v>4313.3999999999996</v>
+    <v>4390</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45418.70505466406</v>
-    <v>4</v>
-    <v>4237</v>
+    <v>45420.659722222219</v>
+    <v>5</v>
+    <v>4274</v>
     <v>6846475000</v>
     <v>Yandex NV</v>
     <v>Yandex NV</v>
-    <v>4250</v>
-    <v>4236.3999999999996</v>
-    <v>4272.8</v>
+    <v>4360</v>
+    <v>4356</v>
+    <v>4324.3999999999996</v>
     <v>361482300</v>
     <v>YNDX</v>
     <v>Yandex NV (MISX:YNDX)</v>
-    <v>489730</v>
+    <v>571084</v>
     <v>2004</v>
   </rv>
   <rv s="2">
-    <v>5</v>
+    <v>6</v>
   </rv>
   <rv s="3">
     <fb>2570.4</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>3978</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5305,9 +5428,9 @@
     <v>4</v>
     <v>348.9</v>
     <v>245.85</v>
-    <v>0.60570000000000002</v>
-    <v>-0.65</v>
-    <v>-2.1050000000000001E-3</v>
+    <v>0.60580000000000001</v>
+    <v>2.1</v>
+    <v>6.8079999999999998E-3</v>
     <v>RUB</v>
     <v>Mobil'nye Telesistemy PAO is a Russia-based provider of telecommunications services. The Company provides mobile and fixed-line voice and data telecommunications services, including data transfer, broadband, pay-television (pay-TV) and various value-added services, as well as selling equipment and accessories. The Company operates through segments, which include Russia convergent, Moscow fixed line and Ukraine. Its Russia Convergent segment includes mobile and fixed-line operations, which encompasses services rendered to customers across regions of Russia, including voice and data services, transmission, broadband, pay-TV and other value-added services. Its Moscow fixed-line segment includes fixed-line operations carried out in Moscow by the Company's subsidiary MGTS. Its Ukraine segment includes mobile and fixed-line operations carried out across multiple regions of Ukraine. The Company also offers software solutions, such as LiteBox, a cloud-based tool for online cash operations.</v>
     <v>65102</v>
@@ -5315,30 +5438,34 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Ul. Marksistskaya, D. 4, MOSCOW, MOSCOW, 109147 RU</v>
-    <v>309.85000000000002</v>
+    <v>311.55</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45418.704861111109</v>
-    <v>8</v>
-    <v>306.55</v>
-    <v>617899600000</v>
+    <v>45420.659722222219</v>
+    <v>10</v>
+    <v>308.2</v>
+    <v>616400800000</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
-    <v>308.89999999999998</v>
-    <v>308.85000000000002</v>
-    <v>308.2</v>
+    <v>308.7</v>
+    <v>308.45</v>
+    <v>310.55</v>
     <v>1998382000</v>
     <v>MTSS</v>
     <v>Mobile TeleSystems Public Joint Stock Company (MISX:MTSS)</v>
-    <v>2213200</v>
+    <v>2313760</v>
     <v>5077350</v>
     <v>2002</v>
   </rv>
   <rv s="2">
-    <v>9</v>
+    <v>11</v>
   </rv>
   <rv s="3">
     <fb>249.55</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>301.2</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5357,9 +5484,9 @@
     <v>9</v>
     <v>Finance</v>
     <v>4</v>
-    <v>1.5004</v>
-    <v>74.5</v>
-    <v>1.7118999999999999E-2</v>
+    <v>1.4971000000000001</v>
+    <v>-72.5</v>
+    <v>-1.5838000000000001E-2</v>
     <v>RUB</v>
     <v>Ozon Holdings PLC is an electronic commerce platform. The Company is an e-commerce platform in Russia. The Company connects and facilitates transactions between buyers and sellers. The Company also sells products directly to their buyers. The Company provides also two platforms Ozon.ru and Ozon.travel.</v>
     <v>49889</v>
@@ -5367,30 +5494,34 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Arch. Makariou III, 2-4, Capital Center, 9th floor, NICOSIA, 1065 CY</v>
-    <v>4480.5</v>
+    <v>4658</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45418.705101284373</v>
-    <v>12</v>
-    <v>4350</v>
-    <v>355751800000</v>
+    <v>45420.659722222219</v>
+    <v>15</v>
+    <v>4476</v>
+    <v>372517100000</v>
     <v>Ozon Holdings PLC</v>
     <v>Ozon Holdings PLC</v>
-    <v>4352</v>
-    <v>4352</v>
-    <v>4426.5</v>
+    <v>4585</v>
+    <v>4577.5</v>
+    <v>4505</v>
     <v>81782030</v>
     <v>OZON</v>
     <v>Ozon Holdings PLC (MISX:OZON)</v>
-    <v>629528</v>
-    <v>434250</v>
+    <v>1380583</v>
+    <v>451610</v>
     <v>1999</v>
   </rv>
   <rv s="2">
-    <v>13</v>
+    <v>16</v>
   </rv>
   <rv s="3">
     <fb>2829</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>3871</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -5966,10 +6097,6 @@
     <v>10</v>
   </rv>
   <rv s="3">
-    <fb>299.76</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>45384</fb>
     <v>10</v>
   </rv>
@@ -6162,6 +6289,22 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>45418</fb>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <fb>306.97000000000003</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>45419</fb>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <fb>308.39</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2625.4</fb>
     <v>5</v>
   </rv>
@@ -6370,10 +6513,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3978</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>3889.6</fb>
     <v>5</v>
   </rv>
@@ -6466,6 +6605,14 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>4267</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4310</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>266.10000000000002</fb>
     <v>5</v>
   </rv>
@@ -6666,10 +6813,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>301.2</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>299.8</fb>
     <v>5</v>
   </rv>
@@ -6758,6 +6901,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>309</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2943</fb>
     <v>5</v>
   </rv>
@@ -6966,10 +7113,6 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3871</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>3839.5</fb>
     <v>5</v>
   </rv>
@@ -7059,6 +7202,14 @@
   </rv>
   <rv s="3">
     <fb>4350</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4448</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4555</fb>
     <v>5</v>
   </rv>
   <rv s="6">
@@ -7066,10 +7217,10 @@
     <v>aly352</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45418</v>
+    <v>45420</v>
     <v>0</v>
     <v>1</v>
-    <v>638502912000000000,638505710545648548,0</v>
+    <v>638506368000000000,638507789860102950,0</v>
     <v>0</v>
     <v>aly352</v>
     <v>MISX:SBER</v>
@@ -7080,10 +7231,10 @@
     <v>aly8fr</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45418</v>
+    <v>45420</v>
     <v>0</v>
     <v>1</v>
-    <v>638502912000000000,638505710545562660,0</v>
+    <v>638506368000000000,638507789860087782,0</v>
     <v>0</v>
     <v>aly8fr</v>
     <v>MISX:YNDX</v>
@@ -7094,10 +7245,10 @@
     <v>bwvzww</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45418</v>
+    <v>45420</v>
     <v>0</v>
     <v>1</v>
-    <v>638502912000000000,638505710545645267,0</v>
+    <v>638506368000000000,638507789860094691,0</v>
     <v>0</v>
     <v>bwvzww</v>
     <v>MISX:OZON</v>
@@ -7108,10 +7259,10 @@
     <v>alxwtc</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45418</v>
+    <v>45420</v>
     <v>0</v>
     <v>1</v>
-    <v>638502912000000000,638505710545578850,0</v>
+    <v>638506368000000000,638507789860083022,0</v>
     <v>0</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -8040,8 +8191,927 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926C765-3D1F-484A-A987-1141447310F5}">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="str" cm="1">
+        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
+        <v>MISX:MTSS</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1"/>
+        <v>Дата</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1"/>
+        <v>Закрытие</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" vm="42">
+        <f ca="1"/>
+        <v>45294</v>
+      </c>
+      <c r="B3" vm="8">
+        <f ca="1"/>
+        <v>249.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" vm="43">
+        <f ca="1"/>
+        <v>45295</v>
+      </c>
+      <c r="B4" vm="15">
+        <f ca="1"/>
+        <v>250.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" vm="44">
+        <f ca="1"/>
+        <v>45296</v>
+      </c>
+      <c r="B5" vm="19">
+        <f ca="1"/>
+        <v>250.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" vm="45">
+        <f ca="1"/>
+        <v>45299</v>
+      </c>
+      <c r="B6" vm="23">
+        <f ca="1"/>
+        <v>253.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" vm="46">
+        <f ca="1"/>
+        <v>45300</v>
+      </c>
+      <c r="B7" vm="27">
+        <f ca="1"/>
+        <v>259.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" vm="47">
+        <f ca="1"/>
+        <v>45301</v>
+      </c>
+      <c r="B8" vm="32">
+        <f ca="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" vm="48">
+        <f ca="1"/>
+        <v>45302</v>
+      </c>
+      <c r="B9" vm="38">
+        <f ca="1"/>
+        <v>264.85000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" vm="49">
+        <f ca="1"/>
+        <v>45303</v>
+      </c>
+      <c r="B10" vm="285">
+        <f ca="1"/>
+        <v>266.10000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" vm="51">
+        <f ca="1"/>
+        <v>45306</v>
+      </c>
+      <c r="B11" vm="286">
+        <f ca="1"/>
+        <v>267.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" vm="53">
+        <f ca="1"/>
+        <v>45307</v>
+      </c>
+      <c r="B12" vm="287">
+        <f ca="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" vm="55">
+        <f ca="1"/>
+        <v>45308</v>
+      </c>
+      <c r="B13" vm="288">
+        <f ca="1"/>
+        <v>264.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" vm="57">
+        <f ca="1"/>
+        <v>45309</v>
+      </c>
+      <c r="B14" vm="289">
+        <f ca="1"/>
+        <v>264.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" vm="59">
+        <f ca="1"/>
+        <v>45310</v>
+      </c>
+      <c r="B15" vm="290">
+        <f ca="1"/>
+        <v>263.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" vm="61">
+        <f ca="1"/>
+        <v>45313</v>
+      </c>
+      <c r="B16" vm="291">
+        <f ca="1"/>
+        <v>263.35000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" vm="63">
+        <f ca="1"/>
+        <v>45314</v>
+      </c>
+      <c r="B17" vm="292">
+        <f ca="1"/>
+        <v>264.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" vm="64">
+        <f ca="1"/>
+        <v>45315</v>
+      </c>
+      <c r="B18" vm="293">
+        <f ca="1"/>
+        <v>267.64999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" vm="66">
+        <f ca="1"/>
+        <v>45316</v>
+      </c>
+      <c r="B19" vm="294">
+        <f ca="1"/>
+        <v>269.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" vm="68">
+        <f ca="1"/>
+        <v>45317</v>
+      </c>
+      <c r="B20" vm="295">
+        <f ca="1"/>
+        <v>270.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" vm="70">
+        <f ca="1"/>
+        <v>45320</v>
+      </c>
+      <c r="B21" vm="296">
+        <f ca="1"/>
+        <v>271.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" vm="72">
+        <f ca="1"/>
+        <v>45321</v>
+      </c>
+      <c r="B22" vm="297">
+        <f ca="1"/>
+        <v>272.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" vm="74">
+        <f ca="1"/>
+        <v>45322</v>
+      </c>
+      <c r="B23" vm="298">
+        <f ca="1"/>
+        <v>274.35000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" vm="75">
+        <f ca="1"/>
+        <v>45323</v>
+      </c>
+      <c r="B24" vm="299">
+        <f ca="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" vm="77">
+        <f ca="1"/>
+        <v>45324</v>
+      </c>
+      <c r="B25" vm="300">
+        <f ca="1"/>
+        <v>276.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" vm="79">
+        <f ca="1"/>
+        <v>45327</v>
+      </c>
+      <c r="B26" vm="301">
+        <f ca="1"/>
+        <v>278.60000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" vm="81">
+        <f ca="1"/>
+        <v>45328</v>
+      </c>
+      <c r="B27" vm="302">
+        <f ca="1"/>
+        <v>278.39999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" vm="83">
+        <f ca="1"/>
+        <v>45329</v>
+      </c>
+      <c r="B28" vm="303">
+        <f ca="1"/>
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" vm="85">
+        <f ca="1"/>
+        <v>45330</v>
+      </c>
+      <c r="B29" vm="304">
+        <f ca="1"/>
+        <v>276.85000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" vm="87">
+        <f ca="1"/>
+        <v>45331</v>
+      </c>
+      <c r="B30" vm="305">
+        <f ca="1"/>
+        <v>277.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" vm="89">
+        <f ca="1"/>
+        <v>45334</v>
+      </c>
+      <c r="B31" vm="306">
+        <f ca="1"/>
+        <v>277.35000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" vm="91">
+        <f ca="1"/>
+        <v>45335</v>
+      </c>
+      <c r="B32" vm="307">
+        <f ca="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" vm="93">
+        <f ca="1"/>
+        <v>45336</v>
+      </c>
+      <c r="B33" vm="308">
+        <f ca="1"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" vm="95">
+        <f ca="1"/>
+        <v>45337</v>
+      </c>
+      <c r="B34" vm="309">
+        <f ca="1"/>
+        <v>281.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" vm="97">
+        <f ca="1"/>
+        <v>45338</v>
+      </c>
+      <c r="B35" vm="310">
+        <f ca="1"/>
+        <v>281.89999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" vm="99">
+        <f ca="1"/>
+        <v>45341</v>
+      </c>
+      <c r="B36" vm="311">
+        <f ca="1"/>
+        <v>279.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" vm="101">
+        <f ca="1"/>
+        <v>45342</v>
+      </c>
+      <c r="B37" vm="312">
+        <f ca="1"/>
+        <v>277.64999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" vm="103">
+        <f ca="1"/>
+        <v>45343</v>
+      </c>
+      <c r="B38" vm="313">
+        <f ca="1"/>
+        <v>276.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" vm="105">
+        <f ca="1"/>
+        <v>45344</v>
+      </c>
+      <c r="B39" vm="314">
+        <f ca="1"/>
+        <v>278.10000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" vm="107">
+        <f ca="1"/>
+        <v>45348</v>
+      </c>
+      <c r="B40" vm="309">
+        <f ca="1"/>
+        <v>281.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" vm="109">
+        <f ca="1"/>
+        <v>45349</v>
+      </c>
+      <c r="B41" vm="315">
+        <f ca="1"/>
+        <v>282.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" vm="111">
+        <f ca="1"/>
+        <v>45350</v>
+      </c>
+      <c r="B42" vm="316">
+        <f ca="1"/>
+        <v>284.60000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" vm="113">
+        <f ca="1"/>
+        <v>45351</v>
+      </c>
+      <c r="B43" vm="317">
+        <f ca="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" vm="115">
+        <f ca="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B44" vm="318">
+        <f ca="1"/>
+        <v>289.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" vm="117">
+        <f ca="1"/>
+        <v>45355</v>
+      </c>
+      <c r="B45" vm="319">
+        <f ca="1"/>
+        <v>290.85000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" vm="119">
+        <f ca="1"/>
+        <v>45356</v>
+      </c>
+      <c r="B46" vm="320">
+        <f ca="1"/>
+        <v>290.60000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" vm="121">
+        <f ca="1"/>
+        <v>45357</v>
+      </c>
+      <c r="B47" vm="100">
+        <f ca="1"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" vm="123">
+        <f ca="1"/>
+        <v>45358</v>
+      </c>
+      <c r="B48" vm="321">
+        <f ca="1"/>
+        <v>289.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" vm="125">
+        <f ca="1"/>
+        <v>45362</v>
+      </c>
+      <c r="B49" vm="322">
+        <f ca="1"/>
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" vm="127">
+        <f ca="1"/>
+        <v>45363</v>
+      </c>
+      <c r="B50" vm="323">
+        <f ca="1"/>
+        <v>294.10000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" vm="129">
+        <f ca="1"/>
+        <v>45364</v>
+      </c>
+      <c r="B51" vm="324">
+        <f ca="1"/>
+        <v>294.89999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" vm="131">
+        <f ca="1"/>
+        <v>45365</v>
+      </c>
+      <c r="B52" vm="325">
+        <f ca="1"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" vm="133">
+        <f ca="1"/>
+        <v>45366</v>
+      </c>
+      <c r="B53" vm="326">
+        <f ca="1"/>
+        <v>294.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" vm="135">
+        <f ca="1"/>
+        <v>45369</v>
+      </c>
+      <c r="B54" vm="327">
+        <f ca="1"/>
+        <v>292.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" vm="137">
+        <f ca="1"/>
+        <v>45370</v>
+      </c>
+      <c r="B55" vm="328">
+        <f ca="1"/>
+        <v>289.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" vm="139">
+        <f ca="1"/>
+        <v>45371</v>
+      </c>
+      <c r="B56" vm="329">
+        <f ca="1"/>
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" vm="141">
+        <f ca="1"/>
+        <v>45372</v>
+      </c>
+      <c r="B57" vm="330">
+        <f ca="1"/>
+        <v>292.85000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" vm="143">
+        <f ca="1"/>
+        <v>45373</v>
+      </c>
+      <c r="B58" vm="331">
+        <f ca="1"/>
+        <v>290.64999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" vm="145">
+        <f ca="1"/>
+        <v>45376</v>
+      </c>
+      <c r="B59" vm="329">
+        <f ca="1"/>
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" vm="147">
+        <f ca="1"/>
+        <v>45377</v>
+      </c>
+      <c r="B60" vm="332">
+        <f ca="1"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" vm="149">
+        <f ca="1"/>
+        <v>45378</v>
+      </c>
+      <c r="B61" vm="333">
+        <f ca="1"/>
+        <v>299.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" vm="151">
+        <f ca="1"/>
+        <v>45379</v>
+      </c>
+      <c r="B62" vm="334">
+        <f ca="1"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" vm="153">
+        <f ca="1"/>
+        <v>45380</v>
+      </c>
+      <c r="B63" vm="334">
+        <f ca="1"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" vm="155">
+        <f ca="1"/>
+        <v>45383</v>
+      </c>
+      <c r="B64" vm="9">
+        <f ca="1"/>
+        <v>301.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" vm="156">
+        <f ca="1"/>
+        <v>45384</v>
+      </c>
+      <c r="B65" vm="335">
+        <f ca="1"/>
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" vm="158">
+        <f ca="1"/>
+        <v>45385</v>
+      </c>
+      <c r="B66" vm="336">
+        <f ca="1"/>
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" vm="160">
+        <f ca="1"/>
+        <v>45386</v>
+      </c>
+      <c r="B67" vm="9">
+        <f ca="1"/>
+        <v>301.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" vm="162">
+        <f ca="1"/>
+        <v>45387</v>
+      </c>
+      <c r="B68" vm="337">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" vm="164">
+        <f ca="1"/>
+        <v>45390</v>
+      </c>
+      <c r="B69" vm="338">
+        <f ca="1"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" vm="166">
+        <f ca="1"/>
+        <v>45391</v>
+      </c>
+      <c r="B70" vm="339">
+        <f ca="1"/>
+        <v>301.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" vm="168">
+        <f ca="1"/>
+        <v>45392</v>
+      </c>
+      <c r="B71" vm="340">
+        <f ca="1"/>
+        <v>302.85000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" vm="170">
+        <f ca="1"/>
+        <v>45393</v>
+      </c>
+      <c r="B72" vm="341">
+        <f ca="1"/>
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" vm="172">
+        <f ca="1"/>
+        <v>45394</v>
+      </c>
+      <c r="B73" vm="341">
+        <f ca="1"/>
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" vm="174">
+        <f ca="1"/>
+        <v>45397</v>
+      </c>
+      <c r="B74" vm="342">
+        <f ca="1"/>
+        <v>310.39999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" vm="176">
+        <f ca="1"/>
+        <v>45398</v>
+      </c>
+      <c r="B75" vm="343">
+        <f ca="1"/>
+        <v>319.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" vm="178">
+        <f ca="1"/>
+        <v>45399</v>
+      </c>
+      <c r="B76" vm="344">
+        <f ca="1"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" vm="180">
+        <f ca="1"/>
+        <v>45400</v>
+      </c>
+      <c r="B77" vm="345">
+        <f ca="1"/>
+        <v>316.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" vm="182">
+        <f ca="1"/>
+        <v>45401</v>
+      </c>
+      <c r="B78" vm="346">
+        <f ca="1"/>
+        <v>319.39999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" vm="184">
+        <f ca="1"/>
+        <v>45404</v>
+      </c>
+      <c r="B79" vm="347">
+        <f ca="1"/>
+        <v>319.35000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" vm="186">
+        <f ca="1"/>
+        <v>45405</v>
+      </c>
+      <c r="B80" vm="348">
+        <f ca="1"/>
+        <v>316.89999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" vm="188">
+        <f ca="1"/>
+        <v>45406</v>
+      </c>
+      <c r="B81" vm="349">
+        <f ca="1"/>
+        <v>307.60000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" vm="190">
+        <f ca="1"/>
+        <v>45407</v>
+      </c>
+      <c r="B82" vm="350">
+        <f ca="1"/>
+        <v>308.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" vm="192">
+        <f ca="1"/>
+        <v>45408</v>
+      </c>
+      <c r="B83" vm="351">
+        <f ca="1"/>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" vm="194">
+        <f ca="1"/>
+        <v>45409</v>
+      </c>
+      <c r="B84" vm="352">
+        <f ca="1"/>
+        <v>308.85000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" vm="196">
+        <f ca="1"/>
+        <v>45411</v>
+      </c>
+      <c r="B85" vm="353">
+        <f ca="1"/>
+        <v>310.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" vm="198">
+        <f ca="1"/>
+        <v>45412</v>
+      </c>
+      <c r="B86" vm="354">
+        <f ca="1"/>
+        <v>310.45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" vm="200">
+        <f ca="1"/>
+        <v>45414</v>
+      </c>
+      <c r="B87" vm="355">
+        <f ca="1"/>
+        <v>310.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" vm="202">
+        <f ca="1"/>
+        <v>45415</v>
+      </c>
+      <c r="B88" vm="356">
+        <f ca="1"/>
+        <v>309.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" vm="204">
+        <f ca="1"/>
+        <v>45418</v>
+      </c>
+      <c r="B89" vm="357">
+        <f ca="1"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" vm="206">
+        <f ca="1"/>
+        <v>45419</v>
+      </c>
+      <c r="B90" vm="350">
+        <f ca="1"/>
+        <v>308.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148E147-ED61-E142-951B-E021769BC110}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8055,7 +9125,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B88" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
         <v>MISX:OZON</v>
       </c>
       <c r="B1" t="str">
@@ -8074,863 +9144,883 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="38">
+      <c r="A3" vm="42">
         <f ca="1"/>
         <v>45294</v>
       </c>
-      <c r="B3" vm="8">
+      <c r="B3" vm="11">
         <f ca="1"/>
         <v>2829</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="39">
+      <c r="A4" vm="43">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="12">
+      <c r="B4" vm="16">
         <f ca="1"/>
         <v>2816</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="40">
+      <c r="A5" vm="44">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="16">
+      <c r="B5" vm="20">
         <f ca="1"/>
         <v>2800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="41">
+      <c r="A6" vm="45">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="20">
+      <c r="B6" vm="24">
         <f ca="1"/>
         <v>2815</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="42">
+      <c r="A7" vm="46">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="24">
+      <c r="B7" vm="28">
         <f ca="1"/>
         <v>2860.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="43">
+      <c r="A8" vm="47">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="29">
+      <c r="B8" vm="33">
         <f ca="1"/>
         <v>2935</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="44">
+      <c r="A9" vm="48">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="35">
+      <c r="B9" vm="39">
         <f ca="1"/>
         <v>2953.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="45">
+      <c r="A10" vm="49">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="350">
+      <c r="B10" vm="358">
         <f ca="1"/>
         <v>2943</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="47">
+      <c r="A11" vm="51">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="351">
+      <c r="B11" vm="359">
         <f ca="1"/>
         <v>3010</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="49">
+      <c r="A12" vm="53">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="352">
+      <c r="B12" vm="360">
         <f ca="1"/>
         <v>2954.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="51">
+      <c r="A13" vm="55">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="353">
+      <c r="B13" vm="361">
         <f ca="1"/>
         <v>2901.5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="53">
+      <c r="A14" vm="57">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="354">
+      <c r="B14" vm="362">
         <f ca="1"/>
         <v>2853</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="55">
+      <c r="A15" vm="59">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="355">
+      <c r="B15" vm="363">
         <f ca="1"/>
         <v>2826</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="57">
+      <c r="A16" vm="61">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="356">
+      <c r="B16" vm="364">
         <f ca="1"/>
         <v>2837</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="59">
+      <c r="A17" vm="63">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="357">
+      <c r="B17" vm="365">
         <f ca="1"/>
         <v>2797</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="60">
+      <c r="A18" vm="64">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="358">
+      <c r="B18" vm="366">
         <f ca="1"/>
         <v>2805</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="62">
+      <c r="A19" vm="66">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="359">
+      <c r="B19" vm="367">
         <f ca="1"/>
         <v>2768</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="64">
+      <c r="A20" vm="68">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="360">
+      <c r="B20" vm="368">
         <f ca="1"/>
         <v>2835</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="66">
+      <c r="A21" vm="70">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="361">
+      <c r="B21" vm="369">
         <f ca="1"/>
         <v>2877</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="68">
+      <c r="A22" vm="72">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="362">
+      <c r="B22" vm="370">
         <f ca="1"/>
         <v>2908.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="70">
+      <c r="A23" vm="74">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="363">
+      <c r="B23" vm="371">
         <f ca="1"/>
         <v>2911.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="71">
+      <c r="A24" vm="75">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="364">
+      <c r="B24" vm="372">
         <f ca="1"/>
         <v>2910</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="73">
+      <c r="A25" vm="77">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="365">
+      <c r="B25" vm="373">
         <f ca="1"/>
         <v>2885.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="75">
+      <c r="A26" vm="79">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="366">
+      <c r="B26" vm="374">
         <f ca="1"/>
         <v>2872</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="77">
+      <c r="A27" vm="81">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="367">
+      <c r="B27" vm="375">
         <f ca="1"/>
         <v>2865.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="79">
+      <c r="A28" vm="83">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="368">
+      <c r="B28" vm="376">
         <f ca="1"/>
         <v>2875.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="81">
+      <c r="A29" vm="85">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="369">
+      <c r="B29" vm="377">
         <f ca="1"/>
         <v>2820</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="83">
+      <c r="A30" vm="87">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="370">
+      <c r="B30" vm="378">
         <f ca="1"/>
         <v>2836</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="85">
+      <c r="A31" vm="89">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="371">
+      <c r="B31" vm="379">
         <f ca="1"/>
         <v>2986</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="87">
+      <c r="A32" vm="91">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="372">
+      <c r="B32" vm="380">
         <f ca="1"/>
         <v>3042</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="89">
+      <c r="A33" vm="93">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="373">
+      <c r="B33" vm="381">
         <f ca="1"/>
         <v>3096</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="91">
+      <c r="A34" vm="95">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="374">
+      <c r="B34" vm="382">
         <f ca="1"/>
         <v>3165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="93">
+      <c r="A35" vm="97">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="375">
+      <c r="B35" vm="383">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="95">
+      <c r="A36" vm="99">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="376">
+      <c r="B36" vm="384">
         <f ca="1"/>
         <v>3135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="97">
+      <c r="A37" vm="101">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="375">
+      <c r="B37" vm="383">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="99">
+      <c r="A38" vm="103">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="377">
+      <c r="B38" vm="385">
         <f ca="1"/>
         <v>2999.5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="101">
+      <c r="A39" vm="105">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="378">
+      <c r="B39" vm="386">
         <f ca="1"/>
         <v>3050</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="103">
+      <c r="A40" vm="107">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="379">
+      <c r="B40" vm="387">
         <f ca="1"/>
         <v>3110.5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="105">
+      <c r="A41" vm="109">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="380">
+      <c r="B41" vm="388">
         <f ca="1"/>
         <v>3157</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="107">
+      <c r="A42" vm="111">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="381">
+      <c r="B42" vm="389">
         <f ca="1"/>
         <v>3150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="109">
+      <c r="A43" vm="113">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="382">
+      <c r="B43" vm="390">
         <f ca="1"/>
         <v>3174</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="111">
+      <c r="A44" vm="115">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="383">
+      <c r="B44" vm="391">
         <f ca="1"/>
         <v>3255</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="113">
+      <c r="A45" vm="117">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="384">
+      <c r="B45" vm="392">
         <f ca="1"/>
         <v>3375</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="115">
+      <c r="A46" vm="119">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="385">
+      <c r="B46" vm="393">
         <f ca="1"/>
         <v>3328</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="117">
+      <c r="A47" vm="121">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="386">
+      <c r="B47" vm="394">
         <f ca="1"/>
         <v>3323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="119">
+      <c r="A48" vm="123">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="387">
+      <c r="B48" vm="395">
         <f ca="1"/>
         <v>3302.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="121">
+      <c r="A49" vm="125">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="388">
+      <c r="B49" vm="396">
         <f ca="1"/>
         <v>3307</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="123">
+      <c r="A50" vm="127">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="389">
+      <c r="B50" vm="397">
         <f ca="1"/>
         <v>3286.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="125">
+      <c r="A51" vm="129">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="390">
+      <c r="B51" vm="398">
         <f ca="1"/>
         <v>3308.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="127">
+      <c r="A52" vm="131">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="383">
+      <c r="B52" vm="391">
         <f ca="1"/>
         <v>3255</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="129">
+      <c r="A53" vm="133">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="391">
+      <c r="B53" vm="399">
         <f ca="1"/>
         <v>3300</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="131">
+      <c r="A54" vm="135">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="392">
+      <c r="B54" vm="400">
         <f ca="1"/>
         <v>3350</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="133">
+      <c r="A55" vm="137">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="393">
+      <c r="B55" vm="401">
         <f ca="1"/>
         <v>3364.5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="135">
+      <c r="A56" vm="139">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="394">
+      <c r="B56" vm="402">
         <f ca="1"/>
         <v>3493</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="137">
+      <c r="A57" vm="141">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="395">
+      <c r="B57" vm="403">
         <f ca="1"/>
         <v>3519</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="139">
+      <c r="A58" vm="143">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="396">
+      <c r="B58" vm="404">
         <f ca="1"/>
         <v>3482.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="141">
+      <c r="A59" vm="145">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="397">
+      <c r="B59" vm="405">
         <f ca="1"/>
         <v>3525</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="143">
+      <c r="A60" vm="147">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="398">
+      <c r="B60" vm="406">
         <f ca="1"/>
         <v>3607</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="145">
+      <c r="A61" vm="149">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="399">
+      <c r="B61" vm="407">
         <f ca="1"/>
         <v>3692</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="147">
+      <c r="A62" vm="151">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="400">
+      <c r="B62" vm="408">
         <f ca="1"/>
         <v>3774.5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="149">
+      <c r="A63" vm="153">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="401">
+      <c r="B63" vm="409">
         <f ca="1"/>
         <v>3770</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="151">
+      <c r="A64" vm="155">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="402">
+      <c r="B64" vm="12">
         <f ca="1"/>
         <v>3871</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="153">
+      <c r="A65" vm="156">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="403">
+      <c r="B65" vm="410">
         <f ca="1"/>
         <v>3839.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="155">
+      <c r="A66" vm="158">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="404">
+      <c r="B66" vm="411">
         <f ca="1"/>
         <v>3791.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="157">
+      <c r="A67" vm="160">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="405">
+      <c r="B67" vm="412">
         <f ca="1"/>
         <v>3880</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="159">
+      <c r="A68" vm="162">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="406">
+      <c r="B68" vm="413">
         <f ca="1"/>
         <v>3847</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="161">
+      <c r="A69" vm="164">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="407">
+      <c r="B69" vm="414">
         <f ca="1"/>
         <v>3852</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="163">
+      <c r="A70" vm="166">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="408">
+      <c r="B70" vm="415">
         <f ca="1"/>
         <v>3739.5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="165">
+      <c r="A71" vm="168">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="409">
+      <c r="B71" vm="416">
         <f ca="1"/>
         <v>3779.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="167">
+      <c r="A72" vm="170">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="401">
+      <c r="B72" vm="409">
         <f ca="1"/>
         <v>3770</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="169">
+      <c r="A73" vm="172">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="410">
+      <c r="B73" vm="417">
         <f ca="1"/>
         <v>3704.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="171">
+      <c r="A74" vm="174">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="411">
+      <c r="B74" vm="418">
         <f ca="1"/>
         <v>3826</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="173">
+      <c r="A75" vm="176">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="412">
+      <c r="B75" vm="419">
         <f ca="1"/>
         <v>3822</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="175">
+      <c r="A76" vm="178">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="413">
+      <c r="B76" vm="420">
         <f ca="1"/>
         <v>3900</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="177">
+      <c r="A77" vm="180">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="414">
+      <c r="B77" vm="421">
         <f ca="1"/>
         <v>3981</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="179">
+      <c r="A78" vm="182">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="415">
+      <c r="B78" vm="422">
         <f ca="1"/>
         <v>4078</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="181">
+      <c r="A79" vm="184">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="416">
+      <c r="B79" vm="423">
         <f ca="1"/>
         <v>4179.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="183">
+      <c r="A80" vm="186">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="417">
+      <c r="B80" vm="424">
         <f ca="1"/>
         <v>4077</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="185">
+      <c r="A81" vm="188">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="418">
+      <c r="B81" vm="425">
         <f ca="1"/>
         <v>3998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="187">
+      <c r="A82" vm="190">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="419">
+      <c r="B82" vm="426">
         <f ca="1"/>
         <v>4148.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" vm="189">
+      <c r="A83" vm="192">
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="420">
+      <c r="B83" vm="427">
         <f ca="1"/>
         <v>4232</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" vm="191">
+      <c r="A84" vm="194">
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="421">
+      <c r="B84" vm="428">
         <f ca="1"/>
         <v>4240</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" vm="193">
+      <c r="A85" vm="196">
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="422">
+      <c r="B85" vm="429">
         <f ca="1"/>
         <v>4356</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" vm="195">
+      <c r="A86" vm="198">
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="423">
+      <c r="B86" vm="430">
         <f ca="1"/>
         <v>4352</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" vm="197">
+      <c r="A87" vm="200">
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="424">
+      <c r="B87" vm="431">
         <f ca="1"/>
         <v>4306.5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" vm="199">
+      <c r="A88" vm="202">
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="425">
+      <c r="B88" vm="432">
         <f ca="1"/>
         <v>4350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" vm="204">
+        <f ca="1"/>
+        <v>45418</v>
+      </c>
+      <c r="B89" vm="433">
+        <f ca="1"/>
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" vm="206">
+        <f ca="1"/>
+        <v>45419</v>
+      </c>
+      <c r="B90" vm="434">
+        <f ca="1"/>
+        <v>4555</v>
       </c>
     </row>
   </sheetData>
@@ -9005,7 +10095,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">B2+COUNTA(SBER!A:A)-1</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -9014,29 +10104,29 @@
         <f ca="1">VLOOKUP('Учет акций'!B2,SBER!A:B,2,FALSE)</f>
         <v>273.64</v>
       </c>
-      <c r="F2" s="2" t="e">
+      <c r="F2" s="2" vm="3">
         <f ca="1">VLOOKUP('Учет акций'!C2,SBER!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>299.76</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">E2*D2</f>
         <v>2736.3999999999996</v>
       </c>
-      <c r="H2" s="8" t="e">
+      <c r="H2" s="8">
         <f ca="1">F2*D2</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="4" t="e">
+        <v>2997.6</v>
+      </c>
+      <c r="J2" s="4">
         <f ca="1">H2-G2</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" s="6" t="e">
+        <v>261.20000000000027</v>
+      </c>
+      <c r="K2" s="6">
         <f ca="1">(J2/G2)</f>
-        <v>#N/A</v>
+        <v>9.5453881011548128E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="e" vm="3">
+      <c r="A3" s="7" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="3">
@@ -9044,38 +10134,38 @@
       </c>
       <c r="C3" s="3">
         <f ca="1">B2+COUNTA(YNDX!A:A)-1</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="4" vm="4">
+      <c r="E3" s="4" vm="5">
         <f ca="1">VLOOKUP('Учет акций'!B3,YNDX!A:B,2,FALSE)</f>
         <v>2570.4</v>
       </c>
-      <c r="F3" s="2" t="e">
+      <c r="F3" s="2" vm="6">
         <f ca="1">VLOOKUP('Учет акций'!C3,YNDX!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3978</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">E3*D3</f>
         <v>12852</v>
       </c>
-      <c r="H3" s="8" t="e">
+      <c r="H3" s="8">
         <f ca="1">F3*D3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="4" t="e">
+        <v>19890</v>
+      </c>
+      <c r="J3" s="4">
         <f ca="1">H3-G3</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="6" t="e">
+        <v>7038</v>
+      </c>
+      <c r="K3" s="6">
         <f ca="1">(J3/G3)</f>
-        <v>#N/A</v>
+        <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="e" vm="5">
+      <c r="A4" s="7" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="10">
@@ -9083,38 +10173,38 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">B2+COUNTA(MTSS!A:A)-1</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="4" vm="6">
+      <c r="E4" s="4" vm="8">
         <f ca="1">VLOOKUP('Учет акций'!B4,MTSS!A:B,2,FALSE)</f>
         <v>249.55</v>
       </c>
-      <c r="F4" s="2" t="e">
+      <c r="F4" s="2" vm="9">
         <f ca="1">VLOOKUP('Учет акций'!C4,MTSS!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>301.2</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G5" ca="1" si="0">E4*D4</f>
         <v>1746.8500000000001</v>
       </c>
-      <c r="H4" s="8" t="e">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H5" ca="1" si="1">F4*D4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="4" t="e">
+        <v>2108.4</v>
+      </c>
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J5" ca="1" si="2">H4-G4</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="6" t="e">
+        <v>361.54999999999995</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K5" ca="1" si="3">(J4/G4)</f>
-        <v>#N/A</v>
+        <v>0.20697255059106387</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="e" vm="7">
+      <c r="A5" s="7" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="10">
@@ -9122,34 +10212,34 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">B2+COUNTA(OZON!A:A)-1</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="4" vm="8">
+      <c r="E5" s="4" vm="11">
         <f ca="1">VLOOKUP('Учет акций'!B5,OZON!A:B,2,FALSE)</f>
         <v>2829</v>
       </c>
-      <c r="F5" s="2" t="e">
+      <c r="F5" s="2" vm="12">
         <f ca="1">VLOOKUP('Учет акций'!C5,OZON!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3871</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>11316</v>
       </c>
-      <c r="H5" s="8" t="e">
+      <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="4" t="e">
+        <v>15484</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="6" t="e">
+        <v>4168</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
+        <v>0.368328031106398</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9158,13 +10248,13 @@
       <c r="E6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
-      <c r="J6" s="4" t="e">
+      <c r="J6" s="4">
         <f ca="1">SUM(J2:J5)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="6" t="e">
+        <v>11828.75</v>
+      </c>
+      <c r="K6" s="6">
         <f ca="1">J6/SUM(G2:G5)</f>
-        <v>#N/A</v>
+        <v>0.41285284237162428</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9190,8 +10280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6B9AD-6B93-4006-9A0A-710E3C14A242}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9301,7 +10391,7 @@
       <c r="D4" s="5">
         <v>45294</v>
       </c>
-      <c r="E4" vm="4">
+      <c r="E4" vm="5">
         <v>2570.4</v>
       </c>
       <c r="F4">
@@ -9328,7 +10418,7 @@
       <c r="D5" s="5">
         <v>45294</v>
       </c>
-      <c r="E5" vm="6">
+      <c r="E5" vm="8">
         <v>249.55</v>
       </c>
       <c r="F5">
@@ -9355,7 +10445,7 @@
       <c r="D6" s="5">
         <v>45294</v>
       </c>
-      <c r="E6" vm="8">
+      <c r="E6" vm="11">
         <v>2829</v>
       </c>
       <c r="F6">
@@ -9409,7 +10499,7 @@
       <c r="D8" s="5">
         <v>45295</v>
       </c>
-      <c r="E8" vm="9">
+      <c r="E8" vm="13">
         <v>274.04000000000002</v>
       </c>
       <c r="F8">
@@ -9436,7 +10526,7 @@
       <c r="D9" s="5">
         <v>45295</v>
       </c>
-      <c r="E9" vm="10">
+      <c r="E9" vm="14">
         <v>2568.6</v>
       </c>
       <c r="F9">
@@ -9463,7 +10553,7 @@
       <c r="D10" s="5">
         <v>45295</v>
       </c>
-      <c r="E10" vm="11">
+      <c r="E10" vm="15">
         <v>250.95</v>
       </c>
       <c r="F10">
@@ -9490,7 +10580,7 @@
       <c r="D11" s="5">
         <v>45295</v>
       </c>
-      <c r="E11" vm="12">
+      <c r="E11" vm="16">
         <v>2816</v>
       </c>
       <c r="F11">
@@ -9544,7 +10634,7 @@
       <c r="D13" s="5">
         <v>45296</v>
       </c>
-      <c r="E13" vm="13">
+      <c r="E13" vm="17">
         <v>273.45999999999998</v>
       </c>
       <c r="F13">
@@ -9571,7 +10661,7 @@
       <c r="D14" s="5">
         <v>45296</v>
       </c>
-      <c r="E14" vm="14">
+      <c r="E14" vm="18">
         <v>2573.8000000000002</v>
       </c>
       <c r="F14">
@@ -9598,7 +10688,7 @@
       <c r="D15" s="5">
         <v>45296</v>
       </c>
-      <c r="E15" vm="15">
+      <c r="E15" vm="19">
         <v>250.9</v>
       </c>
       <c r="F15">
@@ -9625,7 +10715,7 @@
       <c r="D16" s="5">
         <v>45296</v>
       </c>
-      <c r="E16" vm="16">
+      <c r="E16" vm="20">
         <v>2800</v>
       </c>
       <c r="F16">
@@ -9679,7 +10769,7 @@
       <c r="D18" s="5">
         <v>45297</v>
       </c>
-      <c r="E18" vm="13">
+      <c r="E18" vm="17">
         <v>273.45999999999998</v>
       </c>
       <c r="F18">
@@ -9706,7 +10796,7 @@
       <c r="D19" s="5">
         <v>45297</v>
       </c>
-      <c r="E19" vm="14">
+      <c r="E19" vm="18">
         <v>2573.8000000000002</v>
       </c>
       <c r="F19">
@@ -9733,7 +10823,7 @@
       <c r="D20" s="5">
         <v>45297</v>
       </c>
-      <c r="E20" vm="15">
+      <c r="E20" vm="19">
         <v>250.9</v>
       </c>
       <c r="F20">
@@ -9760,7 +10850,7 @@
       <c r="D21" s="5">
         <v>45297</v>
       </c>
-      <c r="E21" vm="16">
+      <c r="E21" vm="20">
         <v>2800</v>
       </c>
       <c r="F21">
@@ -9814,7 +10904,7 @@
       <c r="D23" s="5">
         <v>45298</v>
       </c>
-      <c r="E23" vm="13">
+      <c r="E23" vm="17">
         <v>273.45999999999998</v>
       </c>
       <c r="F23">
@@ -9841,7 +10931,7 @@
       <c r="D24" s="5">
         <v>45298</v>
       </c>
-      <c r="E24" vm="14">
+      <c r="E24" vm="18">
         <v>2573.8000000000002</v>
       </c>
       <c r="F24">
@@ -9868,7 +10958,7 @@
       <c r="D25" s="5">
         <v>45298</v>
       </c>
-      <c r="E25" vm="15">
+      <c r="E25" vm="19">
         <v>250.9</v>
       </c>
       <c r="F25">
@@ -9895,7 +10985,7 @@
       <c r="D26" s="5">
         <v>45298</v>
       </c>
-      <c r="E26" vm="16">
+      <c r="E26" vm="20">
         <v>2800</v>
       </c>
       <c r="F26">
@@ -9949,14 +11039,14 @@
       <c r="D28" s="5">
         <v>45299</v>
       </c>
-      <c r="E28" vm="17">
+      <c r="E28" vm="21">
         <v>275.81</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28" s="13">
-        <f>E28*F28</f>
+        <f t="shared" ref="G28:G33" si="5">E28*F28</f>
         <v>2758.1</v>
       </c>
       <c r="H28" t="s">
@@ -9976,14 +11066,14 @@
       <c r="D29" s="5">
         <v>45299</v>
       </c>
-      <c r="E29" vm="18">
+      <c r="E29" vm="22">
         <v>2605</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29" s="13">
-        <f>E29*F29</f>
+        <f t="shared" si="5"/>
         <v>13025</v>
       </c>
       <c r="H29" t="s">
@@ -10003,14 +11093,14 @@
       <c r="D30" s="5">
         <v>45299</v>
       </c>
-      <c r="E30" vm="19">
+      <c r="E30" vm="23">
         <v>253.25</v>
       </c>
       <c r="F30">
         <v>7</v>
       </c>
       <c r="G30" s="13">
-        <f>E30*F30</f>
+        <f t="shared" si="5"/>
         <v>1772.75</v>
       </c>
       <c r="H30" t="s">
@@ -10030,14 +11120,14 @@
       <c r="D31" s="5">
         <v>45299</v>
       </c>
-      <c r="E31" vm="20">
+      <c r="E31" vm="24">
         <v>2815</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" s="13">
-        <f>E31*F31</f>
+        <f t="shared" si="5"/>
         <v>11260</v>
       </c>
       <c r="H31" t="s">
@@ -10057,14 +11147,14 @@
       <c r="D32" s="5">
         <v>45299</v>
       </c>
-      <c r="E32" vm="17">
+      <c r="E32" vm="21">
         <v>275.81</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" s="13">
-        <f>E32*F32</f>
+        <f t="shared" si="5"/>
         <v>1379.05</v>
       </c>
       <c r="H32" t="s">
@@ -10084,14 +11174,14 @@
       <c r="D33" s="5">
         <v>45299</v>
       </c>
-      <c r="E33" vm="19">
+      <c r="E33" vm="23">
         <v>253.25</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33" s="13">
-        <f>E33*F33</f>
+        <f t="shared" si="5"/>
         <v>2532.5</v>
       </c>
       <c r="H33" t="s">
@@ -10119,7 +11209,7 @@
         <v>195.30000000000018</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" ref="G34" si="5">E34*F34</f>
+        <f t="shared" ref="G34" si="6">E34*F34</f>
         <v>195.30000000000018</v>
       </c>
       <c r="H34" t="s">
@@ -10140,14 +11230,14 @@
       <c r="D35" s="5">
         <v>45300</v>
       </c>
-      <c r="E35" vm="21">
+      <c r="E35" vm="25">
         <v>276</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" s="13">
-        <f>E35*F35</f>
+        <f t="shared" ref="G35:G49" si="7">E35*F35</f>
         <v>1380</v>
       </c>
       <c r="H35" t="s">
@@ -10167,14 +11257,14 @@
       <c r="D36" s="5">
         <v>45300</v>
       </c>
-      <c r="E36" vm="22">
+      <c r="E36" vm="26">
         <v>2611</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36" s="13">
-        <f>E36*F36</f>
+        <f t="shared" si="7"/>
         <v>13055</v>
       </c>
       <c r="H36" t="s">
@@ -10194,14 +11284,14 @@
       <c r="D37" s="5">
         <v>45300</v>
       </c>
-      <c r="E37" vm="23">
+      <c r="E37" vm="27">
         <v>259.39999999999998</v>
       </c>
       <c r="F37">
         <v>17</v>
       </c>
       <c r="G37" s="13">
-        <f>E37*F37</f>
+        <f t="shared" si="7"/>
         <v>4409.7999999999993</v>
       </c>
       <c r="H37" t="s">
@@ -10221,14 +11311,14 @@
       <c r="D38" s="5">
         <v>45300</v>
       </c>
-      <c r="E38" vm="24">
+      <c r="E38" vm="28">
         <v>2860.5</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" s="13">
-        <f>E38*F38</f>
+        <f t="shared" si="7"/>
         <v>11442</v>
       </c>
       <c r="H38" t="s">
@@ -10255,7 +11345,7 @@
         <v>10000</v>
       </c>
       <c r="G39" s="13">
-        <f>E39*F39</f>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="H39" t="s">
@@ -10276,14 +11366,14 @@
       <c r="D40" s="5">
         <v>45300</v>
       </c>
-      <c r="E40" vm="25">
+      <c r="E40" vm="29">
         <v>162.25</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
       <c r="G40" s="13">
-        <f>E40*F40</f>
+        <f t="shared" si="7"/>
         <v>811.25</v>
       </c>
       <c r="H40" t="s">
@@ -10312,7 +11402,7 @@
         <v>9384.0499999999993</v>
       </c>
       <c r="G41" s="13">
-        <f>E41*F41</f>
+        <f t="shared" si="7"/>
         <v>9384.0499999999993</v>
       </c>
       <c r="H41" t="s">
@@ -10333,14 +11423,14 @@
       <c r="D42" s="5">
         <v>45301</v>
       </c>
-      <c r="E42" vm="26">
+      <c r="E42" vm="30">
         <v>275.68</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42" s="13">
-        <f>E42*F42</f>
+        <f t="shared" si="7"/>
         <v>1378.4</v>
       </c>
       <c r="H42" t="s">
@@ -10361,14 +11451,14 @@
       <c r="D43" s="5">
         <v>45301</v>
       </c>
-      <c r="E43" vm="27">
+      <c r="E43" vm="31">
         <v>2599.6</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="G43" s="13">
-        <f>E43*F43</f>
+        <f t="shared" si="7"/>
         <v>12998</v>
       </c>
       <c r="H43" t="s">
@@ -10389,14 +11479,14 @@
       <c r="D44" s="5">
         <v>45301</v>
       </c>
-      <c r="E44" vm="28">
+      <c r="E44" vm="32">
         <v>263</v>
       </c>
       <c r="F44">
         <v>17</v>
       </c>
       <c r="G44" s="13">
-        <f>E44*F44</f>
+        <f t="shared" si="7"/>
         <v>4471</v>
       </c>
       <c r="H44" t="s">
@@ -10417,14 +11507,14 @@
       <c r="D45" s="5">
         <v>45301</v>
       </c>
-      <c r="E45" vm="29">
+      <c r="E45" vm="33">
         <v>2935</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45" s="13">
-        <f>E45*F45</f>
+        <f t="shared" si="7"/>
         <v>11740</v>
       </c>
       <c r="H45" t="s">
@@ -10445,14 +11535,14 @@
       <c r="D46" s="5">
         <v>45301</v>
       </c>
-      <c r="E46" vm="30">
+      <c r="E46" vm="34">
         <v>163.05000000000001</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" s="13">
-        <f>E46*F46</f>
+        <f t="shared" si="7"/>
         <v>815.25</v>
       </c>
       <c r="H46" t="s">
@@ -10480,7 +11570,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="13">
-        <f>E47*F47</f>
+        <f t="shared" si="7"/>
         <v>1808.08</v>
       </c>
       <c r="H47" t="s">
@@ -10501,14 +11591,14 @@
       <c r="D48" s="5">
         <v>45301</v>
       </c>
-      <c r="E48" vm="31">
+      <c r="E48" vm="35">
         <v>13.231999999999999</v>
       </c>
       <c r="F48">
         <v>100</v>
       </c>
       <c r="G48" s="13">
-        <f>E48*F48</f>
+        <f t="shared" si="7"/>
         <v>1323.1999999999998</v>
       </c>
       <c r="H48" t="s">
@@ -10536,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="13">
-        <f>E49*F49</f>
+        <f t="shared" si="7"/>
         <v>5886.06</v>
       </c>
       <c r="H49" t="s">
@@ -10565,7 +11655,7 @@
         <v>366.70999999999913</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" ref="G50" si="6">E50*F50</f>
+        <f t="shared" ref="G50" si="8">E50*F50</f>
         <v>366.70999999999913</v>
       </c>
       <c r="H50" t="s">
@@ -10586,14 +11676,14 @@
       <c r="D51" s="5">
         <v>45302</v>
       </c>
-      <c r="E51" vm="32">
+      <c r="E51" vm="36">
         <v>275.89999999999998</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" s="13">
-        <f>E51*F51</f>
+        <f t="shared" ref="G51:G58" si="9">E51*F51</f>
         <v>1379.5</v>
       </c>
       <c r="H51" t="s">
@@ -10614,14 +11704,14 @@
       <c r="D52" s="5">
         <v>45302</v>
       </c>
-      <c r="E52" vm="33">
+      <c r="E52" vm="37">
         <v>2614.6</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" s="13">
-        <f>E52*F52</f>
+        <f t="shared" si="9"/>
         <v>13073</v>
       </c>
       <c r="H52" t="s">
@@ -10642,14 +11732,14 @@
       <c r="D53" s="5">
         <v>45302</v>
       </c>
-      <c r="E53" vm="34">
+      <c r="E53" vm="38">
         <v>264.85000000000002</v>
       </c>
       <c r="F53">
         <v>17</v>
       </c>
       <c r="G53" s="13">
-        <f>E53*F53</f>
+        <f t="shared" si="9"/>
         <v>4502.4500000000007</v>
       </c>
       <c r="H53" t="s">
@@ -10670,14 +11760,14 @@
       <c r="D54" s="5">
         <v>45302</v>
       </c>
-      <c r="E54" vm="35">
+      <c r="E54" vm="39">
         <v>2953.5</v>
       </c>
       <c r="F54">
         <v>4</v>
       </c>
       <c r="G54" s="13">
-        <f>E54*F54</f>
+        <f t="shared" si="9"/>
         <v>11814</v>
       </c>
       <c r="H54" t="s">
@@ -10698,18 +11788,18 @@
       <c r="D55" s="5">
         <v>45302</v>
       </c>
-      <c r="E55" vm="36">
+      <c r="E55" vm="40">
         <v>162.86000000000001</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="G55" s="13">
-        <f>E55*F55</f>
+        <f t="shared" si="9"/>
         <v>814.30000000000007</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K55" s="18"/>
     </row>
@@ -10733,7 +11823,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="13">
-        <f>E56*F56</f>
+        <f t="shared" si="9"/>
         <v>1787.8780000000002</v>
       </c>
       <c r="H56" t="s">
@@ -10754,14 +11844,14 @@
       <c r="D57" s="5">
         <v>45302</v>
       </c>
-      <c r="E57" vm="37">
+      <c r="E57" vm="41">
         <v>13.278</v>
       </c>
       <c r="F57">
         <v>100</v>
       </c>
       <c r="G57" s="13">
-        <f>E57*F57</f>
+        <f t="shared" si="9"/>
         <v>1327.8</v>
       </c>
       <c r="H57" t="s">
@@ -10789,7 +11879,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="13">
-        <f>E58*F58</f>
+        <f t="shared" si="9"/>
         <v>5848.46</v>
       </c>
       <c r="H58" t="s">
@@ -10814,15 +11904,16 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>366.70999999999913</v>
+        <v>1181.0099999999993</v>
       </c>
       <c r="G59" s="13">
-        <f t="shared" ref="G59" si="7">E59*F59</f>
-        <v>366.70999999999913</v>
+        <f t="shared" ref="G59" si="10">E59*F59</f>
+        <v>1181.0099999999993</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
       </c>
+      <c r="I59" s="15"/>
       <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -10830,131 +11921,131 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
-      <c r="B61" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="21">
-        <v>45383</v>
-      </c>
-      <c r="E61" s="19">
-        <v>986</v>
-      </c>
-      <c r="F61" s="19">
-        <v>5</v>
-      </c>
-      <c r="G61" s="22">
-        <f>E61*F61</f>
-        <v>4930</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="K61" s="18"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="21">
-        <v>45383</v>
-      </c>
-      <c r="E62" s="19">
-        <v>45.11</v>
-      </c>
-      <c r="F62" s="19">
-        <v>12</v>
-      </c>
-      <c r="G62" s="22">
-        <f>E62*F62</f>
-        <v>541.31999999999994</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="K62" s="18"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
-      <c r="B63" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="21">
-        <v>45384</v>
-      </c>
-      <c r="E63" s="19">
-        <v>48.23</v>
-      </c>
-      <c r="F63" s="19">
-        <v>7</v>
-      </c>
-      <c r="G63" s="22">
-        <f>E63*F63</f>
-        <v>337.60999999999996</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="K63" s="18"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K66" s="18"/>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K74" s="18"/>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="21">
+        <v>45017</v>
+      </c>
+      <c r="E76" s="19">
+        <v>986</v>
+      </c>
+      <c r="F76" s="19">
+        <v>5</v>
+      </c>
+      <c r="G76" s="22">
+        <f>E76*F76</f>
+        <v>4930</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="21">
+        <v>45017</v>
+      </c>
+      <c r="E77" s="19">
+        <v>45.11</v>
+      </c>
+      <c r="F77" s="19">
+        <v>12</v>
+      </c>
+      <c r="G77" s="22">
+        <f>E77*F77</f>
+        <v>541.31999999999994</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="21">
+        <v>45018</v>
+      </c>
+      <c r="E78" s="19">
+        <v>48.23</v>
+      </c>
+      <c r="F78" s="19">
+        <v>7</v>
+      </c>
+      <c r="G78" s="22">
+        <f>E78*F78</f>
+        <v>337.60999999999996</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="K78" s="18"/>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K79" s="18"/>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K80" s="18"/>
     </row>
     <row r="81" spans="11:11" x14ac:dyDescent="0.3">
@@ -11003,18 +12094,654 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D46DA0-15A4-4C75-A55D-C48D77690821}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),2)</f>
+        <v>Акция</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(E2 = 0, "Закрыто", "Активно")</f>
+        <v>Активно</v>
+      </c>
+      <c r="D2" s="23">
+        <f>COUNTIF(История!B:B,'1'!A2)-COUNTIFS(История!B:B,'1'!A2,История!H:H,"Покупка")</f>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A2,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" cm="1">
+        <f t="array" ref="F2">(INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),4))*E2</f>
+        <v>1379.5</v>
+      </c>
+      <c r="G2">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A2,История!H:H,"Покупка")</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A2,История!H:H,"Покупка")</f>
+        <v>2736.3999999999996</v>
+      </c>
+      <c r="I2" s="15" cm="1">
+        <f t="array" ref="I2">(INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),4))*G2</f>
+        <v>2759</v>
+      </c>
+      <c r="J2">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A2,История!H:H,"Продажа")</f>
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A2,История!H:H,"Продажа")</f>
+        <v>1379.05</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15">
+        <f t="shared" ref="M2:M9" si="0">F2-H2+K2</f>
+        <v>22.150000000000318</v>
+      </c>
+      <c r="N2" s="15">
+        <f t="shared" ref="N2:N9" si="1">IF(J2&gt;0,K2-H2,0)</f>
+        <v>-1357.3499999999997</v>
+      </c>
+      <c r="O2" s="16">
+        <f t="shared" ref="O2:O9" si="2">M2/H2</f>
+        <v>8.0945768162550506E-3</v>
+      </c>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),2)</f>
+        <v>Акция</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="3">IF(E3 = 0, "Закрыто", "Активно")</f>
+        <v>Активно</v>
+      </c>
+      <c r="D3" s="23">
+        <f>COUNTIF(История!B:B,'1'!A3)-COUNTIFS(История!B:B,'1'!A3,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A3,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="15" cm="1">
+        <f t="array" ref="F3">(INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),4))*E3</f>
+        <v>13073</v>
+      </c>
+      <c r="G3">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A3,История!H:H,"Покупка")</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A3,История!H:H,"Покупка")</f>
+        <v>12852</v>
+      </c>
+      <c r="I3" s="15" cm="1">
+        <f t="array" ref="I3">(INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),4))*G3</f>
+        <v>13073</v>
+      </c>
+      <c r="J3">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A3,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A3,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7195767195767195E-2</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),2)</f>
+        <v>Акция</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D4" s="23">
+        <f>COUNTIF(История!B:B,'1'!A4)-COUNTIFS(История!B:B,'1'!A4,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A4,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>17</v>
+      </c>
+      <c r="F4" s="15" cm="1">
+        <f t="array" ref="F4">(INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),4))*E4</f>
+        <v>4502.4500000000007</v>
+      </c>
+      <c r="G4">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A4,История!H:H,"Покупка")</f>
+        <v>17</v>
+      </c>
+      <c r="H4" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A4,История!H:H,"Покупка")</f>
+        <v>4279.3500000000004</v>
+      </c>
+      <c r="I4" s="15" cm="1">
+        <f t="array" ref="I4">(INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),4))*G4</f>
+        <v>4502.4500000000007</v>
+      </c>
+      <c r="J4">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A4,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A4,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
+        <f t="shared" si="0"/>
+        <v>223.10000000000036</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" si="2"/>
+        <v>5.2134085784056074E-2</v>
+      </c>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),2)</f>
+        <v>Акция</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D5" s="23">
+        <f>COUNTIF(История!B:B,'1'!A5)-COUNTIFS(История!B:B,'1'!A5,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A5,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" cm="1">
+        <f t="array" ref="F5">(INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),4))*E5</f>
+        <v>11814</v>
+      </c>
+      <c r="G5">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A5,История!H:H,"Покупка")</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A5,История!H:H,"Покупка")</f>
+        <v>11316</v>
+      </c>
+      <c r="I5" s="15" cm="1">
+        <f t="array" ref="I5">(INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),4))*G5</f>
+        <v>11814</v>
+      </c>
+      <c r="J5">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A5,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A5,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="2"/>
+        <v>4.4008483563096501E-2</v>
+      </c>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),2)</f>
+        <v>Акция</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="3"/>
+        <v>Закрыто</v>
+      </c>
+      <c r="D6" s="23">
+        <f>COUNTIF(История!B:B,'1'!A6)-COUNTIFS(История!B:B,'1'!A6,История!H:H,"Покупка")</f>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A6,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" cm="1">
+        <f t="array" ref="F6">(INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),4))*E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A6,История!H:H,"Покупка")</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A6,История!H:H,"Покупка")</f>
+        <v>811.25</v>
+      </c>
+      <c r="I6" s="15" cm="1">
+        <f t="array" ref="I6">(INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),4))*G6</f>
+        <v>814.30000000000007</v>
+      </c>
+      <c r="J6">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A6,История!H:H,"Продажа")</f>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A6,История!H:H,"Продажа")</f>
+        <v>814.30000000000007</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0500000000000682</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0500000000000682</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="2"/>
+        <v>3.7596302003082504E-3</v>
+      </c>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7">INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),2)</f>
+        <v>Валюта</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D7" s="23">
+        <f>COUNTIF(История!B:B,'1'!A7)-COUNTIFS(История!B:B,'1'!A7,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A7,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>20</v>
+      </c>
+      <c r="F7" s="15" cm="1">
+        <f t="array" ref="F7">(INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),4))*E7</f>
+        <v>1787.8780000000002</v>
+      </c>
+      <c r="G7">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A7,История!H:H,"Покупка")</f>
+        <v>20</v>
+      </c>
+      <c r="H7" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A7,История!H:H,"Покупка")</f>
+        <v>1808.08</v>
+      </c>
+      <c r="I7" s="15" cm="1">
+        <f t="array" ref="I7">(INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),4))*G7</f>
+        <v>1787.8780000000002</v>
+      </c>
+      <c r="J7">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A7,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A7,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
+        <f t="shared" si="0"/>
+        <v>-20.201999999999771</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.1173178177956601E-2</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),2)</f>
+        <v>ПИФ</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D8" s="23">
+        <f>COUNTIF(История!B:B,'1'!A8)-COUNTIFS(История!B:B,'1'!A8,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A8,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>100</v>
+      </c>
+      <c r="F8" s="15" cm="1">
+        <f t="array" ref="F8">(INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),4))*E8</f>
+        <v>1327.8</v>
+      </c>
+      <c r="G8">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A8,История!H:H,"Покупка")</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A8,История!H:H,"Покупка")</f>
+        <v>1323.1999999999998</v>
+      </c>
+      <c r="I8" s="15" cm="1">
+        <f t="array" ref="I8">(INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),4))*G8</f>
+        <v>1327.8</v>
+      </c>
+      <c r="J8">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A8,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A8,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15">
+        <f t="shared" si="0"/>
+        <v>4.6000000000001364</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="2"/>
+        <v>3.4764207980653998E-3</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9">INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),2)</f>
+        <v>Драгоценный металл</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D9" s="23">
+        <f>COUNTIF(История!B:B,'1'!A9)-COUNTIFS(История!B:B,'1'!A9,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A9,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" cm="1">
+        <f t="array" ref="F9">(INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),4))*E9</f>
+        <v>5848.46</v>
+      </c>
+      <c r="G9">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A9,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A9,История!H:H,"Покупка")</f>
+        <v>5886.06</v>
+      </c>
+      <c r="I9" s="15" cm="1">
+        <f t="array" ref="I9">(INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),4))*G9</f>
+        <v>5848.46</v>
+      </c>
+      <c r="J9">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A9,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A9,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15">
+        <f t="shared" si="0"/>
+        <v>-37.600000000000364</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <f t="shared" si="2"/>
+        <v>-6.3879742985970857E-3</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),2)</f>
+        <v>Валюта</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="3"/>
+        <v>Активно</v>
+      </c>
+      <c r="D10" s="23">
+        <f>COUNTIF(История!B:B,'1'!A10)-COUNTIFS(История!B:B,'1'!A10,История!H:H,"Пополнение счета")</f>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A10,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>1181.0099999999993</v>
+      </c>
+      <c r="F10" s="15" cm="1">
+        <f t="array" ref="F10">(INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),4))*E10</f>
+        <v>1181.0099999999993</v>
+      </c>
+      <c r="G10">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A10,История!H:H,"Пополнение счета")</f>
+        <v>40000</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A10,История!H:H,"Пополнение счета")-SUMIFS(История!G:G,История!B:B,'1'!A10,История!H:H,"Продажа")</f>
+        <v>40000</v>
+      </c>
+      <c r="I10" s="15" cm="1">
+        <f t="array" ref="I10">(INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),4))*G10</f>
+        <v>40000</v>
+      </c>
+      <c r="J10">
+        <f>SUMIFS(История!F:F,История!B:B,'1'!A10,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>SUMIFS(История!G:G,История!B:B,'1'!A10,История!H:H,"Продажа")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12" si="4">SUM(F2:F9)</f>
+        <v>39733.088000000003</v>
+      </c>
+      <c r="H12" s="15">
+        <f>SUM(H2:H9)</f>
+        <v>41012.339999999997</v>
+      </c>
+      <c r="I12" s="15">
+        <f>SUM(I2:I9)</f>
+        <v>41926.887999999999</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15">
+        <f>SUM(M2:M9)</f>
+        <v>914.09800000000075</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="17">
+        <f>M12/H12</f>
+        <v>2.2288364916510515E-2</v>
+      </c>
+      <c r="P12" s="17">
+        <f>O12*(365/MAX(D2:D10))</f>
+        <v>0.90391702161403753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05FAEE2-57DA-4EA7-9DF5-1B463130AD7D}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
@@ -11036,10 +12763,10 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -11083,50 +12810,50 @@
         <f t="array" ref="B2">INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),2)</f>
         <v>Акция</v>
       </c>
-      <c r="C2" cm="1">
-        <f t="array" ref="C2">INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),5)</f>
+      <c r="C2" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A2)-COUNTIFS(История!B:B,Портфель!A2,История!H:H,"Покупка")</f>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A2,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>5</v>
       </c>
-      <c r="D2" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A2)-COUNTIFS(История!B:B,Доходность!A2,История!H:H,"Покупка")</f>
-        <v>9</v>
-      </c>
       <c r="E2" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A2,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A2,История!H:H,"Продажа")</f>
-        <v>1357.3499999999997</v>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A2,История!H:H,"Покупка")</f>
+        <v>2736.3999999999996</v>
       </c>
       <c r="F2" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A2,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A2,История!H:H,"Покупка")</f>
         <v>273.64</v>
       </c>
       <c r="G2" s="15" cm="1">
-        <f t="array" ref="G2">(INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),4))*C2</f>
+        <f t="array" ref="G2">(INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),4))*D2</f>
         <v>1379.5</v>
       </c>
       <c r="H2" s="15">
-        <f>G2/C2</f>
+        <f t="shared" ref="H2:H10" si="0">IFERROR(G2/D2,0)</f>
         <v>275.89999999999998</v>
       </c>
       <c r="I2">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A2,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A2,История!H:H,"Продажа")</f>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A2,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A2,История!H:H,"Продажа")</f>
         <v>1379.05</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15">
-        <f>G2-E2</f>
-        <v>22.150000000000318</v>
+        <f>(H2-F2)*D2</f>
+        <v>11.299999999999955</v>
       </c>
       <c r="M2" s="15">
-        <f>IF(I2&gt;0,J2-E2,0)</f>
-        <v>21.700000000000273</v>
+        <f>J2-F2*I2</f>
+        <v>10.850000000000136</v>
       </c>
       <c r="N2" s="16">
-        <f>L2/E2</f>
-        <v>1.6318561903709672E-2</v>
+        <f>IFERROR(L2/(F2*D2),0)</f>
+        <v>8.2590264581201261E-3</v>
       </c>
       <c r="O2" s="16"/>
     </row>
@@ -11138,50 +12865,50 @@
         <f t="array" ref="B3">INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),2)</f>
         <v>Акция</v>
       </c>
-      <c r="C3" cm="1">
-        <f t="array" ref="C3">INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),5)</f>
+      <c r="C3" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A3)-COUNTIFS(История!B:B,Портфель!A3,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A3,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>5</v>
       </c>
-      <c r="D3" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A3)-COUNTIFS(История!B:B,Доходность!A3,История!H:H,"Покупка")</f>
-        <v>8</v>
-      </c>
       <c r="E3" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A3,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A3,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A3,История!H:H,"Покупка")</f>
         <v>12852</v>
       </c>
       <c r="F3" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A3,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A3,История!H:H,"Покупка")</f>
         <v>2570.4</v>
       </c>
       <c r="G3" s="15" cm="1">
-        <f t="array" ref="G3">(INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),4))*C3</f>
+        <f t="array" ref="G3">(INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),4))*D3</f>
         <v>13073</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H10" si="0">G3/C3</f>
+        <f t="shared" si="0"/>
         <v>2614.6</v>
       </c>
       <c r="I3">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A3,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A3,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A3,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A3,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15">
-        <f>G3-E3</f>
-        <v>221</v>
+        <f t="shared" ref="L3:L9" si="1">(H3-F3)*D3</f>
+        <v>220.99999999999909</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M9" si="1">IF(I3&gt;0,J3-E3,0)</f>
+        <f t="shared" ref="M3:M9" si="2">J3-F3*I3</f>
         <v>0</v>
       </c>
       <c r="N3" s="16">
-        <f>L3/E3</f>
-        <v>1.7195767195767195E-2</v>
+        <f t="shared" ref="N3:N9" si="3">IFERROR(L3/(F3*D3),0)</f>
+        <v>1.7195767195767125E-2</v>
       </c>
       <c r="O3" s="16"/>
     </row>
@@ -11193,24 +12920,24 @@
         <f t="array" ref="B4">INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),2)</f>
         <v>Акция</v>
       </c>
-      <c r="C4" cm="1">
-        <f t="array" ref="C4">INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),5)</f>
+      <c r="C4" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A4)-COUNTIFS(История!B:B,Портфель!A4,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A4,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>17</v>
       </c>
-      <c r="D4" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A4)-COUNTIFS(История!B:B,Доходность!A4,История!H:H,"Покупка")</f>
-        <v>8</v>
-      </c>
       <c r="E4" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A4,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A4,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A4,История!H:H,"Покупка")</f>
         <v>4279.3500000000004</v>
       </c>
       <c r="F4" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A4,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A4,История!H:H,"Покупка")</f>
         <v>251.4</v>
       </c>
       <c r="G4" s="15" cm="1">
-        <f t="array" ref="G4">(INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),4))*C4</f>
+        <f t="array" ref="G4">(INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),4))*D4</f>
         <v>4502.4500000000007</v>
       </c>
       <c r="H4" s="15">
@@ -11218,25 +12945,25 @@
         <v>264.85000000000002</v>
       </c>
       <c r="I4">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A4,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A4,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A4,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A4,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15">
-        <f>G4-E4</f>
-        <v>223.10000000000036</v>
+        <f t="shared" si="1"/>
+        <v>228.65000000000029</v>
       </c>
       <c r="M4" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N4" s="16">
-        <f>L4/E4</f>
-        <v>5.2134085784056074E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.3500397772474208E-2</v>
       </c>
       <c r="O4" s="16"/>
     </row>
@@ -11248,24 +12975,24 @@
         <f t="array" ref="B5">INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),2)</f>
         <v>Акция</v>
       </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5">INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),5)</f>
+      <c r="C5" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A5)-COUNTIFS(История!B:B,Портфель!A5,История!H:H,"Покупка")</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A5,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>4</v>
       </c>
-      <c r="D5" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A5)-COUNTIFS(История!B:B,Доходность!A5,История!H:H,"Покупка")</f>
-        <v>8</v>
-      </c>
       <c r="E5" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A5,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A5,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A5,История!H:H,"Покупка")</f>
         <v>11316</v>
       </c>
       <c r="F5" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A5,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A5,История!H:H,"Покупка")</f>
         <v>2829</v>
       </c>
       <c r="G5" s="15" cm="1">
-        <f t="array" ref="G5">(INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),4))*C5</f>
+        <f t="array" ref="G5">(INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),4))*D5</f>
         <v>11814</v>
       </c>
       <c r="H5" s="15">
@@ -11273,24 +13000,24 @@
         <v>2953.5</v>
       </c>
       <c r="I5">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A5,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A5,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A5,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A5,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15">
-        <f>G5-E5</f>
+        <f t="shared" si="1"/>
         <v>498</v>
       </c>
       <c r="M5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5" s="16">
-        <f>L5/E5</f>
+        <f t="shared" si="3"/>
         <v>4.4008483563096501E-2</v>
       </c>
       <c r="O5" s="16"/>
@@ -11303,50 +13030,50 @@
         <f t="array" ref="B6">INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),2)</f>
         <v>Акция</v>
       </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),5)</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A6)-COUNTIFS(История!B:B,Доходность!A6,История!H:H,"Покупка")</f>
+      <c r="C6" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A6)-COUNTIFS(История!B:B,Портфель!A6,История!H:H,"Покупка")</f>
         <v>2</v>
       </c>
+      <c r="D6">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A6,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A6,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A6,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A6,История!H:H,"Покупка")</f>
         <v>811.25</v>
       </c>
       <c r="F6" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A6,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A6,История!H:H,"Покупка")</f>
         <v>162.25</v>
       </c>
       <c r="G6" s="15" cm="1">
-        <f t="array" ref="G6">(INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),4))*C6</f>
-        <v>814.30000000000007</v>
+        <f t="array" ref="G6">(INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),4))*D6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="0"/>
-        <v>162.86000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A6,История!H:H,"Продажа")</f>
-        <v>0</v>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A6,История!H:H,"Продажа")</f>
+        <v>5</v>
       </c>
       <c r="J6">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A6,История!H:H,"Продажа")</f>
-        <v>0</v>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A6,История!H:H,"Продажа")</f>
+        <v>814.30000000000007</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15">
-        <f>G6-E6</f>
-        <v>3.0500000000000682</v>
-      </c>
-      <c r="M6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M6" s="15">
+        <f t="shared" si="2"/>
+        <v>3.0500000000000682</v>
+      </c>
       <c r="N6" s="16">
-        <f>L6/E6</f>
-        <v>3.7596302003082504E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O6" s="16"/>
     </row>
@@ -11358,24 +13085,24 @@
         <f t="array" ref="B7">INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),2)</f>
         <v>Валюта</v>
       </c>
-      <c r="C7" cm="1">
-        <f t="array" ref="C7">INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),5)</f>
+      <c r="C7" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A7)-COUNTIFS(История!B:B,Портфель!A7,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A7,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>20</v>
       </c>
-      <c r="D7" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A7)-COUNTIFS(История!B:B,Доходность!A7,История!H:H,"Покупка")</f>
-        <v>1</v>
-      </c>
       <c r="E7" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A7,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A7,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A7,История!H:H,"Покупка")</f>
         <v>1808.08</v>
       </c>
       <c r="F7" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A7,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A7,История!H:H,"Покупка")</f>
         <v>90.403999999999996</v>
       </c>
       <c r="G7" s="15" cm="1">
-        <f t="array" ref="G7">(INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),4))*C7</f>
+        <f t="array" ref="G7">(INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),4))*D7</f>
         <v>1787.8780000000002</v>
       </c>
       <c r="H7" s="15">
@@ -11383,25 +13110,25 @@
         <v>89.393900000000002</v>
       </c>
       <c r="I7">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A7,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A7,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A7,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A7,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15">
-        <f>G7-E7</f>
-        <v>-20.201999999999771</v>
+        <f t="shared" si="1"/>
+        <v>-20.201999999999884</v>
       </c>
       <c r="M7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="16">
-        <f>L7/E7</f>
-        <v>-1.1173178177956601E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.1173178177956664E-2</v>
       </c>
       <c r="O7" s="16"/>
     </row>
@@ -11413,24 +13140,24 @@
         <f t="array" ref="B8">INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),2)</f>
         <v>ПИФ</v>
       </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8">INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),5)</f>
+      <c r="C8" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A8)-COUNTIFS(История!B:B,Портфель!A8,История!H:H,"Покупка")</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A8,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>100</v>
       </c>
-      <c r="D8" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A8)-COUNTIFS(История!B:B,Доходность!A8,История!H:H,"Покупка")</f>
-        <v>1</v>
-      </c>
       <c r="E8" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A8,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A8,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A8,История!H:H,"Покупка")</f>
         <v>1323.1999999999998</v>
       </c>
       <c r="F8" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A8,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A8,История!H:H,"Покупка")</f>
         <v>13.231999999999999</v>
       </c>
       <c r="G8" s="15" cm="1">
-        <f t="array" ref="G8">(INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),4))*C8</f>
+        <f t="array" ref="G8">(INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),4))*D8</f>
         <v>1327.8</v>
       </c>
       <c r="H8" s="15">
@@ -11438,25 +13165,25 @@
         <v>13.277999999999999</v>
       </c>
       <c r="I8">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A8,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A8,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A8,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A8,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15">
-        <f>G8-E8</f>
-        <v>4.6000000000001364</v>
+        <f t="shared" si="1"/>
+        <v>4.5999999999999375</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>L8/E8</f>
-        <v>3.4764207980653998E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4764207980652493E-3</v>
       </c>
       <c r="O8" s="16"/>
     </row>
@@ -11468,24 +13195,24 @@
         <f t="array" ref="B9">INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),2)</f>
         <v>Драгоценный металл</v>
       </c>
-      <c r="C9" cm="1">
-        <f t="array" ref="C9">INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),5)</f>
+      <c r="C9" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A9)-COUNTIFS(История!B:B,Портфель!A9,История!H:H,"Покупка")</f>
         <v>1</v>
       </c>
-      <c r="D9" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A9)-COUNTIFS(История!B:B,Доходность!A9,История!H:H,"Покупка")</f>
+      <c r="D9">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A9,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
         <v>1</v>
       </c>
       <c r="E9" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A9,История!H:H,"Покупка")-SUMIFS(История!G:G,История!B:B,Доходность!A9,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A9,История!H:H,"Покупка")</f>
         <v>5886.06</v>
       </c>
       <c r="F9" s="15">
-        <f>AVERAGEIFS(История!E:E,История!B:B,Доходность!A9,История!H:H,"Покупка")</f>
+        <f>AVERAGEIFS(История!E:E,История!B:B,Портфель!A9,История!H:H,"Покупка")</f>
         <v>5886.06</v>
       </c>
       <c r="G9" s="15" cm="1">
-        <f t="array" ref="G9">(INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),4))*C9</f>
+        <f t="array" ref="G9">(INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),4))*D9</f>
         <v>5848.46</v>
       </c>
       <c r="H9" s="15">
@@ -11493,24 +13220,24 @@
         <v>5848.46</v>
       </c>
       <c r="I9">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A9,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A9,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A9,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A9,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="15">
-        <f>G9-E9</f>
+        <f t="shared" si="1"/>
         <v>-37.600000000000364</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <f>L9/E9</f>
+        <f t="shared" si="3"/>
         <v>-6.3879742985970857E-3</v>
       </c>
       <c r="O9" s="16"/>
@@ -11523,32 +13250,32 @@
         <f t="array" ref="B10">INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),2)</f>
         <v>Валюта</v>
       </c>
-      <c r="C10" cm="1">
-        <f t="array" ref="C10">INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),5)</f>
-        <v>366.70999999999913</v>
-      </c>
-      <c r="D10" s="23">
-        <f>COUNTIF(История!B:B,Доходность!A10)-COUNTIFS(История!B:B,Доходность!A10,История!H:H,"Пополнение счета")</f>
+      <c r="C10" s="23">
+        <f>COUNTIF(История!B:B,Портфель!A10)-COUNTIFS(История!B:B,Портфель!A10,История!H:H,"Пополнение счета")</f>
         <v>9</v>
       </c>
+      <c r="D10">
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A10,История!D:D,MAX(История!D:D),История!H:H,"Учет")</f>
+        <v>1181.0099999999993</v>
+      </c>
       <c r="E10" s="15">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A10,История!H:H,"Пополнение счета")-SUMIFS(История!G:G,История!B:B,Доходность!A10,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A10,История!H:H,"Пополнение счета")</f>
         <v>40000</v>
       </c>
       <c r="G10" s="15" cm="1">
-        <f t="array" ref="G10">(INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),4))*C10</f>
-        <v>366.70999999999913</v>
+        <f t="array" ref="G10">(INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),4))*D10</f>
+        <v>1181.0099999999993</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10">
-        <f>SUMIFS(История!F:F,История!B:B,Доходность!A10,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!F:F,История!B:B,Портфель!A10,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS(История!G:G,История!B:B,Доходность!A10,История!H:H,"Продажа")</f>
+        <f>SUMIFS(История!G:G,История!B:B,Портфель!A10,История!H:H,"Продажа")</f>
         <v>0</v>
       </c>
       <c r="L10" s="15"/>
@@ -11556,48 +13283,57 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="24"/>
-    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24"/>
       <c r="E12" s="15">
         <f>SUM(E2:E9)</f>
-        <v>39633.289999999994</v>
+        <v>41012.339999999997</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
-        <f t="shared" ref="F12:H12" si="2">SUM(G2:G9)</f>
-        <v>40547.387999999999</v>
+        <f t="shared" ref="G12" si="4">SUM(G2:G9)</f>
+        <v>39733.088000000003</v>
       </c>
       <c r="H12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15">
         <f>SUM(L2:L9)</f>
-        <v>914.09800000000075</v>
-      </c>
-      <c r="M12" s="15"/>
+        <v>905.74799999999902</v>
+      </c>
+      <c r="M12" s="15">
+        <f>SUM(M2:M9)</f>
+        <v>13.900000000000205</v>
+      </c>
       <c r="N12" s="17">
         <f>L12/E12</f>
-        <v>2.3063894014350082E-2</v>
+        <v>2.2084767657734213E-2</v>
       </c>
       <c r="O12" s="17">
-        <f>N12*(365/MAX(D2:D10))</f>
-        <v>0.93536903502641999</v>
+        <f>N12*(365/MAX(C2:C10))</f>
+        <v>0.89566002167477643</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" cm="1">
+        <f t="array" ref="G14">SUM(F2:F9*D2:D9)</f>
+        <v>38827.339999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4633967-D2CE-439C-99E1-BBBA401DFEA5}">
   <dimension ref="A1:B77"/>
   <sheetViews>
@@ -12230,7 +13966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FE0B6D-BE8F-4FB1-8BC4-E02124DE7E5B}">
   <dimension ref="A1:B76"/>
   <sheetViews>
@@ -12857,9 +14593,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7E6F50-DDBE-412B-87AD-3B0F03A2B4A2}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -12873,7 +14609,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B88" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
         <v>MISX:SBER</v>
       </c>
       <c r="B1" t="str">
@@ -12892,7 +14628,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" vm="38">
+      <c r="A3" s="5" vm="42">
         <f ca="1"/>
         <v>45294</v>
       </c>
@@ -12902,853 +14638,873 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" vm="39">
+      <c r="A4" s="5" vm="43">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="9">
+      <c r="B4" vm="13">
         <f ca="1"/>
         <v>274.04000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" vm="40">
+      <c r="A5" s="5" vm="44">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="13">
+      <c r="B5" vm="17">
         <f ca="1"/>
         <v>273.45999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" vm="41">
+      <c r="A6" s="5" vm="45">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="17">
+      <c r="B6" vm="21">
         <f ca="1"/>
         <v>275.81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" vm="42">
+      <c r="A7" s="5" vm="46">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="21">
+      <c r="B7" vm="25">
         <f ca="1"/>
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" vm="43">
+      <c r="A8" s="5" vm="47">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="26">
+      <c r="B8" vm="30">
         <f ca="1"/>
         <v>275.68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" vm="44">
+      <c r="A9" s="5" vm="48">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="32">
+      <c r="B9" vm="36">
         <f ca="1"/>
         <v>275.89999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" vm="45">
+      <c r="A10" s="5" vm="49">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="46">
+      <c r="B10" vm="50">
         <f ca="1"/>
         <v>275.39999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" vm="47">
+      <c r="A11" s="5" vm="51">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="48">
+      <c r="B11" vm="52">
         <f ca="1"/>
         <v>276.10000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" vm="49">
+      <c r="A12" s="5" vm="53">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="50">
+      <c r="B12" vm="54">
         <f ca="1"/>
         <v>275.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" vm="51">
+      <c r="A13" s="5" vm="55">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="52">
+      <c r="B13" vm="56">
         <f ca="1"/>
         <v>277.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" vm="53">
+      <c r="A14" s="5" vm="57">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="54">
+      <c r="B14" vm="58">
         <f ca="1"/>
         <v>277.77999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" vm="55">
+      <c r="A15" s="5" vm="59">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="56">
+      <c r="B15" vm="60">
         <f ca="1"/>
         <v>275.29000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" vm="57">
+      <c r="A16" s="5" vm="61">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="58">
+      <c r="B16" vm="62">
         <f ca="1"/>
         <v>275.01</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" vm="59">
+      <c r="A17" s="5" vm="63">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="21">
+      <c r="B17" vm="25">
         <f ca="1"/>
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" vm="60">
+      <c r="A18" s="5" vm="64">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="61">
+      <c r="B18" vm="65">
         <f ca="1"/>
         <v>274.10000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" vm="62">
+      <c r="A19" s="5" vm="66">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="63">
+      <c r="B19" vm="67">
         <f ca="1"/>
         <v>272.95999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" vm="64">
+      <c r="A20" s="5" vm="68">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="65">
+      <c r="B20" vm="69">
         <f ca="1"/>
         <v>273.12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" vm="66">
+      <c r="A21" s="5" vm="70">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="67">
+      <c r="B21" vm="71">
         <f ca="1"/>
         <v>273.73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" vm="68">
+      <c r="A22" s="5" vm="72">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="69">
+      <c r="B22" vm="73">
         <f ca="1"/>
         <v>274.70999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" vm="70">
+      <c r="A23" s="5" vm="74">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="32">
+      <c r="B23" vm="36">
         <f ca="1"/>
         <v>275.89999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" vm="71">
+      <c r="A24" s="5" vm="75">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="72">
+      <c r="B24" vm="76">
         <f ca="1"/>
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" vm="73">
+      <c r="A25" s="5" vm="77">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="74">
+      <c r="B25" vm="78">
         <f ca="1"/>
         <v>276.51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" vm="75">
+      <c r="A26" s="5" vm="79">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="76">
+      <c r="B26" vm="80">
         <f ca="1"/>
         <v>277.26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" vm="77">
+      <c r="A27" s="5" vm="81">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="78">
+      <c r="B27" vm="82">
         <f ca="1"/>
         <v>278.75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" vm="79">
+      <c r="A28" s="5" vm="83">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="80">
+      <c r="B28" vm="84">
         <f ca="1"/>
         <v>282.22000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" vm="81">
+      <c r="A29" s="5" vm="85">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="82">
+      <c r="B29" vm="86">
         <f ca="1"/>
         <v>282.82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" vm="83">
+      <c r="A30" s="5" vm="87">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="84">
+      <c r="B30" vm="88">
         <f ca="1"/>
         <v>283.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" vm="85">
+      <c r="A31" s="5" vm="89">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="86">
+      <c r="B31" vm="90">
         <f ca="1"/>
         <v>287.75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" vm="87">
+      <c r="A32" s="5" vm="91">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="88">
+      <c r="B32" vm="92">
         <f ca="1"/>
         <v>287.49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" vm="89">
+      <c r="A33" s="5" vm="93">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="90">
+      <c r="B33" vm="94">
         <f ca="1"/>
         <v>289.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" vm="91">
+      <c r="A34" s="5" vm="95">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="92">
+      <c r="B34" vm="96">
         <f ca="1"/>
         <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" vm="93">
+      <c r="A35" s="5" vm="97">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="94">
+      <c r="B35" vm="98">
         <f ca="1"/>
         <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" vm="95">
+      <c r="A36" s="5" vm="99">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="96">
+      <c r="B36" vm="100">
         <f ca="1"/>
         <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" vm="97">
+      <c r="A37" s="5" vm="101">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="98">
+      <c r="B37" vm="102">
         <f ca="1"/>
         <v>287.17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" vm="99">
+      <c r="A38" s="5" vm="103">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="100">
+      <c r="B38" vm="104">
         <f ca="1"/>
         <v>281.55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" vm="101">
+      <c r="A39" s="5" vm="105">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="102">
+      <c r="B39" vm="106">
         <f ca="1"/>
         <v>282.74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" vm="103">
+      <c r="A40" s="5" vm="107">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="104">
+      <c r="B40" vm="108">
         <f ca="1"/>
         <v>290.7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" vm="105">
+      <c r="A41" s="5" vm="109">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="106">
+      <c r="B41" vm="110">
         <f ca="1"/>
         <v>292.52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" vm="107">
+      <c r="A42" s="5" vm="111">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="108">
+      <c r="B42" vm="112">
         <f ca="1"/>
         <v>292.81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" vm="109">
+      <c r="A43" s="5" vm="113">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="110">
+      <c r="B43" vm="114">
         <f ca="1"/>
         <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" vm="111">
+      <c r="A44" s="5" vm="115">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="112">
+      <c r="B44" vm="116">
         <f ca="1"/>
         <v>294.44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" vm="113">
+      <c r="A45" s="5" vm="117">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="114">
+      <c r="B45" vm="118">
         <f ca="1"/>
         <v>298.97000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" vm="115">
+      <c r="A46" s="5" vm="119">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="116">
+      <c r="B46" vm="120">
         <f ca="1"/>
         <v>298.7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" vm="117">
+      <c r="A47" s="5" vm="121">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="118">
+      <c r="B47" vm="122">
         <f ca="1"/>
         <v>298.14999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" vm="119">
+      <c r="A48" s="5" vm="123">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="120">
+      <c r="B48" vm="124">
         <f ca="1"/>
         <v>299.38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" vm="121">
+      <c r="A49" s="5" vm="125">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="122">
+      <c r="B49" vm="126">
         <f ca="1"/>
         <v>300.05</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" vm="123">
+      <c r="A50" s="5" vm="127">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="124">
+      <c r="B50" vm="128">
         <f ca="1"/>
         <v>300.39999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" vm="125">
+      <c r="A51" s="5" vm="129">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="126">
+      <c r="B51" vm="130">
         <f ca="1"/>
         <v>300.10000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" vm="127">
+      <c r="A52" s="5" vm="131">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="128">
+      <c r="B52" vm="132">
         <f ca="1"/>
         <v>296.27999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" vm="129">
+      <c r="A53" s="5" vm="133">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="130">
+      <c r="B53" vm="134">
         <f ca="1"/>
         <v>298.60000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" vm="131">
+      <c r="A54" s="5" vm="135">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="132">
+      <c r="B54" vm="136">
         <f ca="1"/>
         <v>299.11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" vm="133">
+      <c r="A55" s="5" vm="137">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="134">
+      <c r="B55" vm="138">
         <f ca="1"/>
         <v>295.7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" vm="135">
+      <c r="A56" s="5" vm="139">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="136">
+      <c r="B56" vm="140">
         <f ca="1"/>
         <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" vm="137">
+      <c r="A57" s="5" vm="141">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="138">
+      <c r="B57" vm="142">
         <f ca="1"/>
         <v>295.99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" vm="139">
+      <c r="A58" s="5" vm="143">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="140">
+      <c r="B58" vm="144">
         <f ca="1"/>
         <v>295.44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" vm="141">
+      <c r="A59" s="5" vm="145">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="142">
+      <c r="B59" vm="146">
         <f ca="1"/>
         <v>294.3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" vm="143">
+      <c r="A60" s="5" vm="147">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="144">
+      <c r="B60" vm="148">
         <f ca="1"/>
         <v>293.83999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" vm="145">
+      <c r="A61" s="5" vm="149">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="146">
+      <c r="B61" vm="150">
         <f ca="1"/>
         <v>294.92</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" vm="147">
+      <c r="A62" s="5" vm="151">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="148">
+      <c r="B62" vm="152">
         <f ca="1"/>
         <v>298.69</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" vm="149">
+      <c r="A63" s="5" vm="153">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="150">
+      <c r="B63" vm="154">
         <f ca="1"/>
         <v>298.89999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" vm="151">
+      <c r="A64" s="5" vm="155">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="152">
+      <c r="B64" vm="3">
         <f ca="1"/>
         <v>299.76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" vm="153">
+      <c r="A65" s="5" vm="156">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="154">
+      <c r="B65" vm="157">
         <f ca="1"/>
         <v>300.55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" vm="155">
+      <c r="A66" s="5" vm="158">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="156">
+      <c r="B66" vm="159">
         <f ca="1"/>
         <v>306.2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" vm="157">
+      <c r="A67" s="5" vm="160">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="158">
+      <c r="B67" vm="161">
         <f ca="1"/>
         <v>305.94</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" vm="159">
+      <c r="A68" s="5" vm="162">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="160">
+      <c r="B68" vm="163">
         <f ca="1"/>
         <v>305.7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" vm="161">
+      <c r="A69" s="5" vm="164">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="162">
+      <c r="B69" vm="165">
         <f ca="1"/>
         <v>306.92</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" vm="163">
+      <c r="A70" s="5" vm="166">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="164">
+      <c r="B70" vm="167">
         <f ca="1"/>
         <v>307.02999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" vm="165">
+      <c r="A71" s="5" vm="168">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="166">
+      <c r="B71" vm="169">
         <f ca="1"/>
         <v>306.89</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" vm="167">
+      <c r="A72" s="5" vm="170">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="168">
+      <c r="B72" vm="171">
         <f ca="1"/>
         <v>307.33</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" vm="169">
+      <c r="A73" s="5" vm="172">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="170">
+      <c r="B73" vm="173">
         <f ca="1"/>
         <v>306.8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" vm="171">
+      <c r="A74" s="5" vm="174">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="172">
+      <c r="B74" vm="175">
         <f ca="1"/>
         <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" vm="173">
+      <c r="A75" s="5" vm="176">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="174">
+      <c r="B75" vm="177">
         <f ca="1"/>
         <v>307.97000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" vm="175">
+      <c r="A76" s="5" vm="178">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="176">
+      <c r="B76" vm="179">
         <f ca="1"/>
         <v>306.43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" vm="177">
+      <c r="A77" s="5" vm="180">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="178">
+      <c r="B77" vm="181">
         <f ca="1"/>
         <v>308.16000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" vm="179">
+      <c r="A78" s="5" vm="182">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="180">
+      <c r="B78" vm="183">
         <f ca="1"/>
         <v>307.89999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" vm="181">
+      <c r="A79" s="5" vm="184">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="182">
+      <c r="B79" vm="185">
         <f ca="1"/>
         <v>313.3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" vm="183">
+      <c r="A80" s="5" vm="186">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="184">
+      <c r="B80" vm="187">
         <f ca="1"/>
         <v>308.3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" vm="185">
+      <c r="A81" s="5" vm="188">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="186">
+      <c r="B81" vm="189">
         <f ca="1"/>
         <v>307.86</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" vm="187">
+      <c r="A82" s="5" vm="190">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="188">
+      <c r="B82" vm="191">
         <f ca="1"/>
         <v>308.39999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" vm="189">
+      <c r="A83" s="5" vm="192">
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="190">
+      <c r="B83" vm="193">
         <f ca="1"/>
         <v>309.14999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" vm="191">
+      <c r="A84" s="5" vm="194">
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="192">
+      <c r="B84" vm="195">
         <f ca="1"/>
         <v>309.47000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" vm="193">
+      <c r="A85" s="5" vm="196">
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="194">
+      <c r="B85" vm="197">
         <f ca="1"/>
         <v>308.38</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" vm="195">
+      <c r="A86" s="5" vm="198">
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="196">
+      <c r="B86" vm="199">
         <f ca="1"/>
         <v>308.43</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" vm="197">
+      <c r="A87" s="5" vm="200">
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="198">
+      <c r="B87" vm="201">
         <f ca="1"/>
         <v>307.10000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" vm="199">
+      <c r="A88" s="5" vm="202">
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="200">
+      <c r="B88" vm="203">
         <f ca="1"/>
         <v>307.83999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" vm="204">
+        <f ca="1"/>
+        <v>45418</v>
+      </c>
+      <c r="B89" vm="205">
+        <f ca="1"/>
+        <v>306.97000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" vm="206">
+        <f ca="1"/>
+        <v>45419</v>
+      </c>
+      <c r="B90" vm="207">
+        <f ca="1"/>
+        <v>308.39</v>
       </c>
     </row>
   </sheetData>
@@ -13756,9 +15512,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC451C-A319-4741-8A55-3296C7226099}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -13771,7 +15527,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B88" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
         <v>MISX:YNDX</v>
       </c>
       <c r="B1" t="str">
@@ -13790,1762 +15546,883 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="38">
+      <c r="A3" vm="42">
         <f ca="1"/>
         <v>45294</v>
       </c>
-      <c r="B3" vm="4">
+      <c r="B3" vm="5">
         <f ca="1"/>
         <v>2570.4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="39">
+      <c r="A4" vm="43">
         <f ca="1"/>
         <v>45295</v>
       </c>
-      <c r="B4" vm="10">
+      <c r="B4" vm="14">
         <f ca="1"/>
         <v>2568.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="40">
+      <c r="A5" vm="44">
         <f ca="1"/>
         <v>45296</v>
       </c>
-      <c r="B5" vm="14">
+      <c r="B5" vm="18">
         <f ca="1"/>
         <v>2573.8000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="41">
+      <c r="A6" vm="45">
         <f ca="1"/>
         <v>45299</v>
       </c>
-      <c r="B6" vm="18">
+      <c r="B6" vm="22">
         <f ca="1"/>
         <v>2605</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="42">
+      <c r="A7" vm="46">
         <f ca="1"/>
         <v>45300</v>
       </c>
-      <c r="B7" vm="22">
+      <c r="B7" vm="26">
         <f ca="1"/>
         <v>2611</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="43">
+      <c r="A8" vm="47">
         <f ca="1"/>
         <v>45301</v>
       </c>
-      <c r="B8" vm="27">
+      <c r="B8" vm="31">
         <f ca="1"/>
         <v>2599.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="44">
+      <c r="A9" vm="48">
         <f ca="1"/>
         <v>45302</v>
       </c>
-      <c r="B9" vm="33">
+      <c r="B9" vm="37">
         <f ca="1"/>
         <v>2614.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="45">
+      <c r="A10" vm="49">
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="201">
+      <c r="B10" vm="208">
         <f ca="1"/>
         <v>2625.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="47">
+      <c r="A11" vm="51">
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="202">
+      <c r="B11" vm="209">
         <f ca="1"/>
         <v>2671</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="49">
+      <c r="A12" vm="53">
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="203">
+      <c r="B12" vm="210">
         <f ca="1"/>
         <v>2649.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="51">
+      <c r="A13" vm="55">
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="204">
+      <c r="B13" vm="211">
         <f ca="1"/>
         <v>2640.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="53">
+      <c r="A14" vm="57">
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="205">
+      <c r="B14" vm="212">
         <f ca="1"/>
         <v>2626</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="55">
+      <c r="A15" vm="59">
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="4">
+      <c r="B15" vm="5">
         <f ca="1"/>
         <v>2570.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="57">
+      <c r="A16" vm="61">
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="206">
+      <c r="B16" vm="213">
         <f ca="1"/>
         <v>2599</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="59">
+      <c r="A17" vm="63">
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="207">
+      <c r="B17" vm="214">
         <f ca="1"/>
         <v>2618.1999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="60">
+      <c r="A18" vm="64">
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="208">
+      <c r="B18" vm="215">
         <f ca="1"/>
         <v>2642</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="62">
+      <c r="A19" vm="66">
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="209">
+      <c r="B19" vm="216">
         <f ca="1"/>
         <v>2765</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="64">
+      <c r="A20" vm="68">
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="210">
+      <c r="B20" vm="217">
         <f ca="1"/>
         <v>2877.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="66">
+      <c r="A21" vm="70">
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="211">
+      <c r="B21" vm="218">
         <f ca="1"/>
         <v>2945</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="68">
+      <c r="A22" vm="72">
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="212">
+      <c r="B22" vm="219">
         <f ca="1"/>
         <v>3101.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="70">
+      <c r="A23" vm="74">
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="213">
+      <c r="B23" vm="220">
         <f ca="1"/>
         <v>3043.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="71">
+      <c r="A24" vm="75">
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="214">
+      <c r="B24" vm="221">
         <f ca="1"/>
         <v>3102.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="73">
+      <c r="A25" vm="77">
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="215">
+      <c r="B25" vm="222">
         <f ca="1"/>
         <v>3090</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="75">
+      <c r="A26" vm="79">
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="216">
+      <c r="B26" vm="223">
         <f ca="1"/>
         <v>3066.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="77">
+      <c r="A27" vm="81">
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="217">
+      <c r="B27" vm="224">
         <f ca="1"/>
         <v>3107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="79">
+      <c r="A28" vm="83">
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="218">
+      <c r="B28" vm="225">
         <f ca="1"/>
         <v>3288</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="81">
+      <c r="A29" vm="85">
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="218">
+      <c r="B29" vm="225">
         <f ca="1"/>
         <v>3288</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="83">
+      <c r="A30" vm="87">
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="219">
+      <c r="B30" vm="226">
         <f ca="1"/>
         <v>3254.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="85">
+      <c r="A31" vm="89">
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="220">
+      <c r="B31" vm="227">
         <f ca="1"/>
         <v>3280.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="87">
+      <c r="A32" vm="91">
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="221">
+      <c r="B32" vm="228">
         <f ca="1"/>
         <v>3453.4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="89">
+      <c r="A33" vm="93">
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="222">
+      <c r="B33" vm="229">
         <f ca="1"/>
         <v>3454</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="91">
+      <c r="A34" vm="95">
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="223">
+      <c r="B34" vm="230">
         <f ca="1"/>
         <v>3439.6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="93">
+      <c r="A35" vm="97">
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="224">
+      <c r="B35" vm="231">
         <f ca="1"/>
         <v>3408.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="95">
+      <c r="A36" vm="99">
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="225">
+      <c r="B36" vm="232">
         <f ca="1"/>
         <v>3378.6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="97">
+      <c r="A37" vm="101">
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="226">
+      <c r="B37" vm="233">
         <f ca="1"/>
         <v>3310</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="99">
+      <c r="A38" vm="103">
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="227">
+      <c r="B38" vm="234">
         <f ca="1"/>
         <v>3220</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="101">
+      <c r="A39" vm="105">
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="228">
+      <c r="B39" vm="235">
         <f ca="1"/>
         <v>3224</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="103">
+      <c r="A40" vm="107">
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="229">
+      <c r="B40" vm="236">
         <f ca="1"/>
         <v>3386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="105">
+      <c r="A41" vm="109">
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="230">
+      <c r="B41" vm="237">
         <f ca="1"/>
         <v>3366.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="107">
+      <c r="A42" vm="111">
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="231">
+      <c r="B42" vm="238">
         <f ca="1"/>
         <v>3355</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="109">
+      <c r="A43" vm="113">
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="232">
+      <c r="B43" vm="239">
         <f ca="1"/>
         <v>3380</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="111">
+      <c r="A44" vm="115">
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="233">
+      <c r="B44" vm="240">
         <f ca="1"/>
         <v>3515</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="113">
+      <c r="A45" vm="117">
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="234">
+      <c r="B45" vm="241">
         <f ca="1"/>
         <v>3644</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="115">
+      <c r="A46" vm="119">
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="235">
+      <c r="B46" vm="242">
         <f ca="1"/>
         <v>3640</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="117">
+      <c r="A47" vm="121">
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="236">
+      <c r="B47" vm="243">
         <f ca="1"/>
         <v>3579.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="119">
+      <c r="A48" vm="123">
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="237">
+      <c r="B48" vm="244">
         <f ca="1"/>
         <v>3590</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="121">
+      <c r="A49" vm="125">
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="238">
+      <c r="B49" vm="245">
         <f ca="1"/>
         <v>3570</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="123">
+      <c r="A50" vm="127">
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="239">
+      <c r="B50" vm="246">
         <f ca="1"/>
         <v>3491.8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="125">
+      <c r="A51" vm="129">
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="240">
+      <c r="B51" vm="247">
         <f ca="1"/>
         <v>3589</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="127">
+      <c r="A52" vm="131">
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="241">
+      <c r="B52" vm="248">
         <f ca="1"/>
         <v>3605</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="129">
+      <c r="A53" vm="133">
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="242">
+      <c r="B53" vm="249">
         <f ca="1"/>
         <v>3639</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="131">
+      <c r="A54" vm="135">
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="243">
+      <c r="B54" vm="250">
         <f ca="1"/>
         <v>3701</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="133">
+      <c r="A55" vm="137">
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="244">
+      <c r="B55" vm="251">
         <f ca="1"/>
         <v>3799</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="135">
+      <c r="A56" vm="139">
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="245">
+      <c r="B56" vm="252">
         <f ca="1"/>
         <v>3916.8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="137">
+      <c r="A57" vm="141">
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="246">
+      <c r="B57" vm="253">
         <f ca="1"/>
         <v>3873</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="139">
+      <c r="A58" vm="143">
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="247">
+      <c r="B58" vm="254">
         <f ca="1"/>
         <v>3905</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="141">
+      <c r="A59" vm="145">
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="248">
+      <c r="B59" vm="255">
         <f ca="1"/>
         <v>3990.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="143">
+      <c r="A60" vm="147">
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="249">
+      <c r="B60" vm="256">
         <f ca="1"/>
         <v>3999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="145">
+      <c r="A61" vm="149">
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="250">
+      <c r="B61" vm="257">
         <f ca="1"/>
         <v>4014</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="147">
+      <c r="A62" vm="151">
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="251">
+      <c r="B62" vm="258">
         <f ca="1"/>
         <v>4004.6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="149">
+      <c r="A63" vm="153">
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="252">
+      <c r="B63" vm="259">
         <f ca="1"/>
         <v>4000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="151">
+      <c r="A64" vm="155">
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="253">
+      <c r="B64" vm="6">
         <f ca="1"/>
         <v>3978</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="153">
+      <c r="A65" vm="156">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="254">
+      <c r="B65" vm="260">
         <f ca="1"/>
         <v>3889.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="155">
+      <c r="A66" vm="158">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="255">
+      <c r="B66" vm="261">
         <f ca="1"/>
         <v>3917.4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="157">
+      <c r="A67" vm="160">
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="256">
+      <c r="B67" vm="262">
         <f ca="1"/>
         <v>3962.2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="159">
+      <c r="A68" vm="162">
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="257">
+      <c r="B68" vm="263">
         <f ca="1"/>
         <v>3980.2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="161">
+      <c r="A69" vm="164">
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="258">
+      <c r="B69" vm="264">
         <f ca="1"/>
         <v>3960</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="163">
+      <c r="A70" vm="166">
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="259">
+      <c r="B70" vm="265">
         <f ca="1"/>
         <v>3949.4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="165">
+      <c r="A71" vm="168">
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="260">
+      <c r="B71" vm="266">
         <f ca="1"/>
         <v>3985.8</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="167">
+      <c r="A72" vm="170">
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="261">
+      <c r="B72" vm="267">
         <f ca="1"/>
         <v>3940.6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="169">
+      <c r="A73" vm="172">
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="262">
+      <c r="B73" vm="268">
         <f ca="1"/>
         <v>3993</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="171">
+      <c r="A74" vm="174">
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="263">
+      <c r="B74" vm="269">
         <f ca="1"/>
         <v>4027.4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="173">
+      <c r="A75" vm="176">
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="264">
+      <c r="B75" vm="270">
         <f ca="1"/>
         <v>4047</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="175">
+      <c r="A76" vm="178">
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="265">
+      <c r="B76" vm="271">
         <f ca="1"/>
         <v>4190.6000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="177">
+      <c r="A77" vm="180">
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="266">
+      <c r="B77" vm="272">
         <f ca="1"/>
         <v>4190</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="179">
+      <c r="A78" vm="182">
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="267">
+      <c r="B78" vm="273">
         <f ca="1"/>
         <v>4244.2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="181">
+      <c r="A79" vm="184">
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="268">
+      <c r="B79" vm="274">
         <f ca="1"/>
         <v>4252</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="183">
+      <c r="A80" vm="186">
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="269">
+      <c r="B80" vm="275">
         <f ca="1"/>
         <v>4153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="185">
+      <c r="A81" vm="188">
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="270">
+      <c r="B81" vm="276">
         <f ca="1"/>
         <v>4099</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="187">
+      <c r="A82" vm="190">
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="271">
+      <c r="B82" vm="277">
         <f ca="1"/>
         <v>4103</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" vm="189">
+      <c r="A83" vm="192">
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="272">
+      <c r="B83" vm="278">
         <f ca="1"/>
         <v>4228</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" vm="191">
+      <c r="A84" vm="194">
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="273">
+      <c r="B84" vm="279">
         <f ca="1"/>
         <v>4140</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" vm="193">
+      <c r="A85" vm="196">
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="274">
+      <c r="B85" vm="280">
         <f ca="1"/>
         <v>4174</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" vm="195">
+      <c r="A86" vm="198">
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="273">
+      <c r="B86" vm="279">
         <f ca="1"/>
         <v>4140</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" vm="197">
+      <c r="A87" vm="200">
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="275">
+      <c r="B87" vm="281">
         <f ca="1"/>
         <v>4160</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" vm="199">
+      <c r="A88" vm="202">
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="276">
+      <c r="B88" vm="282">
         <f ca="1"/>
         <v>4209.2</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926C765-3D1F-484A-A987-1141447310F5}">
-  <dimension ref="A1:B88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B88" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
-        <v>MISX:MTSS</v>
-      </c>
-      <c r="B1" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1"/>
-        <v>Дата</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1"/>
-        <v>Закрытие</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" vm="38">
-        <f ca="1"/>
-        <v>45294</v>
-      </c>
-      <c r="B3" vm="6">
-        <f ca="1"/>
-        <v>249.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" vm="39">
-        <f ca="1"/>
-        <v>45295</v>
-      </c>
-      <c r="B4" vm="11">
-        <f ca="1"/>
-        <v>250.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" vm="40">
-        <f ca="1"/>
-        <v>45296</v>
-      </c>
-      <c r="B5" vm="15">
-        <f ca="1"/>
-        <v>250.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" vm="41">
-        <f ca="1"/>
-        <v>45299</v>
-      </c>
-      <c r="B6" vm="19">
-        <f ca="1"/>
-        <v>253.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" vm="42">
-        <f ca="1"/>
-        <v>45300</v>
-      </c>
-      <c r="B7" vm="23">
-        <f ca="1"/>
-        <v>259.39999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" vm="43">
-        <f ca="1"/>
-        <v>45301</v>
-      </c>
-      <c r="B8" vm="28">
-        <f ca="1"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" vm="44">
-        <f ca="1"/>
-        <v>45302</v>
-      </c>
-      <c r="B9" vm="34">
-        <f ca="1"/>
-        <v>264.85000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" vm="45">
-        <f ca="1"/>
-        <v>45303</v>
-      </c>
-      <c r="B10" vm="277">
-        <f ca="1"/>
-        <v>266.10000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" vm="47">
-        <f ca="1"/>
-        <v>45306</v>
-      </c>
-      <c r="B11" vm="278">
-        <f ca="1"/>
-        <v>267.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" vm="49">
-        <f ca="1"/>
-        <v>45307</v>
-      </c>
-      <c r="B12" vm="279">
-        <f ca="1"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" vm="51">
-        <f ca="1"/>
-        <v>45308</v>
-      </c>
-      <c r="B13" vm="280">
-        <f ca="1"/>
-        <v>264.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" vm="53">
-        <f ca="1"/>
-        <v>45309</v>
-      </c>
-      <c r="B14" vm="281">
-        <f ca="1"/>
-        <v>264.89999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" vm="55">
-        <f ca="1"/>
-        <v>45310</v>
-      </c>
-      <c r="B15" vm="282">
-        <f ca="1"/>
-        <v>263.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" vm="57">
-        <f ca="1"/>
-        <v>45313</v>
-      </c>
-      <c r="B16" vm="283">
-        <f ca="1"/>
-        <v>263.35000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" vm="59">
-        <f ca="1"/>
-        <v>45314</v>
-      </c>
-      <c r="B17" vm="284">
-        <f ca="1"/>
-        <v>264.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" vm="60">
-        <f ca="1"/>
-        <v>45315</v>
-      </c>
-      <c r="B18" vm="285">
-        <f ca="1"/>
-        <v>267.64999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" vm="62">
-        <f ca="1"/>
-        <v>45316</v>
-      </c>
-      <c r="B19" vm="286">
-        <f ca="1"/>
-        <v>269.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" vm="64">
-        <f ca="1"/>
-        <v>45317</v>
-      </c>
-      <c r="B20" vm="287">
-        <f ca="1"/>
-        <v>270.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" vm="66">
-        <f ca="1"/>
-        <v>45320</v>
-      </c>
-      <c r="B21" vm="288">
-        <f ca="1"/>
-        <v>271.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" vm="68">
-        <f ca="1"/>
-        <v>45321</v>
-      </c>
-      <c r="B22" vm="289">
-        <f ca="1"/>
-        <v>272.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" vm="70">
-        <f ca="1"/>
-        <v>45322</v>
-      </c>
-      <c r="B23" vm="290">
-        <f ca="1"/>
-        <v>274.35000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" vm="71">
-        <f ca="1"/>
-        <v>45323</v>
-      </c>
-      <c r="B24" vm="291">
-        <f ca="1"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" vm="73">
-        <f ca="1"/>
-        <v>45324</v>
-      </c>
-      <c r="B25" vm="292">
-        <f ca="1"/>
-        <v>276.05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" vm="75">
-        <f ca="1"/>
-        <v>45327</v>
-      </c>
-      <c r="B26" vm="293">
-        <f ca="1"/>
-        <v>278.60000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" vm="77">
-        <f ca="1"/>
-        <v>45328</v>
-      </c>
-      <c r="B27" vm="294">
-        <f ca="1"/>
-        <v>278.39999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" vm="79">
-        <f ca="1"/>
-        <v>45329</v>
-      </c>
-      <c r="B28" vm="295">
-        <f ca="1"/>
-        <v>277.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" vm="81">
-        <f ca="1"/>
-        <v>45330</v>
-      </c>
-      <c r="B29" vm="296">
-        <f ca="1"/>
-        <v>276.85000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" vm="83">
-        <f ca="1"/>
-        <v>45331</v>
-      </c>
-      <c r="B30" vm="297">
-        <f ca="1"/>
-        <v>277.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" vm="85">
-        <f ca="1"/>
-        <v>45334</v>
-      </c>
-      <c r="B31" vm="298">
-        <f ca="1"/>
-        <v>277.35000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" vm="87">
-        <f ca="1"/>
-        <v>45335</v>
-      </c>
-      <c r="B32" vm="299">
-        <f ca="1"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" vm="89">
-        <f ca="1"/>
-        <v>45336</v>
-      </c>
-      <c r="B33" vm="300">
-        <f ca="1"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" vm="91">
-        <f ca="1"/>
-        <v>45337</v>
-      </c>
-      <c r="B34" vm="301">
-        <f ca="1"/>
-        <v>281.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" vm="93">
-        <f ca="1"/>
-        <v>45338</v>
-      </c>
-      <c r="B35" vm="302">
-        <f ca="1"/>
-        <v>281.89999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" vm="95">
-        <f ca="1"/>
-        <v>45341</v>
-      </c>
-      <c r="B36" vm="303">
-        <f ca="1"/>
-        <v>279.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" vm="97">
-        <f ca="1"/>
-        <v>45342</v>
-      </c>
-      <c r="B37" vm="304">
-        <f ca="1"/>
-        <v>277.64999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" vm="99">
-        <f ca="1"/>
-        <v>45343</v>
-      </c>
-      <c r="B38" vm="305">
-        <f ca="1"/>
-        <v>276.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" vm="101">
-        <f ca="1"/>
-        <v>45344</v>
-      </c>
-      <c r="B39" vm="306">
-        <f ca="1"/>
-        <v>278.10000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" vm="103">
-        <f ca="1"/>
-        <v>45348</v>
-      </c>
-      <c r="B40" vm="301">
-        <f ca="1"/>
-        <v>281.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" vm="105">
-        <f ca="1"/>
-        <v>45349</v>
-      </c>
-      <c r="B41" vm="307">
-        <f ca="1"/>
-        <v>282.45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" vm="107">
-        <f ca="1"/>
-        <v>45350</v>
-      </c>
-      <c r="B42" vm="308">
-        <f ca="1"/>
-        <v>284.60000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" vm="109">
-        <f ca="1"/>
-        <v>45351</v>
-      </c>
-      <c r="B43" vm="309">
-        <f ca="1"/>
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" vm="111">
-        <f ca="1"/>
-        <v>45352</v>
-      </c>
-      <c r="B44" vm="310">
-        <f ca="1"/>
-        <v>289.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" vm="113">
-        <f ca="1"/>
-        <v>45355</v>
-      </c>
-      <c r="B45" vm="311">
-        <f ca="1"/>
-        <v>290.85000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" vm="115">
-        <f ca="1"/>
-        <v>45356</v>
-      </c>
-      <c r="B46" vm="312">
-        <f ca="1"/>
-        <v>290.60000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" vm="117">
-        <f ca="1"/>
-        <v>45357</v>
-      </c>
-      <c r="B47" vm="96">
-        <f ca="1"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" vm="119">
-        <f ca="1"/>
-        <v>45358</v>
-      </c>
-      <c r="B48" vm="313">
-        <f ca="1"/>
-        <v>289.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" vm="121">
-        <f ca="1"/>
-        <v>45362</v>
-      </c>
-      <c r="B49" vm="314">
-        <f ca="1"/>
-        <v>290.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" vm="123">
-        <f ca="1"/>
-        <v>45363</v>
-      </c>
-      <c r="B50" vm="315">
-        <f ca="1"/>
-        <v>294.10000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" vm="125">
-        <f ca="1"/>
-        <v>45364</v>
-      </c>
-      <c r="B51" vm="316">
-        <f ca="1"/>
-        <v>294.89999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" vm="127">
-        <f ca="1"/>
-        <v>45365</v>
-      </c>
-      <c r="B52" vm="317">
-        <f ca="1"/>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" vm="129">
-        <f ca="1"/>
-        <v>45366</v>
-      </c>
-      <c r="B53" vm="318">
-        <f ca="1"/>
-        <v>294.55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" vm="131">
-        <f ca="1"/>
-        <v>45369</v>
-      </c>
-      <c r="B54" vm="319">
-        <f ca="1"/>
-        <v>292.55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" vm="133">
-        <f ca="1"/>
-        <v>45370</v>
-      </c>
-      <c r="B55" vm="320">
-        <f ca="1"/>
-        <v>289.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" vm="135">
-        <f ca="1"/>
-        <v>45371</v>
-      </c>
-      <c r="B56" vm="321">
-        <f ca="1"/>
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" vm="137">
-        <f ca="1"/>
-        <v>45372</v>
-      </c>
-      <c r="B57" vm="322">
-        <f ca="1"/>
-        <v>292.85000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" vm="139">
-        <f ca="1"/>
-        <v>45373</v>
-      </c>
-      <c r="B58" vm="323">
-        <f ca="1"/>
-        <v>290.64999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" vm="141">
-        <f ca="1"/>
-        <v>45376</v>
-      </c>
-      <c r="B59" vm="321">
-        <f ca="1"/>
-        <v>291.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" vm="143">
-        <f ca="1"/>
-        <v>45377</v>
-      </c>
-      <c r="B60" vm="324">
-        <f ca="1"/>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" vm="145">
-        <f ca="1"/>
-        <v>45378</v>
-      </c>
-      <c r="B61" vm="325">
-        <f ca="1"/>
-        <v>299.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" vm="147">
-        <f ca="1"/>
-        <v>45379</v>
-      </c>
-      <c r="B62" vm="326">
-        <f ca="1"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" vm="149">
-        <f ca="1"/>
-        <v>45380</v>
-      </c>
-      <c r="B63" vm="326">
-        <f ca="1"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" vm="151">
-        <f ca="1"/>
-        <v>45383</v>
-      </c>
-      <c r="B64" vm="327">
-        <f ca="1"/>
-        <v>301.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="153">
-        <f ca="1"/>
-        <v>45384</v>
-      </c>
-      <c r="B65" vm="328">
-        <f ca="1"/>
-        <v>299.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="155">
-        <f ca="1"/>
-        <v>45385</v>
-      </c>
-      <c r="B66" vm="329">
-        <f ca="1"/>
-        <v>302.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" vm="157">
-        <f ca="1"/>
-        <v>45386</v>
-      </c>
-      <c r="B67" vm="327">
-        <f ca="1"/>
-        <v>301.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" vm="159">
-        <f ca="1"/>
-        <v>45387</v>
-      </c>
-      <c r="B68" vm="330">
-        <f ca="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" vm="161">
-        <f ca="1"/>
-        <v>45390</v>
-      </c>
-      <c r="B69" vm="331">
-        <f ca="1"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" vm="163">
-        <f ca="1"/>
-        <v>45391</v>
-      </c>
-      <c r="B70" vm="332">
-        <f ca="1"/>
-        <v>301.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" vm="165">
-        <f ca="1"/>
-        <v>45392</v>
-      </c>
-      <c r="B71" vm="333">
-        <f ca="1"/>
-        <v>302.85000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" vm="167">
-        <f ca="1"/>
-        <v>45393</v>
-      </c>
-      <c r="B72" vm="334">
-        <f ca="1"/>
-        <v>304.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" vm="169">
-        <f ca="1"/>
-        <v>45394</v>
-      </c>
-      <c r="B73" vm="334">
-        <f ca="1"/>
-        <v>304.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" vm="171">
-        <f ca="1"/>
-        <v>45397</v>
-      </c>
-      <c r="B74" vm="335">
-        <f ca="1"/>
-        <v>310.39999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" vm="173">
-        <f ca="1"/>
-        <v>45398</v>
-      </c>
-      <c r="B75" vm="336">
-        <f ca="1"/>
-        <v>319.3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" vm="175">
-        <f ca="1"/>
-        <v>45399</v>
-      </c>
-      <c r="B76" vm="337">
-        <f ca="1"/>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" vm="177">
-        <f ca="1"/>
-        <v>45400</v>
-      </c>
-      <c r="B77" vm="338">
-        <f ca="1"/>
-        <v>316.55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" vm="179">
-        <f ca="1"/>
-        <v>45401</v>
-      </c>
-      <c r="B78" vm="339">
-        <f ca="1"/>
-        <v>319.39999999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" vm="181">
-        <f ca="1"/>
-        <v>45404</v>
-      </c>
-      <c r="B79" vm="340">
-        <f ca="1"/>
-        <v>319.35000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" vm="183">
-        <f ca="1"/>
-        <v>45405</v>
-      </c>
-      <c r="B80" vm="341">
-        <f ca="1"/>
-        <v>316.89999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" vm="185">
-        <f ca="1"/>
-        <v>45406</v>
-      </c>
-      <c r="B81" vm="342">
-        <f ca="1"/>
-        <v>307.60000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" vm="187">
-        <f ca="1"/>
-        <v>45407</v>
-      </c>
-      <c r="B82" vm="343">
-        <f ca="1"/>
-        <v>308.45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" vm="189">
-        <f ca="1"/>
-        <v>45408</v>
-      </c>
-      <c r="B83" vm="344">
-        <f ca="1"/>
-        <v>310.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" vm="191">
-        <f ca="1"/>
-        <v>45409</v>
-      </c>
-      <c r="B84" vm="345">
-        <f ca="1"/>
-        <v>308.85000000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" vm="193">
-        <f ca="1"/>
-        <v>45411</v>
-      </c>
-      <c r="B85" vm="346">
-        <f ca="1"/>
-        <v>310.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" vm="195">
-        <f ca="1"/>
-        <v>45412</v>
-      </c>
-      <c r="B86" vm="347">
-        <f ca="1"/>
-        <v>310.45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" vm="197">
-        <f ca="1"/>
-        <v>45414</v>
-      </c>
-      <c r="B87" vm="348">
-        <f ca="1"/>
-        <v>310.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" vm="199">
-        <f ca="1"/>
-        <v>45415</v>
-      </c>
-      <c r="B88" vm="349">
-        <f ca="1"/>
-        <v>309.2</v>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" vm="204">
+        <f ca="1"/>
+        <v>45418</v>
+      </c>
+      <c r="B89" vm="283">
+        <f ca="1"/>
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" vm="206">
+        <f ca="1"/>
+        <v>45419</v>
+      </c>
+      <c r="B90" vm="284">
+        <f ca="1"/>
+        <v>4310</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Расчет.xlsx
+++ b/Docs/Расчет.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\DBs\GitHub\TRPO-Project-Team1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E9FF0-C3A9-41ED-97E6-F7179BC3EF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDB14A-247D-4B58-AC79-43F83F19BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
   </bookViews>
@@ -5314,8 +5314,8 @@
     <v>315.79000000000002</v>
     <v>228.52</v>
     <v>1.3738999999999999</v>
-    <v>2.68</v>
-    <v>8.6950000000000013E-3</v>
+    <v>2.87</v>
+    <v>9.3120000000000008E-3</v>
     <v>RUB</v>
     <v>Sberbank Rossii PAO is a Russia-based company, which is primarily focused on the financial services industry. The Company operates as a commercial bank and provides services to individual and corporate clients. Its offerings for individual clients include deposits, credit cards issuing, money transfers, depositary cells, consumer loans, mortgages, utility payments, online banking, mutual funds, among others. The Company's corporate products portfolio includes corporate loans, asset management, payroll projects, leasing, online banking, cash and settlement services, among others. In addition, the Company offers a wide range of services to financial institutions, such as correspondent accounts, custody services, and interbank lending, among others.</v>
     <v>287866</v>
@@ -5326,7 +5326,7 @@
     <v>311.83</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45420.659722222219</v>
+    <v>45420.706944444442</v>
     <v>0</v>
     <v>308.08</v>
     <v>6965689000000</v>
@@ -5334,11 +5334,11 @@
     <v>Public Joint-Stock Company Sberbank of Russia</v>
     <v>308.41000000000003</v>
     <v>308.22000000000003</v>
-    <v>310.89999999999998</v>
+    <v>311.08999999999997</v>
     <v>22586950000</v>
     <v>SBER</v>
     <v>Public Joint-Stock Company Sberbank of Russia (MISX:SBER)</v>
-    <v>31818570</v>
+    <v>32413470</v>
     <v>23236120</v>
     <v>2002</v>
   </rv>
@@ -5372,8 +5372,8 @@
     <v>5653.2</v>
     <v>1922.2</v>
     <v>0.48899999999999999</v>
-    <v>-31.6</v>
-    <v>-7.254E-3</v>
+    <v>-41.4</v>
+    <v>-9.5040000000000003E-3</v>
     <v>RUB</v>
     <v>Yandex N.V. is an Internet and technology company, and operates Internet search engine. The Company's segments include Search and Portal, E-commerce, Taxi, Classifieds and Experimental businesses. The Company's Search and Portal segment offers a range of services in Russia, Ukraine, Belarus and Kazakhstan, among which are search, location-based, personalized and mobile services, that enable the Company's users to find relevant and objective information to communicate and connect over the Internet, from both their desktops and mobile devices. The Company's search engine offers access to a range of information available online. The Company's Yandex.Market gives retailers a platform to reach customers seeking specific retailer, product or price information. As of December 31, 2016, Yandex.Taxi was operating in 46 cities across Russia, Georgia, Armenia, Kazakhstan, Belarus and Ukraine. The Company's Classifieds business unit includes Auto.ru, Yandex.Realty, Yandex.Jobs and Yandex.Travel.</v>
     <v>25703</v>
@@ -5384,7 +5384,7 @@
     <v>4390</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45420.659722222219</v>
+    <v>45420.70701600625</v>
     <v>5</v>
     <v>4274</v>
     <v>6846475000</v>
@@ -5392,11 +5392,11 @@
     <v>Yandex NV</v>
     <v>4360</v>
     <v>4356</v>
-    <v>4324.3999999999996</v>
+    <v>4314.6000000000004</v>
     <v>361482300</v>
     <v>YNDX</v>
     <v>Yandex NV (MISX:YNDX)</v>
-    <v>571084</v>
+    <v>585130</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -5441,7 +5441,7 @@
     <v>311.55</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45420.659722222219</v>
+    <v>45420.706944444442</v>
     <v>10</v>
     <v>308.2</v>
     <v>616400800000</v>
@@ -5453,7 +5453,7 @@
     <v>1998382000</v>
     <v>MTSS</v>
     <v>Mobile TeleSystems Public Joint Stock Company (MISX:MTSS)</v>
-    <v>2313760</v>
+    <v>2337830</v>
     <v>5077350</v>
     <v>2002</v>
   </rv>
@@ -5485,8 +5485,8 @@
     <v>Finance</v>
     <v>4</v>
     <v>1.4971000000000001</v>
-    <v>-72.5</v>
-    <v>-1.5838000000000001E-2</v>
+    <v>-87.5</v>
+    <v>-1.9115E-2</v>
     <v>RUB</v>
     <v>Ozon Holdings PLC is an electronic commerce platform. The Company is an e-commerce platform in Russia. The Company connects and facilitates transactions between buyers and sellers. The Company also sells products directly to their buyers. The Company provides also two platforms Ozon.ru and Ozon.travel.</v>
     <v>49889</v>
@@ -5497,7 +5497,7 @@
     <v>4658</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45420.659722222219</v>
+    <v>45420.7070560875</v>
     <v>15</v>
     <v>4476</v>
     <v>372517100000</v>
@@ -5505,11 +5505,11 @@
     <v>Ozon Holdings PLC</v>
     <v>4585</v>
     <v>4577.5</v>
-    <v>4505</v>
+    <v>4490</v>
     <v>81782030</v>
     <v>OZON</v>
     <v>Ozon Holdings PLC (MISX:OZON)</v>
-    <v>1380583</v>
+    <v>1418637</v>
     <v>451610</v>
     <v>1999</v>
   </rv>
@@ -10280,8 +10280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6B9AD-6B93-4006-9A0A-710E3C14A242}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12731,10 +12731,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05FAEE2-57DA-4EA7-9DF5-1B463130AD7D}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="1" sqref="I1:J1 M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12848,12 +12848,12 @@
         <v>11.299999999999955</v>
       </c>
       <c r="M2" s="15">
-        <f>J2-F2*I2</f>
+        <f>J2-F2*I2+K2</f>
         <v>10.850000000000136</v>
       </c>
       <c r="N2" s="16">
-        <f>IFERROR(L2/(F2*D2),0)</f>
-        <v>8.2590264581201261E-3</v>
+        <f>IFERROR(((L2+M2)/(F2*D2+J2)),0)</f>
+        <v>8.0626080626080964E-3</v>
       </c>
       <c r="O2" s="16"/>
     </row>
@@ -12903,11 +12903,11 @@
         <v>220.99999999999909</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M9" si="2">J3-F3*I3</f>
+        <f t="shared" ref="M3:M9" si="2">J3-F3*I3+K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="16">
-        <f t="shared" ref="N3:N9" si="3">IFERROR(L3/(F3*D3),0)</f>
+        <f t="shared" ref="N3:N9" si="3">IFERROR(((L3+M3)/(F3*D3+J3)),0)</f>
         <v>1.7195767195767125E-2</v>
       </c>
       <c r="O3" s="16"/>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="N6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.7455483237137026E-3</v>
       </c>
       <c r="O6" s="16"/>
     </row>
@@ -13320,13 +13320,13 @@
       <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G14" s="15" cm="1">
-        <f t="array" ref="G14">SUM(F2:F9*D2:D9)</f>
-        <v>38827.339999999997</v>
-      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G16" s="15"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Расчет.xlsx
+++ b/Docs/Расчет.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\DBs\GitHub\TRPO-Project-Team1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBDB14A-247D-4B58-AC79-43F83F19BA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EB46E-5A54-47B7-9426-237254B9C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
   </bookViews>
   <sheets>
     <sheet name="НСИ" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="434">
+  <futureMetadata name="XLRICHVALUE" count="439">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -3096,6 +3096,41 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="441"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="442"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="443"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="444"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="445"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="446"/>
         </ext>
       </extLst>
     </bk>
@@ -3105,7 +3140,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="434">
+  <valueMetadata count="439">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -4407,6 +4442,21 @@
     </bk>
     <bk>
       <rc t="2" v="433"/>
+    </bk>
+    <bk>
+      <rc t="2" v="434"/>
+    </bk>
+    <bk>
+      <rc t="2" v="435"/>
+    </bk>
+    <bk>
+      <rc t="2" v="436"/>
+    </bk>
+    <bk>
+      <rc t="2" v="437"/>
+    </bk>
+    <bk>
+      <rc t="2" v="438"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -4452,9 +4502,6 @@
   </si>
   <si>
     <t>Лист</t>
-  </si>
-  <si>
-    <t>Комментарий</t>
   </si>
   <si>
     <t>Комментарий (что рассчитвает)</t>
@@ -4608,6 +4655,9 @@
   </si>
   <si>
     <t>Общая сумма активов</t>
+  </si>
+  <si>
+    <t>Операция</t>
   </si>
 </sst>
 </file>
@@ -4840,7 +4890,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
-  <a r="1" c="88">
+  <a r="1" c="89">
     <v t="i">0</v>
     <v t="i">1</v>
     <v t="i">2</v>
@@ -4929,8 +4979,9 @@
     <v t="i">121</v>
     <v t="i">124</v>
     <v t="i">125</v>
+    <v t="i">126</v>
   </a>
-  <a r="1" c="88">
+  <a r="1" c="89">
     <v>273.64</v>
     <v>274.04000000000002</v>
     <v>273.45999999999998</v>
@@ -5019,8 +5070,9 @@
     <v>307.83999999999997</v>
     <v>306.97000000000003</v>
     <v>308.39</v>
+    <v>310.89999999999998</v>
   </a>
-  <a r="1" c="88">
+  <a r="1" c="89">
     <v>2570.4</v>
     <v>2568.6</v>
     <v>2573.8000000000002</v>
@@ -5109,8 +5161,9 @@
     <v>4209.2</v>
     <v>4267</v>
     <v>4310</v>
+    <v>4324.3999999999996</v>
   </a>
-  <a r="1" c="88">
+  <a r="1" c="89">
     <v>2829</v>
     <v>2816</v>
     <v>2800</v>
@@ -5199,8 +5252,9 @@
     <v>4350</v>
     <v>4448</v>
     <v>4555</v>
+    <v>4505</v>
   </a>
-  <a r="1" c="88">
+  <a r="1" c="89">
     <v>249.55</v>
     <v>250.95</v>
     <v>250.9</v>
@@ -5289,12 +5343,13 @@
     <v>309.2</v>
     <v>309</v>
     <v>308.45</v>
+    <v>310.55</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="446">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="451">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aly352&amp;q=MISX%3aSBER&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -5312,10 +5367,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>315.79000000000002</v>
-    <v>228.52</v>
-    <v>1.3738999999999999</v>
-    <v>2.87</v>
-    <v>9.3120000000000008E-3</v>
+    <v>228.75</v>
+    <v>1.3733</v>
+    <v>1.92</v>
+    <v>6.169E-3</v>
     <v>RUB</v>
     <v>Sberbank Rossii PAO is a Russia-based company, which is primarily focused on the financial services industry. The Company operates as a commercial bank and provides services to individual and corporate clients. Its offerings for individual clients include deposits, credit cards issuing, money transfers, depositary cells, consumer loans, mortgages, utility payments, online banking, mutual funds, among others. The Company's corporate products portfolio includes corporate loans, asset management, payroll projects, leasing, online banking, cash and settlement services, among others. In addition, the Company offers a wide range of services to financial institutions, such as correspondent accounts, custody services, and interbank lending, among others.</v>
     <v>287866</v>
@@ -5323,23 +5378,23 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>ul. Vavilova, dom 19, MOSCOW, MOSCOW, 117997 RU</v>
-    <v>311.83</v>
+    <v>313.47000000000003</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45420.706944444442</v>
+    <v>45422.599385948437</v>
     <v>0</v>
-    <v>308.08</v>
-    <v>6965689000000</v>
+    <v>311.31</v>
+    <v>7022122000000</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
     <v>Public Joint-Stock Company Sberbank of Russia</v>
-    <v>308.41000000000003</v>
-    <v>308.22000000000003</v>
-    <v>311.08999999999997</v>
+    <v>311.5</v>
+    <v>311.20999999999998</v>
+    <v>313.13</v>
     <v>22586950000</v>
     <v>SBER</v>
     <v>Public Joint-Stock Company Sberbank of Russia (MISX:SBER)</v>
-    <v>32413470</v>
-    <v>23236120</v>
+    <v>13273920</v>
+    <v>14876040</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -5350,7 +5405,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>299.76</fb>
+    <fb>300.55</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5371,9 +5426,8 @@
     <v>4</v>
     <v>5653.2</v>
     <v>1922.2</v>
-    <v>0.48899999999999999</v>
-    <v>-41.4</v>
-    <v>-9.5040000000000003E-3</v>
+    <v>39</v>
+    <v>9.0489999999999998E-3</v>
     <v>RUB</v>
     <v>Yandex N.V. is an Internet and technology company, and operates Internet search engine. The Company's segments include Search and Portal, E-commerce, Taxi, Classifieds and Experimental businesses. The Company's Search and Portal segment offers a range of services in Russia, Ukraine, Belarus and Kazakhstan, among which are search, location-based, personalized and mobile services, that enable the Company's users to find relevant and objective information to communicate and connect over the Internet, from both their desktops and mobile devices. The Company's search engine offers access to a range of information available online. The Company's Yandex.Market gives retailers a platform to reach customers seeking specific retailer, product or price information. As of December 31, 2016, Yandex.Taxi was operating in 46 cities across Russia, Georgia, Armenia, Kazakhstan, Belarus and Ukraine. The Company's Classifieds business unit includes Auto.ru, Yandex.Realty, Yandex.Jobs and Yandex.Travel.</v>
     <v>25703</v>
@@ -5381,22 +5435,22 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Schiphol Boulevard 165, SCHIPHOL, NOORD-HOLLAND, 1118 BG NL</v>
-    <v>4390</v>
+    <v>4358.6000000000004</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45420.70701600625</v>
-    <v>5</v>
-    <v>4274</v>
+    <v>45422.599228587504</v>
+    <v>5</v>
+    <v>4301.2</v>
     <v>6846475000</v>
     <v>Yandex NV</v>
     <v>Yandex NV</v>
-    <v>4360</v>
-    <v>4356</v>
-    <v>4314.6000000000004</v>
+    <v>4319.3999999999996</v>
+    <v>4310</v>
+    <v>4349</v>
     <v>361482300</v>
     <v>YNDX</v>
     <v>Yandex NV (MISX:YNDX)</v>
-    <v>585130</v>
+    <v>128949</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -5407,7 +5461,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3978</fb>
+    <fb>3889.6</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5428,9 +5482,9 @@
     <v>4</v>
     <v>348.9</v>
     <v>245.85</v>
-    <v>0.60580000000000001</v>
-    <v>2.1</v>
-    <v>6.8079999999999998E-3</v>
+    <v>0.60540000000000005</v>
+    <v>1.3</v>
+    <v>4.1840000000000002E-3</v>
     <v>RUB</v>
     <v>Mobil'nye Telesistemy PAO is a Russia-based provider of telecommunications services. The Company provides mobile and fixed-line voice and data telecommunications services, including data transfer, broadband, pay-television (pay-TV) and various value-added services, as well as selling equipment and accessories. The Company operates through segments, which include Russia convergent, Moscow fixed line and Ukraine. Its Russia Convergent segment includes mobile and fixed-line operations, which encompasses services rendered to customers across regions of Russia, including voice and data services, transmission, broadband, pay-TV and other value-added services. Its Moscow fixed-line segment includes fixed-line operations carried out in Moscow by the Company's subsidiary MGTS. Its Ukraine segment includes mobile and fixed-line operations carried out across multiple regions of Ukraine. The Company also offers software solutions, such as LiteBox, a cloud-based tool for online cash operations.</v>
     <v>65102</v>
@@ -5438,23 +5492,23 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Ul. Marksistskaya, D. 4, MOSCOW, MOSCOW, 109147 RU</v>
-    <v>311.55</v>
+    <v>312.8</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45420.706944444442</v>
+    <v>45422.599305555559</v>
     <v>10</v>
-    <v>308.2</v>
-    <v>616400800000</v>
+    <v>310.75</v>
+    <v>620597400000</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
     <v>Mobile TeleSystems Public Joint Stock Company</v>
-    <v>308.7</v>
-    <v>308.45</v>
-    <v>310.55</v>
+    <v>310.75</v>
+    <v>310.7</v>
+    <v>312</v>
     <v>1998382000</v>
     <v>MTSS</v>
     <v>Mobile TeleSystems Public Joint Stock Company (MISX:MTSS)</v>
-    <v>2337830</v>
-    <v>5077350</v>
+    <v>712820</v>
+    <v>3150380</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -5465,7 +5519,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>301.2</fb>
+    <fb>299.8</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5484,9 +5538,9 @@
     <v>9</v>
     <v>Finance</v>
     <v>4</v>
-    <v>1.4971000000000001</v>
-    <v>-87.5</v>
-    <v>-1.9115E-2</v>
+    <v>1.4976</v>
+    <v>-44.5</v>
+    <v>-9.8230000000000001E-3</v>
     <v>RUB</v>
     <v>Ozon Holdings PLC is an electronic commerce platform. The Company is an e-commerce platform in Russia. The Company connects and facilitates transactions between buyers and sellers. The Company also sells products directly to their buyers. The Company provides also two platforms Ozon.ru and Ozon.travel.</v>
     <v>49889</v>
@@ -5494,23 +5548,23 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Arch. Makariou III, 2-4, Capital Center, 9th floor, NICOSIA, 1065 CY</v>
-    <v>4658</v>
+    <v>4530</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45420.7070560875</v>
+    <v>45422.599305555559</v>
     <v>15</v>
-    <v>4476</v>
-    <v>372517100000</v>
+    <v>4428</v>
+    <v>368428000000</v>
     <v>Ozon Holdings PLC</v>
     <v>Ozon Holdings PLC</v>
-    <v>4585</v>
-    <v>4577.5</v>
-    <v>4490</v>
+    <v>4526</v>
+    <v>4530</v>
+    <v>4485.5</v>
     <v>81782030</v>
     <v>OZON</v>
     <v>Ozon Holdings PLC (MISX:OZON)</v>
-    <v>1418637</v>
-    <v>451610</v>
+    <v>413919</v>
+    <v>465570</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -5521,7 +5575,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3871</fb>
+    <fb>3839.5</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6097,14 +6151,14 @@
     <v>10</v>
   </rv>
   <rv s="3">
+    <fb>299.76</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>45384</fb>
     <v>10</v>
   </rv>
   <rv s="3">
-    <fb>300.55</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>45385</fb>
     <v>10</v>
   </rv>
@@ -6305,6 +6359,14 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>45420</fb>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <fb>310.89999999999998</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2625.4</fb>
     <v>5</v>
   </rv>
@@ -6513,7 +6575,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3889.6</fb>
+    <fb>3978</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6613,6 +6675,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>4324.3999999999996</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>266.10000000000002</fb>
     <v>5</v>
   </rv>
@@ -6813,7 +6879,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>299.8</fb>
+    <fb>301.2</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6905,6 +6971,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>310.55</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2943</fb>
     <v>5</v>
   </rv>
@@ -7113,7 +7183,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3839.5</fb>
+    <fb>3871</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -7210,6 +7280,10 @@
   </rv>
   <rv s="3">
     <fb>4555</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4505</fb>
     <v>5</v>
   </rv>
   <rv s="6">
@@ -7217,10 +7291,10 @@
     <v>aly352</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45420</v>
+    <v>45422</v>
     <v>0</v>
     <v>1</v>
-    <v>638506368000000000,638507789860102950,0</v>
+    <v>638507232000000000,638509461111248682,0</v>
     <v>0</v>
     <v>aly352</v>
     <v>MISX:SBER</v>
@@ -7231,10 +7305,10 @@
     <v>aly8fr</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45420</v>
+    <v>45422</v>
     <v>0</v>
     <v>1</v>
-    <v>638506368000000000,638507789860087782,0</v>
+    <v>638507232000000000,638509461111260931,0</v>
     <v>0</v>
     <v>aly8fr</v>
     <v>MISX:YNDX</v>
@@ -7245,10 +7319,10 @@
     <v>bwvzww</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45420</v>
+    <v>45422</v>
     <v>0</v>
     <v>1</v>
-    <v>638506368000000000,638507789860094691,0</v>
+    <v>638507232000000000,638509461111275831,0</v>
     <v>0</v>
     <v>bwvzww</v>
     <v>MISX:OZON</v>
@@ -7259,10 +7333,10 @@
     <v>alxwtc</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45420</v>
+    <v>45422</v>
     <v>0</v>
     <v>1</v>
-    <v>638506368000000000,638507789860083022,0</v>
+    <v>638507232000000000,638509461111268598,0</v>
     <v>0</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -7340,7 +7414,6 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
@@ -7472,7 +7545,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="40">
+    <a count="39">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -7499,7 +7572,6 @@
       <v t="s">52 week low</v>
       <v t="s">Volume</v>
       <v t="s">Market cap</v>
-      <v t="s">Beta</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -7610,7 +7682,6 @@
     </spb>
     <spb s="6">
       <v>1</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -7713,7 +7784,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
     <k n="Open" t="i"/>
@@ -8159,15 +8229,15 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -8176,10 +8246,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -8192,7 +8262,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926C765-3D1F-484A-A987-1141447310F5}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8206,7 +8276,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
         <v>MISX:MTSS</v>
       </c>
       <c r="B1" t="str">
@@ -8299,7 +8369,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="285">
+      <c r="B10" vm="288">
         <f ca="1"/>
         <v>266.10000000000002</v>
       </c>
@@ -8309,7 +8379,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="286">
+      <c r="B11" vm="289">
         <f ca="1"/>
         <v>267.55</v>
       </c>
@@ -8319,7 +8389,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="287">
+      <c r="B12" vm="290">
         <f ca="1"/>
         <v>266</v>
       </c>
@@ -8329,7 +8399,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="288">
+      <c r="B13" vm="291">
         <f ca="1"/>
         <v>264.25</v>
       </c>
@@ -8339,7 +8409,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="289">
+      <c r="B14" vm="292">
         <f ca="1"/>
         <v>264.89999999999998</v>
       </c>
@@ -8349,7 +8419,7 @@
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="290">
+      <c r="B15" vm="293">
         <f ca="1"/>
         <v>263.05</v>
       </c>
@@ -8359,7 +8429,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="291">
+      <c r="B16" vm="294">
         <f ca="1"/>
         <v>263.35000000000002</v>
       </c>
@@ -8369,7 +8439,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="292">
+      <c r="B17" vm="295">
         <f ca="1"/>
         <v>264.5</v>
       </c>
@@ -8379,7 +8449,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="293">
+      <c r="B18" vm="296">
         <f ca="1"/>
         <v>267.64999999999998</v>
       </c>
@@ -8389,7 +8459,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="294">
+      <c r="B19" vm="297">
         <f ca="1"/>
         <v>269.7</v>
       </c>
@@ -8399,7 +8469,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="295">
+      <c r="B20" vm="298">
         <f ca="1"/>
         <v>270.75</v>
       </c>
@@ -8409,7 +8479,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="296">
+      <c r="B21" vm="299">
         <f ca="1"/>
         <v>271.8</v>
       </c>
@@ -8419,7 +8489,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="297">
+      <c r="B22" vm="300">
         <f ca="1"/>
         <v>272.7</v>
       </c>
@@ -8429,7 +8499,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="298">
+      <c r="B23" vm="301">
         <f ca="1"/>
         <v>274.35000000000002</v>
       </c>
@@ -8439,7 +8509,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="299">
+      <c r="B24" vm="302">
         <f ca="1"/>
         <v>275</v>
       </c>
@@ -8449,7 +8519,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="300">
+      <c r="B25" vm="303">
         <f ca="1"/>
         <v>276.05</v>
       </c>
@@ -8459,7 +8529,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="301">
+      <c r="B26" vm="304">
         <f ca="1"/>
         <v>278.60000000000002</v>
       </c>
@@ -8469,7 +8539,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="302">
+      <c r="B27" vm="305">
         <f ca="1"/>
         <v>278.39999999999998</v>
       </c>
@@ -8479,7 +8549,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="303">
+      <c r="B28" vm="306">
         <f ca="1"/>
         <v>277.5</v>
       </c>
@@ -8489,7 +8559,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="304">
+      <c r="B29" vm="307">
         <f ca="1"/>
         <v>276.85000000000002</v>
       </c>
@@ -8499,7 +8569,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="305">
+      <c r="B30" vm="308">
         <f ca="1"/>
         <v>277.2</v>
       </c>
@@ -8509,7 +8579,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="306">
+      <c r="B31" vm="309">
         <f ca="1"/>
         <v>277.35000000000002</v>
       </c>
@@ -8519,7 +8589,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="307">
+      <c r="B32" vm="310">
         <f ca="1"/>
         <v>281</v>
       </c>
@@ -8529,7 +8599,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="308">
+      <c r="B33" vm="311">
         <f ca="1"/>
         <v>283</v>
       </c>
@@ -8539,7 +8609,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="309">
+      <c r="B34" vm="312">
         <f ca="1"/>
         <v>281.75</v>
       </c>
@@ -8549,7 +8619,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="310">
+      <c r="B35" vm="313">
         <f ca="1"/>
         <v>281.89999999999998</v>
       </c>
@@ -8559,7 +8629,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="311">
+      <c r="B36" vm="314">
         <f ca="1"/>
         <v>279.7</v>
       </c>
@@ -8569,7 +8639,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="312">
+      <c r="B37" vm="315">
         <f ca="1"/>
         <v>277.64999999999998</v>
       </c>
@@ -8579,7 +8649,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="313">
+      <c r="B38" vm="316">
         <f ca="1"/>
         <v>276.25</v>
       </c>
@@ -8589,7 +8659,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="314">
+      <c r="B39" vm="317">
         <f ca="1"/>
         <v>278.10000000000002</v>
       </c>
@@ -8599,7 +8669,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="309">
+      <c r="B40" vm="312">
         <f ca="1"/>
         <v>281.75</v>
       </c>
@@ -8609,7 +8679,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="315">
+      <c r="B41" vm="318">
         <f ca="1"/>
         <v>282.45</v>
       </c>
@@ -8619,7 +8689,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="316">
+      <c r="B42" vm="319">
         <f ca="1"/>
         <v>284.60000000000002</v>
       </c>
@@ -8629,7 +8699,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="317">
+      <c r="B43" vm="320">
         <f ca="1"/>
         <v>291</v>
       </c>
@@ -8639,7 +8709,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="318">
+      <c r="B44" vm="321">
         <f ca="1"/>
         <v>289.05</v>
       </c>
@@ -8649,7 +8719,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="319">
+      <c r="B45" vm="322">
         <f ca="1"/>
         <v>290.85000000000002</v>
       </c>
@@ -8659,7 +8729,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="320">
+      <c r="B46" vm="323">
         <f ca="1"/>
         <v>290.60000000000002</v>
       </c>
@@ -8679,7 +8749,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="321">
+      <c r="B48" vm="324">
         <f ca="1"/>
         <v>289.75</v>
       </c>
@@ -8689,7 +8759,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="322">
+      <c r="B49" vm="325">
         <f ca="1"/>
         <v>290.5</v>
       </c>
@@ -8699,7 +8769,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="323">
+      <c r="B50" vm="326">
         <f ca="1"/>
         <v>294.10000000000002</v>
       </c>
@@ -8709,7 +8779,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="324">
+      <c r="B51" vm="327">
         <f ca="1"/>
         <v>294.89999999999998</v>
       </c>
@@ -8719,7 +8789,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="325">
+      <c r="B52" vm="328">
         <f ca="1"/>
         <v>292</v>
       </c>
@@ -8729,7 +8799,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="326">
+      <c r="B53" vm="329">
         <f ca="1"/>
         <v>294.55</v>
       </c>
@@ -8739,7 +8809,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="327">
+      <c r="B54" vm="330">
         <f ca="1"/>
         <v>292.55</v>
       </c>
@@ -8749,7 +8819,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="328">
+      <c r="B55" vm="331">
         <f ca="1"/>
         <v>289.2</v>
       </c>
@@ -8759,7 +8829,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="329">
+      <c r="B56" vm="332">
         <f ca="1"/>
         <v>291.5</v>
       </c>
@@ -8769,7 +8839,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="330">
+      <c r="B57" vm="333">
         <f ca="1"/>
         <v>292.85000000000002</v>
       </c>
@@ -8779,7 +8849,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="331">
+      <c r="B58" vm="334">
         <f ca="1"/>
         <v>290.64999999999998</v>
       </c>
@@ -8789,7 +8859,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="329">
+      <c r="B59" vm="332">
         <f ca="1"/>
         <v>291.5</v>
       </c>
@@ -8799,7 +8869,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="332">
+      <c r="B60" vm="335">
         <f ca="1"/>
         <v>296</v>
       </c>
@@ -8809,7 +8879,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="333">
+      <c r="B61" vm="336">
         <f ca="1"/>
         <v>299.7</v>
       </c>
@@ -8819,7 +8889,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="334">
+      <c r="B62" vm="337">
         <f ca="1"/>
         <v>298</v>
       </c>
@@ -8829,7 +8899,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="334">
+      <c r="B63" vm="337">
         <f ca="1"/>
         <v>298</v>
       </c>
@@ -8839,17 +8909,17 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="9">
+      <c r="B64" vm="338">
         <f ca="1"/>
         <v>301.2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="157">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="335">
+      <c r="B65" vm="9">
         <f ca="1"/>
         <v>299.8</v>
       </c>
@@ -8859,7 +8929,7 @@
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="336">
+      <c r="B66" vm="339">
         <f ca="1"/>
         <v>302.5</v>
       </c>
@@ -8869,7 +8939,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="9">
+      <c r="B67" vm="338">
         <f ca="1"/>
         <v>301.2</v>
       </c>
@@ -8879,7 +8949,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="337">
+      <c r="B68" vm="340">
         <f ca="1"/>
         <v>300</v>
       </c>
@@ -8889,7 +8959,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="338">
+      <c r="B69" vm="341">
         <f ca="1"/>
         <v>304</v>
       </c>
@@ -8899,7 +8969,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="339">
+      <c r="B70" vm="342">
         <f ca="1"/>
         <v>301.7</v>
       </c>
@@ -8909,7 +8979,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="340">
+      <c r="B71" vm="343">
         <f ca="1"/>
         <v>302.85000000000002</v>
       </c>
@@ -8919,7 +8989,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="341">
+      <c r="B72" vm="344">
         <f ca="1"/>
         <v>304.5</v>
       </c>
@@ -8929,7 +8999,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="341">
+      <c r="B73" vm="344">
         <f ca="1"/>
         <v>304.5</v>
       </c>
@@ -8939,7 +9009,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="342">
+      <c r="B74" vm="345">
         <f ca="1"/>
         <v>310.39999999999998</v>
       </c>
@@ -8949,7 +9019,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="343">
+      <c r="B75" vm="346">
         <f ca="1"/>
         <v>319.3</v>
       </c>
@@ -8959,7 +9029,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="344">
+      <c r="B76" vm="347">
         <f ca="1"/>
         <v>317</v>
       </c>
@@ -8969,7 +9039,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="345">
+      <c r="B77" vm="348">
         <f ca="1"/>
         <v>316.55</v>
       </c>
@@ -8979,7 +9049,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="346">
+      <c r="B78" vm="349">
         <f ca="1"/>
         <v>319.39999999999998</v>
       </c>
@@ -8989,7 +9059,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="347">
+      <c r="B79" vm="350">
         <f ca="1"/>
         <v>319.35000000000002</v>
       </c>
@@ -8999,7 +9069,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="348">
+      <c r="B80" vm="351">
         <f ca="1"/>
         <v>316.89999999999998</v>
       </c>
@@ -9009,7 +9079,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="349">
+      <c r="B81" vm="352">
         <f ca="1"/>
         <v>307.60000000000002</v>
       </c>
@@ -9019,7 +9089,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="350">
+      <c r="B82" vm="353">
         <f ca="1"/>
         <v>308.45</v>
       </c>
@@ -9029,7 +9099,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="351">
+      <c r="B83" vm="354">
         <f ca="1"/>
         <v>310.5</v>
       </c>
@@ -9039,7 +9109,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="352">
+      <c r="B84" vm="355">
         <f ca="1"/>
         <v>308.85000000000002</v>
       </c>
@@ -9049,7 +9119,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="353">
+      <c r="B85" vm="356">
         <f ca="1"/>
         <v>310.8</v>
       </c>
@@ -9059,7 +9129,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="354">
+      <c r="B86" vm="357">
         <f ca="1"/>
         <v>310.45</v>
       </c>
@@ -9069,7 +9139,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="355">
+      <c r="B87" vm="358">
         <f ca="1"/>
         <v>310.2</v>
       </c>
@@ -9079,7 +9149,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="356">
+      <c r="B88" vm="359">
         <f ca="1"/>
         <v>309.2</v>
       </c>
@@ -9089,7 +9159,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="357">
+      <c r="B89" vm="360">
         <f ca="1"/>
         <v>309</v>
       </c>
@@ -9099,9 +9169,19 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="350">
+      <c r="B90" vm="353">
         <f ca="1"/>
         <v>308.45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" vm="208">
+        <f ca="1"/>
+        <v>45420</v>
+      </c>
+      <c r="B91" vm="361">
+        <f ca="1"/>
+        <v>310.55</v>
       </c>
     </row>
   </sheetData>
@@ -9111,7 +9191,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148E147-ED61-E142-951B-E021769BC110}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -9125,7 +9205,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
         <v>MISX:OZON</v>
       </c>
       <c r="B1" t="str">
@@ -9218,7 +9298,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="358">
+      <c r="B10" vm="362">
         <f ca="1"/>
         <v>2943</v>
       </c>
@@ -9228,7 +9308,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="359">
+      <c r="B11" vm="363">
         <f ca="1"/>
         <v>3010</v>
       </c>
@@ -9238,7 +9318,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="360">
+      <c r="B12" vm="364">
         <f ca="1"/>
         <v>2954.5</v>
       </c>
@@ -9248,7 +9328,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="361">
+      <c r="B13" vm="365">
         <f ca="1"/>
         <v>2901.5</v>
       </c>
@@ -9258,7 +9338,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="362">
+      <c r="B14" vm="366">
         <f ca="1"/>
         <v>2853</v>
       </c>
@@ -9268,7 +9348,7 @@
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="363">
+      <c r="B15" vm="367">
         <f ca="1"/>
         <v>2826</v>
       </c>
@@ -9278,7 +9358,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="364">
+      <c r="B16" vm="368">
         <f ca="1"/>
         <v>2837</v>
       </c>
@@ -9288,7 +9368,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="365">
+      <c r="B17" vm="369">
         <f ca="1"/>
         <v>2797</v>
       </c>
@@ -9298,7 +9378,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="366">
+      <c r="B18" vm="370">
         <f ca="1"/>
         <v>2805</v>
       </c>
@@ -9308,7 +9388,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="367">
+      <c r="B19" vm="371">
         <f ca="1"/>
         <v>2768</v>
       </c>
@@ -9318,7 +9398,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="368">
+      <c r="B20" vm="372">
         <f ca="1"/>
         <v>2835</v>
       </c>
@@ -9328,7 +9408,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="369">
+      <c r="B21" vm="373">
         <f ca="1"/>
         <v>2877</v>
       </c>
@@ -9338,7 +9418,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="370">
+      <c r="B22" vm="374">
         <f ca="1"/>
         <v>2908.5</v>
       </c>
@@ -9348,7 +9428,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="371">
+      <c r="B23" vm="375">
         <f ca="1"/>
         <v>2911.5</v>
       </c>
@@ -9358,7 +9438,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="372">
+      <c r="B24" vm="376">
         <f ca="1"/>
         <v>2910</v>
       </c>
@@ -9368,7 +9448,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="373">
+      <c r="B25" vm="377">
         <f ca="1"/>
         <v>2885.5</v>
       </c>
@@ -9378,7 +9458,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="374">
+      <c r="B26" vm="378">
         <f ca="1"/>
         <v>2872</v>
       </c>
@@ -9388,7 +9468,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="375">
+      <c r="B27" vm="379">
         <f ca="1"/>
         <v>2865.5</v>
       </c>
@@ -9398,7 +9478,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="376">
+      <c r="B28" vm="380">
         <f ca="1"/>
         <v>2875.5</v>
       </c>
@@ -9408,7 +9488,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="377">
+      <c r="B29" vm="381">
         <f ca="1"/>
         <v>2820</v>
       </c>
@@ -9418,7 +9498,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="378">
+      <c r="B30" vm="382">
         <f ca="1"/>
         <v>2836</v>
       </c>
@@ -9428,7 +9508,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="379">
+      <c r="B31" vm="383">
         <f ca="1"/>
         <v>2986</v>
       </c>
@@ -9438,7 +9518,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="380">
+      <c r="B32" vm="384">
         <f ca="1"/>
         <v>3042</v>
       </c>
@@ -9448,7 +9528,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="381">
+      <c r="B33" vm="385">
         <f ca="1"/>
         <v>3096</v>
       </c>
@@ -9458,7 +9538,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="382">
+      <c r="B34" vm="386">
         <f ca="1"/>
         <v>3165</v>
       </c>
@@ -9468,7 +9548,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="383">
+      <c r="B35" vm="387">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
@@ -9478,7 +9558,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="384">
+      <c r="B36" vm="388">
         <f ca="1"/>
         <v>3135</v>
       </c>
@@ -9488,7 +9568,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="383">
+      <c r="B37" vm="387">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
@@ -9498,7 +9578,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="385">
+      <c r="B38" vm="389">
         <f ca="1"/>
         <v>2999.5</v>
       </c>
@@ -9508,7 +9588,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="386">
+      <c r="B39" vm="390">
         <f ca="1"/>
         <v>3050</v>
       </c>
@@ -9518,7 +9598,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="387">
+      <c r="B40" vm="391">
         <f ca="1"/>
         <v>3110.5</v>
       </c>
@@ -9528,7 +9608,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="388">
+      <c r="B41" vm="392">
         <f ca="1"/>
         <v>3157</v>
       </c>
@@ -9538,7 +9618,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="389">
+      <c r="B42" vm="393">
         <f ca="1"/>
         <v>3150</v>
       </c>
@@ -9548,7 +9628,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="390">
+      <c r="B43" vm="394">
         <f ca="1"/>
         <v>3174</v>
       </c>
@@ -9558,7 +9638,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="391">
+      <c r="B44" vm="395">
         <f ca="1"/>
         <v>3255</v>
       </c>
@@ -9568,7 +9648,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="392">
+      <c r="B45" vm="396">
         <f ca="1"/>
         <v>3375</v>
       </c>
@@ -9578,7 +9658,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="393">
+      <c r="B46" vm="397">
         <f ca="1"/>
         <v>3328</v>
       </c>
@@ -9588,7 +9668,7 @@
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="394">
+      <c r="B47" vm="398">
         <f ca="1"/>
         <v>3323</v>
       </c>
@@ -9598,7 +9678,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="395">
+      <c r="B48" vm="399">
         <f ca="1"/>
         <v>3302.5</v>
       </c>
@@ -9608,7 +9688,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="396">
+      <c r="B49" vm="400">
         <f ca="1"/>
         <v>3307</v>
       </c>
@@ -9618,7 +9698,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="397">
+      <c r="B50" vm="401">
         <f ca="1"/>
         <v>3286.5</v>
       </c>
@@ -9628,7 +9708,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="398">
+      <c r="B51" vm="402">
         <f ca="1"/>
         <v>3308.5</v>
       </c>
@@ -9638,7 +9718,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="391">
+      <c r="B52" vm="395">
         <f ca="1"/>
         <v>3255</v>
       </c>
@@ -9648,7 +9728,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="399">
+      <c r="B53" vm="403">
         <f ca="1"/>
         <v>3300</v>
       </c>
@@ -9658,7 +9738,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="400">
+      <c r="B54" vm="404">
         <f ca="1"/>
         <v>3350</v>
       </c>
@@ -9668,7 +9748,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="401">
+      <c r="B55" vm="405">
         <f ca="1"/>
         <v>3364.5</v>
       </c>
@@ -9678,7 +9758,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="402">
+      <c r="B56" vm="406">
         <f ca="1"/>
         <v>3493</v>
       </c>
@@ -9688,7 +9768,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="403">
+      <c r="B57" vm="407">
         <f ca="1"/>
         <v>3519</v>
       </c>
@@ -9698,7 +9778,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="404">
+      <c r="B58" vm="408">
         <f ca="1"/>
         <v>3482.5</v>
       </c>
@@ -9708,7 +9788,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="405">
+      <c r="B59" vm="409">
         <f ca="1"/>
         <v>3525</v>
       </c>
@@ -9718,7 +9798,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="406">
+      <c r="B60" vm="410">
         <f ca="1"/>
         <v>3607</v>
       </c>
@@ -9728,7 +9808,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="407">
+      <c r="B61" vm="411">
         <f ca="1"/>
         <v>3692</v>
       </c>
@@ -9738,7 +9818,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="408">
+      <c r="B62" vm="412">
         <f ca="1"/>
         <v>3774.5</v>
       </c>
@@ -9748,7 +9828,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="409">
+      <c r="B63" vm="413">
         <f ca="1"/>
         <v>3770</v>
       </c>
@@ -9758,17 +9838,17 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="12">
+      <c r="B64" vm="414">
         <f ca="1"/>
         <v>3871</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="157">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="410">
+      <c r="B65" vm="12">
         <f ca="1"/>
         <v>3839.5</v>
       </c>
@@ -9778,7 +9858,7 @@
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="411">
+      <c r="B66" vm="415">
         <f ca="1"/>
         <v>3791.5</v>
       </c>
@@ -9788,7 +9868,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="412">
+      <c r="B67" vm="416">
         <f ca="1"/>
         <v>3880</v>
       </c>
@@ -9798,7 +9878,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="413">
+      <c r="B68" vm="417">
         <f ca="1"/>
         <v>3847</v>
       </c>
@@ -9808,7 +9888,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="414">
+      <c r="B69" vm="418">
         <f ca="1"/>
         <v>3852</v>
       </c>
@@ -9818,7 +9898,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="415">
+      <c r="B70" vm="419">
         <f ca="1"/>
         <v>3739.5</v>
       </c>
@@ -9828,7 +9908,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="416">
+      <c r="B71" vm="420">
         <f ca="1"/>
         <v>3779.5</v>
       </c>
@@ -9838,7 +9918,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="409">
+      <c r="B72" vm="413">
         <f ca="1"/>
         <v>3770</v>
       </c>
@@ -9848,7 +9928,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="417">
+      <c r="B73" vm="421">
         <f ca="1"/>
         <v>3704.5</v>
       </c>
@@ -9858,7 +9938,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="418">
+      <c r="B74" vm="422">
         <f ca="1"/>
         <v>3826</v>
       </c>
@@ -9868,7 +9948,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="419">
+      <c r="B75" vm="423">
         <f ca="1"/>
         <v>3822</v>
       </c>
@@ -9878,7 +9958,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="420">
+      <c r="B76" vm="424">
         <f ca="1"/>
         <v>3900</v>
       </c>
@@ -9888,7 +9968,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="421">
+      <c r="B77" vm="425">
         <f ca="1"/>
         <v>3981</v>
       </c>
@@ -9898,7 +9978,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="422">
+      <c r="B78" vm="426">
         <f ca="1"/>
         <v>4078</v>
       </c>
@@ -9908,7 +9988,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="423">
+      <c r="B79" vm="427">
         <f ca="1"/>
         <v>4179.5</v>
       </c>
@@ -9918,7 +9998,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="424">
+      <c r="B80" vm="428">
         <f ca="1"/>
         <v>4077</v>
       </c>
@@ -9928,7 +10008,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="425">
+      <c r="B81" vm="429">
         <f ca="1"/>
         <v>3998</v>
       </c>
@@ -9938,7 +10018,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="426">
+      <c r="B82" vm="430">
         <f ca="1"/>
         <v>4148.5</v>
       </c>
@@ -9948,7 +10028,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="427">
+      <c r="B83" vm="431">
         <f ca="1"/>
         <v>4232</v>
       </c>
@@ -9958,7 +10038,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="428">
+      <c r="B84" vm="432">
         <f ca="1"/>
         <v>4240</v>
       </c>
@@ -9968,7 +10048,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="429">
+      <c r="B85" vm="433">
         <f ca="1"/>
         <v>4356</v>
       </c>
@@ -9978,7 +10058,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="430">
+      <c r="B86" vm="434">
         <f ca="1"/>
         <v>4352</v>
       </c>
@@ -9988,7 +10068,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="431">
+      <c r="B87" vm="435">
         <f ca="1"/>
         <v>4306.5</v>
       </c>
@@ -9998,7 +10078,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="432">
+      <c r="B88" vm="436">
         <f ca="1"/>
         <v>4350</v>
       </c>
@@ -10008,7 +10088,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="433">
+      <c r="B89" vm="437">
         <f ca="1"/>
         <v>4448</v>
       </c>
@@ -10018,9 +10098,19 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="434">
+      <c r="B90" vm="438">
         <f ca="1"/>
         <v>4555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" vm="208">
+        <f ca="1"/>
+        <v>45420</v>
+      </c>
+      <c r="B91" vm="439">
+        <f ca="1"/>
+        <v>4505</v>
       </c>
     </row>
   </sheetData>
@@ -10095,7 +10185,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">B2+COUNTA(SBER!A:A)-1</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -10106,7 +10196,7 @@
       </c>
       <c r="F2" s="2" vm="3">
         <f ca="1">VLOOKUP('Учет акций'!C2,SBER!A:B,2,FALSE)</f>
-        <v>299.76</v>
+        <v>300.55</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">E2*D2</f>
@@ -10114,15 +10204,15 @@
       </c>
       <c r="H2" s="8">
         <f ca="1">F2*D2</f>
-        <v>2997.6</v>
+        <v>3005.5</v>
       </c>
       <c r="J2" s="4">
         <f ca="1">H2-G2</f>
-        <v>261.20000000000027</v>
+        <v>269.10000000000036</v>
       </c>
       <c r="K2" s="6">
         <f ca="1">(J2/G2)</f>
-        <v>9.5453881011548128E-2</v>
+        <v>9.8340885835404332E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -10134,7 +10224,7 @@
       </c>
       <c r="C3" s="3">
         <f ca="1">B2+COUNTA(YNDX!A:A)-1</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -10145,7 +10235,7 @@
       </c>
       <c r="F3" s="2" vm="6">
         <f ca="1">VLOOKUP('Учет акций'!C3,YNDX!A:B,2,FALSE)</f>
-        <v>3978</v>
+        <v>3889.6</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">E3*D3</f>
@@ -10153,15 +10243,15 @@
       </c>
       <c r="H3" s="8">
         <f ca="1">F3*D3</f>
-        <v>19890</v>
+        <v>19448</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">H3-G3</f>
-        <v>7038</v>
+        <v>6596</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">(J3/G3)</f>
-        <v>0.54761904761904767</v>
+        <v>0.51322751322751325</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10173,7 +10263,7 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">B2+COUNTA(MTSS!A:A)-1</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -10184,7 +10274,7 @@
       </c>
       <c r="F4" s="2" vm="9">
         <f ca="1">VLOOKUP('Учет акций'!C4,MTSS!A:B,2,FALSE)</f>
-        <v>301.2</v>
+        <v>299.8</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G5" ca="1" si="0">E4*D4</f>
@@ -10192,15 +10282,15 @@
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H5" ca="1" si="1">F4*D4</f>
-        <v>2108.4</v>
+        <v>2098.6</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J5" ca="1" si="2">H4-G4</f>
-        <v>361.54999999999995</v>
+        <v>351.74999999999977</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K5" ca="1" si="3">(J4/G4)</f>
-        <v>0.20697255059106387</v>
+        <v>0.20136245241434567</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10212,7 +10302,7 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">B2+COUNTA(OZON!A:A)-1</f>
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -10223,7 +10313,7 @@
       </c>
       <c r="F5" s="2" vm="12">
         <f ca="1">VLOOKUP('Учет акций'!C5,OZON!A:B,2,FALSE)</f>
-        <v>3871</v>
+        <v>3839.5</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -10231,15 +10321,15 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>15484</v>
+        <v>15358</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4168</v>
+        <v>4042</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.368328031106398</v>
+        <v>0.35719335454224105</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10250,11 +10340,11 @@
       <c r="H6" s="8"/>
       <c r="J6" s="4">
         <f ca="1">SUM(J2:J5)</f>
-        <v>11828.75</v>
+        <v>11258.85</v>
       </c>
       <c r="K6" s="6">
         <f ca="1">J6/SUM(G2:G5)</f>
-        <v>0.41285284237162428</v>
+        <v>0.39296191265651587</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10280,8 +10370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6B9AD-6B93-4006-9A0A-710E3C14A242}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10300,28 +10390,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -10329,10 +10419,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>45294</v>
@@ -10348,7 +10438,7 @@
         <v>30000</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10356,10 +10446,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>45294</v>
@@ -10375,7 +10465,7 @@
         <v>2736.3999999999996</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10383,10 +10473,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>45294</v>
@@ -10402,7 +10492,7 @@
         <v>12852</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10410,10 +10500,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>45294</v>
@@ -10429,7 +10519,7 @@
         <v>1746.8500000000001</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10437,10 +10527,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>45294</v>
@@ -10456,7 +10546,7 @@
         <v>11316</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10464,10 +10554,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>45294</v>
@@ -10483,7 +10573,7 @@
         <v>1348.75</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10491,10 +10581,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>45295</v>
@@ -10510,7 +10600,7 @@
         <v>2740.4</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -10518,10 +10608,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>45295</v>
@@ -10537,7 +10627,7 @@
         <v>12843</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -10545,10 +10635,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>45295</v>
@@ -10564,7 +10654,7 @@
         <v>1756.6499999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -10572,10 +10662,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
         <v>45295</v>
@@ -10591,7 +10681,7 @@
         <v>11264</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -10599,10 +10689,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>45295</v>
@@ -10618,7 +10708,7 @@
         <v>1348.75</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -10626,10 +10716,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
         <v>45296</v>
@@ -10645,7 +10735,7 @@
         <v>2734.6</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -10653,10 +10743,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>45296</v>
@@ -10672,7 +10762,7 @@
         <v>12869</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -10680,10 +10770,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>45296</v>
@@ -10699,7 +10789,7 @@
         <v>1756.3</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10707,10 +10797,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>45296</v>
@@ -10726,7 +10816,7 @@
         <v>11200</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -10734,10 +10824,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5">
         <v>45296</v>
@@ -10753,7 +10843,7 @@
         <v>1348.75</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -10761,10 +10851,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5">
         <v>45297</v>
@@ -10780,7 +10870,7 @@
         <v>2734.6</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10788,10 +10878,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
         <v>45297</v>
@@ -10807,7 +10897,7 @@
         <v>12869</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -10815,10 +10905,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
         <v>45297</v>
@@ -10834,7 +10924,7 @@
         <v>1756.3</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -10842,10 +10932,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5">
         <v>45297</v>
@@ -10861,7 +10951,7 @@
         <v>11200</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -10869,10 +10959,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5">
         <v>45297</v>
@@ -10888,7 +10978,7 @@
         <v>1348.75</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -10896,10 +10986,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5">
         <v>45298</v>
@@ -10915,7 +11005,7 @@
         <v>2734.6</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -10923,10 +11013,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5">
         <v>45298</v>
@@ -10942,7 +11032,7 @@
         <v>12869</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -10950,10 +11040,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5">
         <v>45298</v>
@@ -10969,7 +11059,7 @@
         <v>1756.3</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -10977,10 +11067,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5">
         <v>45298</v>
@@ -10996,7 +11086,7 @@
         <v>11200</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -11004,10 +11094,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5">
         <v>45298</v>
@@ -11023,7 +11113,7 @@
         <v>1348.75</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -11031,10 +11121,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5">
         <v>45299</v>
@@ -11050,7 +11140,7 @@
         <v>2758.1</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -11058,10 +11148,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5">
         <v>45299</v>
@@ -11077,7 +11167,7 @@
         <v>13025</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -11085,10 +11175,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="5">
         <v>45299</v>
@@ -11104,7 +11194,7 @@
         <v>1772.75</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -11112,10 +11202,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5">
         <v>45299</v>
@@ -11131,7 +11221,7 @@
         <v>11260</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -11139,10 +11229,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5">
         <v>45299</v>
@@ -11158,7 +11248,7 @@
         <v>1379.05</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -11166,10 +11256,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5">
         <v>45299</v>
@@ -11185,7 +11275,7 @@
         <v>2532.5</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" s="15"/>
     </row>
@@ -11194,10 +11284,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="5">
         <v>45299</v>
@@ -11213,7 +11303,7 @@
         <v>195.30000000000018</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" s="15"/>
     </row>
@@ -11222,10 +11312,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5">
         <v>45300</v>
@@ -11241,7 +11331,7 @@
         <v>1380</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -11249,10 +11339,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5">
         <v>45300</v>
@@ -11268,7 +11358,7 @@
         <v>13055</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -11276,10 +11366,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="5">
         <v>45300</v>
@@ -11295,7 +11385,7 @@
         <v>4409.7999999999993</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -11303,10 +11393,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5">
         <v>45300</v>
@@ -11322,7 +11412,7 @@
         <v>11442</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -11330,10 +11420,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="5">
         <v>45300</v>
@@ -11349,7 +11439,7 @@
         <v>10000</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39" s="18"/>
     </row>
@@ -11358,10 +11448,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>45300</v>
@@ -11377,7 +11467,7 @@
         <v>811.25</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="15"/>
       <c r="K40" s="18"/>
@@ -11387,10 +11477,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="5">
         <v>45300</v>
@@ -11406,7 +11496,7 @@
         <v>9384.0499999999993</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" s="18"/>
     </row>
@@ -11415,10 +11505,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5">
         <v>45301</v>
@@ -11434,7 +11524,7 @@
         <v>1378.4</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K42" s="18"/>
     </row>
@@ -11443,10 +11533,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="5">
         <v>45301</v>
@@ -11462,7 +11552,7 @@
         <v>12998</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K43" s="18"/>
     </row>
@@ -11471,10 +11561,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="5">
         <v>45301</v>
@@ -11490,7 +11580,7 @@
         <v>4471</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44" s="18"/>
     </row>
@@ -11499,10 +11589,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="5">
         <v>45301</v>
@@ -11518,7 +11608,7 @@
         <v>11740</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K45" s="18"/>
     </row>
@@ -11527,10 +11617,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="5">
         <v>45301</v>
@@ -11546,7 +11636,7 @@
         <v>815.25</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K46" s="18"/>
     </row>
@@ -11555,10 +11645,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" s="5">
         <v>45301</v>
@@ -11574,7 +11664,7 @@
         <v>1808.08</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="18"/>
     </row>
@@ -11583,10 +11673,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="5">
         <v>45301</v>
@@ -11602,7 +11692,7 @@
         <v>1323.1999999999998</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" s="18"/>
     </row>
@@ -11611,10 +11701,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
         <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
       </c>
       <c r="D49" s="5">
         <v>45301</v>
@@ -11630,7 +11720,7 @@
         <v>5886.06</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="15"/>
       <c r="K49" s="18"/>
@@ -11640,10 +11730,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="5">
         <v>45301</v>
@@ -11659,7 +11749,7 @@
         <v>366.70999999999913</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K50" s="18"/>
     </row>
@@ -11668,10 +11758,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5">
         <v>45302</v>
@@ -11687,7 +11777,7 @@
         <v>1379.5</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K51" s="18"/>
     </row>
@@ -11696,10 +11786,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5">
         <v>45302</v>
@@ -11715,7 +11805,7 @@
         <v>13073</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K52" s="18"/>
     </row>
@@ -11724,10 +11814,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="5">
         <v>45302</v>
@@ -11743,7 +11833,7 @@
         <v>4502.4500000000007</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K53" s="18"/>
     </row>
@@ -11752,10 +11842,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="5">
         <v>45302</v>
@@ -11771,7 +11861,7 @@
         <v>11814</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K54" s="18"/>
     </row>
@@ -11780,10 +11870,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D55" s="5">
         <v>45302</v>
@@ -11799,7 +11889,7 @@
         <v>814.30000000000007</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K55" s="18"/>
     </row>
@@ -11808,10 +11898,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="5">
         <v>45302</v>
@@ -11827,7 +11917,7 @@
         <v>1787.8780000000002</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56" s="18"/>
     </row>
@@ -11836,10 +11926,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="5">
         <v>45302</v>
@@ -11855,7 +11945,7 @@
         <v>1327.8</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K57" s="18"/>
     </row>
@@ -11864,10 +11954,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
         <v>28</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
       </c>
       <c r="D58" s="5">
         <v>45302</v>
@@ -11883,7 +11973,7 @@
         <v>5848.46</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K58" s="18"/>
     </row>
@@ -11892,10 +11982,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="5">
         <v>45302</v>
@@ -11911,7 +12001,7 @@
         <v>1181.0099999999993</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I59" s="15"/>
       <c r="K59" s="18"/>
@@ -11969,10 +12059,10 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="21">
         <v>45017</v>
@@ -11988,16 +12078,16 @@
         <v>4930</v>
       </c>
       <c r="H76" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="18"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="21">
         <v>45017</v>
@@ -12013,16 +12103,16 @@
         <v>541.31999999999994</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K77" s="18"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" s="21">
         <v>45018</v>
@@ -12038,7 +12128,7 @@
         <v>337.60999999999996</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78" s="18"/>
     </row>
@@ -12121,57 +12211,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),2)</f>
@@ -12230,7 +12320,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),2)</f>
@@ -12289,7 +12379,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),2)</f>
@@ -12348,7 +12438,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),2)</f>
@@ -12407,7 +12497,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),2)</f>
@@ -12466,7 +12556,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),2)</f>
@@ -12525,7 +12615,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),2)</f>
@@ -12584,7 +12674,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),2)</f>
@@ -12643,7 +12733,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),2)</f>
@@ -12692,7 +12782,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" ref="F12" si="4">SUM(F2:F9)</f>
@@ -12733,8 +12823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05FAEE2-57DA-4EA7-9DF5-1B463130AD7D}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="1" sqref="I1:J1 M1"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12757,54 +12847,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">INDEX(История!B:H,_xlfn.XMATCH(A2,История!B:B,0,-1),2)</f>
@@ -12859,7 +12949,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">INDEX(История!B:H,_xlfn.XMATCH(A3,История!B:B,0,-1),2)</f>
@@ -12914,7 +13004,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">INDEX(История!B:H,_xlfn.XMATCH(A4,История!B:B,0,-1),2)</f>
@@ -12969,7 +13059,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">INDEX(История!B:H,_xlfn.XMATCH(A5,История!B:B,0,-1),2)</f>
@@ -13024,7 +13114,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">INDEX(История!B:H,_xlfn.XMATCH(A6,История!B:B,0,-1),2)</f>
@@ -13079,7 +13169,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">INDEX(История!B:H,_xlfn.XMATCH(A7,История!B:B,0,-1),2)</f>
@@ -13134,7 +13224,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">INDEX(История!B:H,_xlfn.XMATCH(A8,История!B:B,0,-1),2)</f>
@@ -13189,7 +13279,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">INDEX(История!B:H,_xlfn.XMATCH(A9,История!B:B,0,-1),2)</f>
@@ -13244,7 +13334,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">INDEX(История!B:H,_xlfn.XMATCH(A10,История!B:B,0,-1),2)</f>
@@ -13285,7 +13375,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="15">
         <f>SUM(E2:E9)</f>
@@ -14595,7 +14685,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7E6F50-DDBE-412B-87AD-3B0F03A2B4A2}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -14609,7 +14699,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
         <v>MISX:SBER</v>
       </c>
       <c r="B1" t="str">
@@ -15242,17 +15332,17 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="3">
+      <c r="B64" vm="156">
         <f ca="1"/>
         <v>299.76</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" vm="156">
+      <c r="A65" s="5" vm="157">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="157">
+      <c r="B65" vm="3">
         <f ca="1"/>
         <v>300.55</v>
       </c>
@@ -15505,6 +15595,16 @@
       <c r="B90" vm="207">
         <f ca="1"/>
         <v>308.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" vm="208">
+        <f ca="1"/>
+        <v>45420</v>
+      </c>
+      <c r="B91" vm="209">
+        <f ca="1"/>
+        <v>310.89999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -15514,7 +15614,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC451C-A319-4741-8A55-3296C7226099}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -15527,7 +15627,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B90" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
         <v>MISX:YNDX</v>
       </c>
       <c r="B1" t="str">
@@ -15620,7 +15720,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="208">
+      <c r="B10" vm="210">
         <f ca="1"/>
         <v>2625.4</v>
       </c>
@@ -15630,7 +15730,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="209">
+      <c r="B11" vm="211">
         <f ca="1"/>
         <v>2671</v>
       </c>
@@ -15640,7 +15740,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="210">
+      <c r="B12" vm="212">
         <f ca="1"/>
         <v>2649.8</v>
       </c>
@@ -15650,7 +15750,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="211">
+      <c r="B13" vm="213">
         <f ca="1"/>
         <v>2640.8</v>
       </c>
@@ -15660,7 +15760,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="212">
+      <c r="B14" vm="214">
         <f ca="1"/>
         <v>2626</v>
       </c>
@@ -15680,7 +15780,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="213">
+      <c r="B16" vm="215">
         <f ca="1"/>
         <v>2599</v>
       </c>
@@ -15690,7 +15790,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="214">
+      <c r="B17" vm="216">
         <f ca="1"/>
         <v>2618.1999999999998</v>
       </c>
@@ -15700,7 +15800,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="215">
+      <c r="B18" vm="217">
         <f ca="1"/>
         <v>2642</v>
       </c>
@@ -15710,7 +15810,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="216">
+      <c r="B19" vm="218">
         <f ca="1"/>
         <v>2765</v>
       </c>
@@ -15720,7 +15820,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="217">
+      <c r="B20" vm="219">
         <f ca="1"/>
         <v>2877.4</v>
       </c>
@@ -15730,7 +15830,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="218">
+      <c r="B21" vm="220">
         <f ca="1"/>
         <v>2945</v>
       </c>
@@ -15740,7 +15840,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="219">
+      <c r="B22" vm="221">
         <f ca="1"/>
         <v>3101.8</v>
       </c>
@@ -15750,7 +15850,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="220">
+      <c r="B23" vm="222">
         <f ca="1"/>
         <v>3043.8</v>
       </c>
@@ -15760,7 +15860,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="221">
+      <c r="B24" vm="223">
         <f ca="1"/>
         <v>3102.6</v>
       </c>
@@ -15770,7 +15870,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="222">
+      <c r="B25" vm="224">
         <f ca="1"/>
         <v>3090</v>
       </c>
@@ -15780,7 +15880,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="223">
+      <c r="B26" vm="225">
         <f ca="1"/>
         <v>3066.2</v>
       </c>
@@ -15790,7 +15890,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="224">
+      <c r="B27" vm="226">
         <f ca="1"/>
         <v>3107</v>
       </c>
@@ -15800,7 +15900,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="225">
+      <c r="B28" vm="227">
         <f ca="1"/>
         <v>3288</v>
       </c>
@@ -15810,7 +15910,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="225">
+      <c r="B29" vm="227">
         <f ca="1"/>
         <v>3288</v>
       </c>
@@ -15820,7 +15920,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="226">
+      <c r="B30" vm="228">
         <f ca="1"/>
         <v>3254.2</v>
       </c>
@@ -15830,7 +15930,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="227">
+      <c r="B31" vm="229">
         <f ca="1"/>
         <v>3280.2</v>
       </c>
@@ -15840,7 +15940,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="228">
+      <c r="B32" vm="230">
         <f ca="1"/>
         <v>3453.4</v>
       </c>
@@ -15850,7 +15950,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="229">
+      <c r="B33" vm="231">
         <f ca="1"/>
         <v>3454</v>
       </c>
@@ -15860,7 +15960,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="230">
+      <c r="B34" vm="232">
         <f ca="1"/>
         <v>3439.6</v>
       </c>
@@ -15870,7 +15970,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="231">
+      <c r="B35" vm="233">
         <f ca="1"/>
         <v>3408.6</v>
       </c>
@@ -15880,7 +15980,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="232">
+      <c r="B36" vm="234">
         <f ca="1"/>
         <v>3378.6</v>
       </c>
@@ -15890,7 +15990,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="233">
+      <c r="B37" vm="235">
         <f ca="1"/>
         <v>3310</v>
       </c>
@@ -15900,7 +16000,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="234">
+      <c r="B38" vm="236">
         <f ca="1"/>
         <v>3220</v>
       </c>
@@ -15910,7 +16010,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="235">
+      <c r="B39" vm="237">
         <f ca="1"/>
         <v>3224</v>
       </c>
@@ -15920,7 +16020,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="236">
+      <c r="B40" vm="238">
         <f ca="1"/>
         <v>3386</v>
       </c>
@@ -15930,7 +16030,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="237">
+      <c r="B41" vm="239">
         <f ca="1"/>
         <v>3366.2</v>
       </c>
@@ -15940,7 +16040,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="238">
+      <c r="B42" vm="240">
         <f ca="1"/>
         <v>3355</v>
       </c>
@@ -15950,7 +16050,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="239">
+      <c r="B43" vm="241">
         <f ca="1"/>
         <v>3380</v>
       </c>
@@ -15960,7 +16060,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="240">
+      <c r="B44" vm="242">
         <f ca="1"/>
         <v>3515</v>
       </c>
@@ -15970,7 +16070,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="241">
+      <c r="B45" vm="243">
         <f ca="1"/>
         <v>3644</v>
       </c>
@@ -15980,7 +16080,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="242">
+      <c r="B46" vm="244">
         <f ca="1"/>
         <v>3640</v>
       </c>
@@ -15990,7 +16090,7 @@
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="243">
+      <c r="B47" vm="245">
         <f ca="1"/>
         <v>3579.8</v>
       </c>
@@ -16000,7 +16100,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="244">
+      <c r="B48" vm="246">
         <f ca="1"/>
         <v>3590</v>
       </c>
@@ -16010,7 +16110,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="245">
+      <c r="B49" vm="247">
         <f ca="1"/>
         <v>3570</v>
       </c>
@@ -16020,7 +16120,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="246">
+      <c r="B50" vm="248">
         <f ca="1"/>
         <v>3491.8</v>
       </c>
@@ -16030,7 +16130,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="247">
+      <c r="B51" vm="249">
         <f ca="1"/>
         <v>3589</v>
       </c>
@@ -16040,7 +16140,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="248">
+      <c r="B52" vm="250">
         <f ca="1"/>
         <v>3605</v>
       </c>
@@ -16050,7 +16150,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="249">
+      <c r="B53" vm="251">
         <f ca="1"/>
         <v>3639</v>
       </c>
@@ -16060,7 +16160,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="250">
+      <c r="B54" vm="252">
         <f ca="1"/>
         <v>3701</v>
       </c>
@@ -16070,7 +16170,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="251">
+      <c r="B55" vm="253">
         <f ca="1"/>
         <v>3799</v>
       </c>
@@ -16080,7 +16180,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="252">
+      <c r="B56" vm="254">
         <f ca="1"/>
         <v>3916.8</v>
       </c>
@@ -16090,7 +16190,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="253">
+      <c r="B57" vm="255">
         <f ca="1"/>
         <v>3873</v>
       </c>
@@ -16100,7 +16200,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="254">
+      <c r="B58" vm="256">
         <f ca="1"/>
         <v>3905</v>
       </c>
@@ -16110,7 +16210,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="255">
+      <c r="B59" vm="257">
         <f ca="1"/>
         <v>3990.4</v>
       </c>
@@ -16120,7 +16220,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="256">
+      <c r="B60" vm="258">
         <f ca="1"/>
         <v>3999</v>
       </c>
@@ -16130,7 +16230,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="257">
+      <c r="B61" vm="259">
         <f ca="1"/>
         <v>4014</v>
       </c>
@@ -16140,7 +16240,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="258">
+      <c r="B62" vm="260">
         <f ca="1"/>
         <v>4004.6</v>
       </c>
@@ -16150,7 +16250,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="259">
+      <c r="B63" vm="261">
         <f ca="1"/>
         <v>4000</v>
       </c>
@@ -16160,17 +16260,17 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="6">
+      <c r="B64" vm="262">
         <f ca="1"/>
         <v>3978</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" vm="156">
+      <c r="A65" vm="157">
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="260">
+      <c r="B65" vm="6">
         <f ca="1"/>
         <v>3889.6</v>
       </c>
@@ -16180,7 +16280,7 @@
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="261">
+      <c r="B66" vm="263">
         <f ca="1"/>
         <v>3917.4</v>
       </c>
@@ -16190,7 +16290,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="262">
+      <c r="B67" vm="264">
         <f ca="1"/>
         <v>3962.2</v>
       </c>
@@ -16200,7 +16300,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="263">
+      <c r="B68" vm="265">
         <f ca="1"/>
         <v>3980.2</v>
       </c>
@@ -16210,7 +16310,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="264">
+      <c r="B69" vm="266">
         <f ca="1"/>
         <v>3960</v>
       </c>
@@ -16220,7 +16320,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="265">
+      <c r="B70" vm="267">
         <f ca="1"/>
         <v>3949.4</v>
       </c>
@@ -16230,7 +16330,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="266">
+      <c r="B71" vm="268">
         <f ca="1"/>
         <v>3985.8</v>
       </c>
@@ -16240,7 +16340,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="267">
+      <c r="B72" vm="269">
         <f ca="1"/>
         <v>3940.6</v>
       </c>
@@ -16250,7 +16350,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="268">
+      <c r="B73" vm="270">
         <f ca="1"/>
         <v>3993</v>
       </c>
@@ -16260,7 +16360,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="269">
+      <c r="B74" vm="271">
         <f ca="1"/>
         <v>4027.4</v>
       </c>
@@ -16270,7 +16370,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="270">
+      <c r="B75" vm="272">
         <f ca="1"/>
         <v>4047</v>
       </c>
@@ -16280,7 +16380,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="271">
+      <c r="B76" vm="273">
         <f ca="1"/>
         <v>4190.6000000000004</v>
       </c>
@@ -16290,7 +16390,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="272">
+      <c r="B77" vm="274">
         <f ca="1"/>
         <v>4190</v>
       </c>
@@ -16300,7 +16400,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="273">
+      <c r="B78" vm="275">
         <f ca="1"/>
         <v>4244.2</v>
       </c>
@@ -16310,7 +16410,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="274">
+      <c r="B79" vm="276">
         <f ca="1"/>
         <v>4252</v>
       </c>
@@ -16320,7 +16420,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="275">
+      <c r="B80" vm="277">
         <f ca="1"/>
         <v>4153</v>
       </c>
@@ -16330,7 +16430,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="276">
+      <c r="B81" vm="278">
         <f ca="1"/>
         <v>4099</v>
       </c>
@@ -16340,7 +16440,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="277">
+      <c r="B82" vm="279">
         <f ca="1"/>
         <v>4103</v>
       </c>
@@ -16350,7 +16450,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="278">
+      <c r="B83" vm="280">
         <f ca="1"/>
         <v>4228</v>
       </c>
@@ -16360,7 +16460,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="279">
+      <c r="B84" vm="281">
         <f ca="1"/>
         <v>4140</v>
       </c>
@@ -16370,7 +16470,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="280">
+      <c r="B85" vm="282">
         <f ca="1"/>
         <v>4174</v>
       </c>
@@ -16380,7 +16480,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="279">
+      <c r="B86" vm="281">
         <f ca="1"/>
         <v>4140</v>
       </c>
@@ -16390,7 +16490,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="281">
+      <c r="B87" vm="283">
         <f ca="1"/>
         <v>4160</v>
       </c>
@@ -16400,7 +16500,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="282">
+      <c r="B88" vm="284">
         <f ca="1"/>
         <v>4209.2</v>
       </c>
@@ -16410,7 +16510,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="283">
+      <c r="B89" vm="285">
         <f ca="1"/>
         <v>4267</v>
       </c>
@@ -16420,9 +16520,19 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="284">
+      <c r="B90" vm="286">
         <f ca="1"/>
         <v>4310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" vm="208">
+        <f ca="1"/>
+        <v>45420</v>
+      </c>
+      <c r="B91" vm="287">
+        <f ca="1"/>
+        <v>4324.3999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Расчет.xlsx
+++ b/Docs/Расчет.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\DBs\GitHub\TRPO-Project-Team1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EB46E-5A54-47B7-9426-237254B9C869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226C4E49-5E9B-4735-B2A7-2E642E15763B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10DA072E-B3FB-43A2-9663-AB2A98D47E7B}"/>
   </bookViews>
@@ -60,7 +60,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="439">
+  <futureMetadata name="XLRICHVALUE" count="444">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -3131,6 +3131,41 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="446"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="447"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="448"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="449"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="450"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="451"/>
         </ext>
       </extLst>
     </bk>
@@ -3140,7 +3175,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="439">
+  <valueMetadata count="444">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -4457,6 +4492,21 @@
     </bk>
     <bk>
       <rc t="2" v="438"/>
+    </bk>
+    <bk>
+      <rc t="2" v="439"/>
+    </bk>
+    <bk>
+      <rc t="2" v="440"/>
+    </bk>
+    <bk>
+      <rc t="2" v="441"/>
+    </bk>
+    <bk>
+      <rc t="2" v="442"/>
+    </bk>
+    <bk>
+      <rc t="2" v="443"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -4890,7 +4940,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
-  <a r="1" c="89">
+  <a r="1" c="90">
     <v t="i">0</v>
     <v t="i">1</v>
     <v t="i">2</v>
@@ -4980,8 +5030,9 @@
     <v t="i">124</v>
     <v t="i">125</v>
     <v t="i">126</v>
+    <v t="i">128</v>
   </a>
-  <a r="1" c="89">
+  <a r="1" c="90">
     <v>273.64</v>
     <v>274.04000000000002</v>
     <v>273.45999999999998</v>
@@ -5071,8 +5122,9 @@
     <v>306.97000000000003</v>
     <v>308.39</v>
     <v>310.89999999999998</v>
+    <v>312.98</v>
   </a>
-  <a r="1" c="89">
+  <a r="1" c="90">
     <v>2570.4</v>
     <v>2568.6</v>
     <v>2573.8000000000002</v>
@@ -5162,8 +5214,9 @@
     <v>4267</v>
     <v>4310</v>
     <v>4324.3999999999996</v>
+    <v>4360</v>
   </a>
-  <a r="1" c="89">
+  <a r="1" c="90">
     <v>2829</v>
     <v>2816</v>
     <v>2800</v>
@@ -5253,8 +5306,9 @@
     <v>4448</v>
     <v>4555</v>
     <v>4505</v>
+    <v>4480.5</v>
   </a>
-  <a r="1" c="89">
+  <a r="1" c="90">
     <v>249.55</v>
     <v>250.95</v>
     <v>250.9</v>
@@ -5344,12 +5398,13 @@
     <v>309</v>
     <v>308.45</v>
     <v>310.55</v>
+    <v>312</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="451">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="456">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aly352&amp;q=MISX%3aSBER&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -5369,8 +5424,8 @@
     <v>315.79000000000002</v>
     <v>228.75</v>
     <v>1.3733</v>
-    <v>1.92</v>
-    <v>6.169E-3</v>
+    <v>2.2799999999999998</v>
+    <v>7.326E-3</v>
     <v>RUB</v>
     <v>Sberbank Rossii PAO is a Russia-based company, which is primarily focused on the financial services industry. The Company operates as a commercial bank and provides services to individual and corporate clients. Its offerings for individual clients include deposits, credit cards issuing, money transfers, depositary cells, consumer loans, mortgages, utility payments, online banking, mutual funds, among others. The Company's corporate products portfolio includes corporate loans, asset management, payroll projects, leasing, online banking, cash and settlement services, among others. In addition, the Company offers a wide range of services to financial institutions, such as correspondent accounts, custody services, and interbank lending, among others.</v>
     <v>287866</v>
@@ -5378,10 +5433,10 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>ul. Vavilova, dom 19, MOSCOW, MOSCOW, 117997 RU</v>
-    <v>313.47000000000003</v>
+    <v>313.5</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45422.599385948437</v>
+    <v>45422.868055555555</v>
     <v>0</v>
     <v>311.31</v>
     <v>7022122000000</v>
@@ -5389,12 +5444,12 @@
     <v>Public Joint-Stock Company Sberbank of Russia</v>
     <v>311.5</v>
     <v>311.20999999999998</v>
-    <v>313.13</v>
+    <v>313.49</v>
     <v>22586950000</v>
     <v>SBER</v>
     <v>Public Joint-Stock Company Sberbank of Russia (MISX:SBER)</v>
-    <v>13273920</v>
-    <v>14876040</v>
+    <v>16715650</v>
+    <v>18264180</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -5405,7 +5460,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>300.55</fb>
+    <fb>306.2</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5426,8 +5481,8 @@
     <v>4</v>
     <v>5653.2</v>
     <v>1922.2</v>
-    <v>39</v>
-    <v>9.0489999999999998E-3</v>
+    <v>46.2</v>
+    <v>1.0719000000000001E-2</v>
     <v>RUB</v>
     <v>Yandex N.V. is an Internet and technology company, and operates Internet search engine. The Company's segments include Search and Portal, E-commerce, Taxi, Classifieds and Experimental businesses. The Company's Search and Portal segment offers a range of services in Russia, Ukraine, Belarus and Kazakhstan, among which are search, location-based, personalized and mobile services, that enable the Company's users to find relevant and objective information to communicate and connect over the Internet, from both their desktops and mobile devices. The Company's search engine offers access to a range of information available online. The Company's Yandex.Market gives retailers a platform to reach customers seeking specific retailer, product or price information. As of December 31, 2016, Yandex.Taxi was operating in 46 cities across Russia, Georgia, Armenia, Kazakhstan, Belarus and Ukraine. The Company's Classifieds business unit includes Auto.ru, Yandex.Realty, Yandex.Jobs and Yandex.Travel.</v>
     <v>25703</v>
@@ -5435,10 +5490,10 @@
     <v>MISX</v>
     <v>MISX</v>
     <v>Schiphol Boulevard 165, SCHIPHOL, NOORD-HOLLAND, 1118 BG NL</v>
-    <v>4358.6000000000004</v>
+    <v>4360</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45422.599228587504</v>
+    <v>45422.868055555555</v>
     <v>5</v>
     <v>4301.2</v>
     <v>6846475000</v>
@@ -5446,11 +5501,11 @@
     <v>Yandex NV</v>
     <v>4319.3999999999996</v>
     <v>4310</v>
-    <v>4349</v>
+    <v>4356.2</v>
     <v>361482300</v>
     <v>YNDX</v>
     <v>Yandex NV (MISX:YNDX)</v>
-    <v>128949</v>
+    <v>180750</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -5461,7 +5516,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3889.6</fb>
+    <fb>3917.4</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5483,8 +5538,8 @@
     <v>348.9</v>
     <v>245.85</v>
     <v>0.60540000000000005</v>
-    <v>1.3</v>
-    <v>4.1840000000000002E-3</v>
+    <v>1.45</v>
+    <v>4.6670000000000001E-3</v>
     <v>RUB</v>
     <v>Mobil'nye Telesistemy PAO is a Russia-based provider of telecommunications services. The Company provides mobile and fixed-line voice and data telecommunications services, including data transfer, broadband, pay-television (pay-TV) and various value-added services, as well as selling equipment and accessories. The Company operates through segments, which include Russia convergent, Moscow fixed line and Ukraine. Its Russia Convergent segment includes mobile and fixed-line operations, which encompasses services rendered to customers across regions of Russia, including voice and data services, transmission, broadband, pay-TV and other value-added services. Its Moscow fixed-line segment includes fixed-line operations carried out in Moscow by the Company's subsidiary MGTS. Its Ukraine segment includes mobile and fixed-line operations carried out across multiple regions of Ukraine. The Company also offers software solutions, such as LiteBox, a cloud-based tool for online cash operations.</v>
     <v>65102</v>
@@ -5495,7 +5550,7 @@
     <v>312.8</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>45422.599305555559</v>
+    <v>45422.868055555555</v>
     <v>10</v>
     <v>310.75</v>
     <v>620597400000</v>
@@ -5503,12 +5558,12 @@
     <v>Mobile TeleSystems Public Joint Stock Company</v>
     <v>310.75</v>
     <v>310.7</v>
-    <v>312</v>
+    <v>312.14999999999998</v>
     <v>1998382000</v>
     <v>MTSS</v>
     <v>Mobile TeleSystems Public Joint Stock Company (MISX:MTSS)</v>
-    <v>712820</v>
-    <v>3150380</v>
+    <v>982430</v>
+    <v>3415870</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -5519,7 +5574,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>299.8</fb>
+    <fb>302.5</fb>
     <v>5</v>
   </rv>
   <rv s="0">
@@ -5539,8 +5594,8 @@
     <v>Finance</v>
     <v>4</v>
     <v>1.4976</v>
-    <v>-44.5</v>
-    <v>-9.8230000000000001E-3</v>
+    <v>-41</v>
+    <v>-9.051E-3</v>
     <v>RUB</v>
     <v>Ozon Holdings PLC is an electronic commerce platform. The Company is an e-commerce platform in Russia. The Company connects and facilitates transactions between buyers and sellers. The Company also sells products directly to their buyers. The Company provides also two platforms Ozon.ru and Ozon.travel.</v>
     <v>49889</v>
@@ -5551,7 +5606,7 @@
     <v>4530</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45422.599305555559</v>
+    <v>45422.868055555555</v>
     <v>15</v>
     <v>4428</v>
     <v>368428000000</v>
@@ -5559,12 +5614,12 @@
     <v>Ozon Holdings PLC</v>
     <v>4526</v>
     <v>4530</v>
-    <v>4485.5</v>
+    <v>4489</v>
     <v>81782030</v>
     <v>OZON</v>
     <v>Ozon Holdings PLC (MISX:OZON)</v>
-    <v>413919</v>
-    <v>465570</v>
+    <v>501208</v>
+    <v>619570</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -5575,7 +5630,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3839.5</fb>
+    <fb>3791.5</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6159,14 +6214,14 @@
     <v>10</v>
   </rv>
   <rv s="3">
+    <fb>300.55</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>45385</fb>
     <v>10</v>
   </rv>
   <rv s="3">
-    <fb>306.2</fb>
-    <v>5</v>
-  </rv>
-  <rv s="3">
     <fb>45386</fb>
     <v>10</v>
   </rv>
@@ -6367,6 +6422,14 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>45422</fb>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <fb>312.98</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2625.4</fb>
     <v>5</v>
   </rv>
@@ -6579,7 +6642,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3917.4</fb>
+    <fb>3889.6</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6679,6 +6742,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>4360</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>266.10000000000002</fb>
     <v>5</v>
   </rv>
@@ -6883,7 +6950,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>302.5</fb>
+    <fb>299.8</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -6975,6 +7042,10 @@
     <v>5</v>
   </rv>
   <rv s="3">
+    <fb>312</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
     <fb>2943</fb>
     <v>5</v>
   </rv>
@@ -7187,7 +7258,7 @@
     <v>5</v>
   </rv>
   <rv s="3">
-    <fb>3791.5</fb>
+    <fb>3839.5</fb>
     <v>5</v>
   </rv>
   <rv s="3">
@@ -7284,6 +7355,10 @@
   </rv>
   <rv s="3">
     <fb>4505</fb>
+    <v>5</v>
+  </rv>
+  <rv s="3">
+    <fb>4480.5</fb>
     <v>5</v>
   </rv>
   <rv s="6">
@@ -7291,10 +7366,10 @@
     <v>aly352</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45422</v>
+    <v>45423</v>
     <v>0</v>
     <v>1</v>
-    <v>638507232000000000,638509461111248682,0</v>
+    <v>638508960000000000,638510100427766200,0</v>
     <v>0</v>
     <v>aly352</v>
     <v>MISX:SBER</v>
@@ -7305,10 +7380,10 @@
     <v>aly8fr</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45422</v>
+    <v>45423</v>
     <v>0</v>
     <v>1</v>
-    <v>638507232000000000,638509461111260931,0</v>
+    <v>638508960000000000,638510100427776386,0</v>
     <v>0</v>
     <v>aly8fr</v>
     <v>MISX:YNDX</v>
@@ -7319,10 +7394,10 @@
     <v>bwvzww</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45422</v>
+    <v>45423</v>
     <v>0</v>
     <v>1</v>
-    <v>638507232000000000,638509461111275831,0</v>
+    <v>638508960000000000,638510100427773083,0</v>
     <v>0</v>
     <v>bwvzww</v>
     <v>MISX:OZON</v>
@@ -7333,10 +7408,10 @@
     <v>alxwtc</v>
     <v>Daily</v>
     <v>45294</v>
-    <v>45422</v>
+    <v>45423</v>
     <v>0</v>
     <v>1</v>
-    <v>638507232000000000,638509461111268598,0</v>
+    <v>638508960000000000,638510100427786108,0</v>
     <v>0</v>
     <v>alxwtc</v>
     <v>MISX:MTSS</v>
@@ -8262,7 +8337,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926C765-3D1F-484A-A987-1141447310F5}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8276,7 +8351,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B92" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A4,'Учет акций'!B4,TODAY(),0,2)</f>
         <v>MISX:MTSS</v>
       </c>
       <c r="B1" t="str">
@@ -8369,7 +8444,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="288">
+      <c r="B10" vm="291">
         <f ca="1"/>
         <v>266.10000000000002</v>
       </c>
@@ -8379,7 +8454,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="289">
+      <c r="B11" vm="292">
         <f ca="1"/>
         <v>267.55</v>
       </c>
@@ -8389,7 +8464,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="290">
+      <c r="B12" vm="293">
         <f ca="1"/>
         <v>266</v>
       </c>
@@ -8399,7 +8474,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="291">
+      <c r="B13" vm="294">
         <f ca="1"/>
         <v>264.25</v>
       </c>
@@ -8409,7 +8484,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="292">
+      <c r="B14" vm="295">
         <f ca="1"/>
         <v>264.89999999999998</v>
       </c>
@@ -8419,7 +8494,7 @@
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="293">
+      <c r="B15" vm="296">
         <f ca="1"/>
         <v>263.05</v>
       </c>
@@ -8429,7 +8504,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="294">
+      <c r="B16" vm="297">
         <f ca="1"/>
         <v>263.35000000000002</v>
       </c>
@@ -8439,7 +8514,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="295">
+      <c r="B17" vm="298">
         <f ca="1"/>
         <v>264.5</v>
       </c>
@@ -8449,7 +8524,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="296">
+      <c r="B18" vm="299">
         <f ca="1"/>
         <v>267.64999999999998</v>
       </c>
@@ -8459,7 +8534,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="297">
+      <c r="B19" vm="300">
         <f ca="1"/>
         <v>269.7</v>
       </c>
@@ -8469,7 +8544,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="298">
+      <c r="B20" vm="301">
         <f ca="1"/>
         <v>270.75</v>
       </c>
@@ -8479,7 +8554,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="299">
+      <c r="B21" vm="302">
         <f ca="1"/>
         <v>271.8</v>
       </c>
@@ -8489,7 +8564,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="300">
+      <c r="B22" vm="303">
         <f ca="1"/>
         <v>272.7</v>
       </c>
@@ -8499,7 +8574,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="301">
+      <c r="B23" vm="304">
         <f ca="1"/>
         <v>274.35000000000002</v>
       </c>
@@ -8509,7 +8584,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="302">
+      <c r="B24" vm="305">
         <f ca="1"/>
         <v>275</v>
       </c>
@@ -8519,7 +8594,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="303">
+      <c r="B25" vm="306">
         <f ca="1"/>
         <v>276.05</v>
       </c>
@@ -8529,7 +8604,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="304">
+      <c r="B26" vm="307">
         <f ca="1"/>
         <v>278.60000000000002</v>
       </c>
@@ -8539,7 +8614,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="305">
+      <c r="B27" vm="308">
         <f ca="1"/>
         <v>278.39999999999998</v>
       </c>
@@ -8549,7 +8624,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="306">
+      <c r="B28" vm="309">
         <f ca="1"/>
         <v>277.5</v>
       </c>
@@ -8559,7 +8634,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="307">
+      <c r="B29" vm="310">
         <f ca="1"/>
         <v>276.85000000000002</v>
       </c>
@@ -8569,7 +8644,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="308">
+      <c r="B30" vm="311">
         <f ca="1"/>
         <v>277.2</v>
       </c>
@@ -8579,7 +8654,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="309">
+      <c r="B31" vm="312">
         <f ca="1"/>
         <v>277.35000000000002</v>
       </c>
@@ -8589,7 +8664,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="310">
+      <c r="B32" vm="313">
         <f ca="1"/>
         <v>281</v>
       </c>
@@ -8599,7 +8674,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="311">
+      <c r="B33" vm="314">
         <f ca="1"/>
         <v>283</v>
       </c>
@@ -8609,7 +8684,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="312">
+      <c r="B34" vm="315">
         <f ca="1"/>
         <v>281.75</v>
       </c>
@@ -8619,7 +8694,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="313">
+      <c r="B35" vm="316">
         <f ca="1"/>
         <v>281.89999999999998</v>
       </c>
@@ -8629,7 +8704,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="314">
+      <c r="B36" vm="317">
         <f ca="1"/>
         <v>279.7</v>
       </c>
@@ -8639,7 +8714,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="315">
+      <c r="B37" vm="318">
         <f ca="1"/>
         <v>277.64999999999998</v>
       </c>
@@ -8649,7 +8724,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="316">
+      <c r="B38" vm="319">
         <f ca="1"/>
         <v>276.25</v>
       </c>
@@ -8659,7 +8734,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="317">
+      <c r="B39" vm="320">
         <f ca="1"/>
         <v>278.10000000000002</v>
       </c>
@@ -8669,7 +8744,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="312">
+      <c r="B40" vm="315">
         <f ca="1"/>
         <v>281.75</v>
       </c>
@@ -8679,7 +8754,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="318">
+      <c r="B41" vm="321">
         <f ca="1"/>
         <v>282.45</v>
       </c>
@@ -8689,7 +8764,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="319">
+      <c r="B42" vm="322">
         <f ca="1"/>
         <v>284.60000000000002</v>
       </c>
@@ -8699,7 +8774,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="320">
+      <c r="B43" vm="323">
         <f ca="1"/>
         <v>291</v>
       </c>
@@ -8709,7 +8784,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="321">
+      <c r="B44" vm="324">
         <f ca="1"/>
         <v>289.05</v>
       </c>
@@ -8719,7 +8794,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="322">
+      <c r="B45" vm="325">
         <f ca="1"/>
         <v>290.85000000000002</v>
       </c>
@@ -8729,7 +8804,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="323">
+      <c r="B46" vm="326">
         <f ca="1"/>
         <v>290.60000000000002</v>
       </c>
@@ -8749,7 +8824,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="324">
+      <c r="B48" vm="327">
         <f ca="1"/>
         <v>289.75</v>
       </c>
@@ -8759,7 +8834,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="325">
+      <c r="B49" vm="328">
         <f ca="1"/>
         <v>290.5</v>
       </c>
@@ -8769,7 +8844,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="326">
+      <c r="B50" vm="329">
         <f ca="1"/>
         <v>294.10000000000002</v>
       </c>
@@ -8779,7 +8854,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="327">
+      <c r="B51" vm="330">
         <f ca="1"/>
         <v>294.89999999999998</v>
       </c>
@@ -8789,7 +8864,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="328">
+      <c r="B52" vm="331">
         <f ca="1"/>
         <v>292</v>
       </c>
@@ -8799,7 +8874,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="329">
+      <c r="B53" vm="332">
         <f ca="1"/>
         <v>294.55</v>
       </c>
@@ -8809,7 +8884,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="330">
+      <c r="B54" vm="333">
         <f ca="1"/>
         <v>292.55</v>
       </c>
@@ -8819,7 +8894,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="331">
+      <c r="B55" vm="334">
         <f ca="1"/>
         <v>289.2</v>
       </c>
@@ -8829,7 +8904,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="332">
+      <c r="B56" vm="335">
         <f ca="1"/>
         <v>291.5</v>
       </c>
@@ -8839,7 +8914,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="333">
+      <c r="B57" vm="336">
         <f ca="1"/>
         <v>292.85000000000002</v>
       </c>
@@ -8849,7 +8924,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="334">
+      <c r="B58" vm="337">
         <f ca="1"/>
         <v>290.64999999999998</v>
       </c>
@@ -8859,7 +8934,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="332">
+      <c r="B59" vm="335">
         <f ca="1"/>
         <v>291.5</v>
       </c>
@@ -8869,7 +8944,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="335">
+      <c r="B60" vm="338">
         <f ca="1"/>
         <v>296</v>
       </c>
@@ -8879,7 +8954,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="336">
+      <c r="B61" vm="339">
         <f ca="1"/>
         <v>299.7</v>
       </c>
@@ -8889,7 +8964,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="337">
+      <c r="B62" vm="340">
         <f ca="1"/>
         <v>298</v>
       </c>
@@ -8899,7 +8974,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="337">
+      <c r="B63" vm="340">
         <f ca="1"/>
         <v>298</v>
       </c>
@@ -8909,7 +8984,7 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="338">
+      <c r="B64" vm="341">
         <f ca="1"/>
         <v>301.2</v>
       </c>
@@ -8919,17 +8994,17 @@
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="9">
+      <c r="B65" vm="342">
         <f ca="1"/>
         <v>299.8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="159">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="339">
+      <c r="B66" vm="9">
         <f ca="1"/>
         <v>302.5</v>
       </c>
@@ -8939,7 +9014,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="338">
+      <c r="B67" vm="341">
         <f ca="1"/>
         <v>301.2</v>
       </c>
@@ -8949,7 +9024,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="340">
+      <c r="B68" vm="343">
         <f ca="1"/>
         <v>300</v>
       </c>
@@ -8959,7 +9034,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="341">
+      <c r="B69" vm="344">
         <f ca="1"/>
         <v>304</v>
       </c>
@@ -8969,7 +9044,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="342">
+      <c r="B70" vm="345">
         <f ca="1"/>
         <v>301.7</v>
       </c>
@@ -8979,7 +9054,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="343">
+      <c r="B71" vm="346">
         <f ca="1"/>
         <v>302.85000000000002</v>
       </c>
@@ -8989,7 +9064,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="344">
+      <c r="B72" vm="347">
         <f ca="1"/>
         <v>304.5</v>
       </c>
@@ -8999,7 +9074,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="344">
+      <c r="B73" vm="347">
         <f ca="1"/>
         <v>304.5</v>
       </c>
@@ -9009,7 +9084,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="345">
+      <c r="B74" vm="348">
         <f ca="1"/>
         <v>310.39999999999998</v>
       </c>
@@ -9019,7 +9094,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="346">
+      <c r="B75" vm="349">
         <f ca="1"/>
         <v>319.3</v>
       </c>
@@ -9029,7 +9104,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="347">
+      <c r="B76" vm="350">
         <f ca="1"/>
         <v>317</v>
       </c>
@@ -9039,7 +9114,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="348">
+      <c r="B77" vm="351">
         <f ca="1"/>
         <v>316.55</v>
       </c>
@@ -9049,7 +9124,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="349">
+      <c r="B78" vm="352">
         <f ca="1"/>
         <v>319.39999999999998</v>
       </c>
@@ -9059,7 +9134,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="350">
+      <c r="B79" vm="353">
         <f ca="1"/>
         <v>319.35000000000002</v>
       </c>
@@ -9069,7 +9144,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="351">
+      <c r="B80" vm="354">
         <f ca="1"/>
         <v>316.89999999999998</v>
       </c>
@@ -9079,7 +9154,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="352">
+      <c r="B81" vm="355">
         <f ca="1"/>
         <v>307.60000000000002</v>
       </c>
@@ -9089,7 +9164,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="353">
+      <c r="B82" vm="356">
         <f ca="1"/>
         <v>308.45</v>
       </c>
@@ -9099,7 +9174,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="354">
+      <c r="B83" vm="357">
         <f ca="1"/>
         <v>310.5</v>
       </c>
@@ -9109,7 +9184,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="355">
+      <c r="B84" vm="358">
         <f ca="1"/>
         <v>308.85000000000002</v>
       </c>
@@ -9119,7 +9194,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="356">
+      <c r="B85" vm="359">
         <f ca="1"/>
         <v>310.8</v>
       </c>
@@ -9129,7 +9204,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="357">
+      <c r="B86" vm="360">
         <f ca="1"/>
         <v>310.45</v>
       </c>
@@ -9139,7 +9214,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="358">
+      <c r="B87" vm="361">
         <f ca="1"/>
         <v>310.2</v>
       </c>
@@ -9149,7 +9224,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="359">
+      <c r="B88" vm="362">
         <f ca="1"/>
         <v>309.2</v>
       </c>
@@ -9159,7 +9234,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="360">
+      <c r="B89" vm="363">
         <f ca="1"/>
         <v>309</v>
       </c>
@@ -9169,7 +9244,7 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="353">
+      <c r="B90" vm="356">
         <f ca="1"/>
         <v>308.45</v>
       </c>
@@ -9179,9 +9254,19 @@
         <f ca="1"/>
         <v>45420</v>
       </c>
-      <c r="B91" vm="361">
+      <c r="B91" vm="364">
         <f ca="1"/>
         <v>310.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" vm="210">
+        <f ca="1"/>
+        <v>45422</v>
+      </c>
+      <c r="B92" vm="365">
+        <f ca="1"/>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9191,7 +9276,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2148E147-ED61-E142-951B-E021769BC110}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -9205,7 +9290,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B92" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A5,'Учет акций'!B5,TODAY(),0,2)</f>
         <v>MISX:OZON</v>
       </c>
       <c r="B1" t="str">
@@ -9298,7 +9383,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="362">
+      <c r="B10" vm="366">
         <f ca="1"/>
         <v>2943</v>
       </c>
@@ -9308,7 +9393,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="363">
+      <c r="B11" vm="367">
         <f ca="1"/>
         <v>3010</v>
       </c>
@@ -9318,7 +9403,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="364">
+      <c r="B12" vm="368">
         <f ca="1"/>
         <v>2954.5</v>
       </c>
@@ -9328,7 +9413,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="365">
+      <c r="B13" vm="369">
         <f ca="1"/>
         <v>2901.5</v>
       </c>
@@ -9338,7 +9423,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="366">
+      <c r="B14" vm="370">
         <f ca="1"/>
         <v>2853</v>
       </c>
@@ -9348,7 +9433,7 @@
         <f ca="1"/>
         <v>45310</v>
       </c>
-      <c r="B15" vm="367">
+      <c r="B15" vm="371">
         <f ca="1"/>
         <v>2826</v>
       </c>
@@ -9358,7 +9443,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="368">
+      <c r="B16" vm="372">
         <f ca="1"/>
         <v>2837</v>
       </c>
@@ -9368,7 +9453,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="369">
+      <c r="B17" vm="373">
         <f ca="1"/>
         <v>2797</v>
       </c>
@@ -9378,7 +9463,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="370">
+      <c r="B18" vm="374">
         <f ca="1"/>
         <v>2805</v>
       </c>
@@ -9388,7 +9473,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="371">
+      <c r="B19" vm="375">
         <f ca="1"/>
         <v>2768</v>
       </c>
@@ -9398,7 +9483,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="372">
+      <c r="B20" vm="376">
         <f ca="1"/>
         <v>2835</v>
       </c>
@@ -9408,7 +9493,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="373">
+      <c r="B21" vm="377">
         <f ca="1"/>
         <v>2877</v>
       </c>
@@ -9418,7 +9503,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="374">
+      <c r="B22" vm="378">
         <f ca="1"/>
         <v>2908.5</v>
       </c>
@@ -9428,7 +9513,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="375">
+      <c r="B23" vm="379">
         <f ca="1"/>
         <v>2911.5</v>
       </c>
@@ -9438,7 +9523,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="376">
+      <c r="B24" vm="380">
         <f ca="1"/>
         <v>2910</v>
       </c>
@@ -9448,7 +9533,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="377">
+      <c r="B25" vm="381">
         <f ca="1"/>
         <v>2885.5</v>
       </c>
@@ -9458,7 +9543,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="378">
+      <c r="B26" vm="382">
         <f ca="1"/>
         <v>2872</v>
       </c>
@@ -9468,7 +9553,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="379">
+      <c r="B27" vm="383">
         <f ca="1"/>
         <v>2865.5</v>
       </c>
@@ -9478,7 +9563,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="380">
+      <c r="B28" vm="384">
         <f ca="1"/>
         <v>2875.5</v>
       </c>
@@ -9488,7 +9573,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="381">
+      <c r="B29" vm="385">
         <f ca="1"/>
         <v>2820</v>
       </c>
@@ -9498,7 +9583,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="382">
+      <c r="B30" vm="386">
         <f ca="1"/>
         <v>2836</v>
       </c>
@@ -9508,7 +9593,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="383">
+      <c r="B31" vm="387">
         <f ca="1"/>
         <v>2986</v>
       </c>
@@ -9518,7 +9603,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="384">
+      <c r="B32" vm="388">
         <f ca="1"/>
         <v>3042</v>
       </c>
@@ -9528,7 +9613,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="385">
+      <c r="B33" vm="389">
         <f ca="1"/>
         <v>3096</v>
       </c>
@@ -9538,7 +9623,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="386">
+      <c r="B34" vm="390">
         <f ca="1"/>
         <v>3165</v>
       </c>
@@ -9548,7 +9633,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="387">
+      <c r="B35" vm="391">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
@@ -9558,7 +9643,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="388">
+      <c r="B36" vm="392">
         <f ca="1"/>
         <v>3135</v>
       </c>
@@ -9568,7 +9653,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="387">
+      <c r="B37" vm="391">
         <f ca="1"/>
         <v>3120.5</v>
       </c>
@@ -9578,7 +9663,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="389">
+      <c r="B38" vm="393">
         <f ca="1"/>
         <v>2999.5</v>
       </c>
@@ -9588,7 +9673,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="390">
+      <c r="B39" vm="394">
         <f ca="1"/>
         <v>3050</v>
       </c>
@@ -9598,7 +9683,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="391">
+      <c r="B40" vm="395">
         <f ca="1"/>
         <v>3110.5</v>
       </c>
@@ -9608,7 +9693,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="392">
+      <c r="B41" vm="396">
         <f ca="1"/>
         <v>3157</v>
       </c>
@@ -9618,7 +9703,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="393">
+      <c r="B42" vm="397">
         <f ca="1"/>
         <v>3150</v>
       </c>
@@ -9628,7 +9713,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="394">
+      <c r="B43" vm="398">
         <f ca="1"/>
         <v>3174</v>
       </c>
@@ -9638,7 +9723,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="395">
+      <c r="B44" vm="399">
         <f ca="1"/>
         <v>3255</v>
       </c>
@@ -9648,7 +9733,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="396">
+      <c r="B45" vm="400">
         <f ca="1"/>
         <v>3375</v>
       </c>
@@ -9658,7 +9743,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="397">
+      <c r="B46" vm="401">
         <f ca="1"/>
         <v>3328</v>
       </c>
@@ -9668,7 +9753,7 @@
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="398">
+      <c r="B47" vm="402">
         <f ca="1"/>
         <v>3323</v>
       </c>
@@ -9678,7 +9763,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="399">
+      <c r="B48" vm="403">
         <f ca="1"/>
         <v>3302.5</v>
       </c>
@@ -9688,7 +9773,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="400">
+      <c r="B49" vm="404">
         <f ca="1"/>
         <v>3307</v>
       </c>
@@ -9698,7 +9783,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="401">
+      <c r="B50" vm="405">
         <f ca="1"/>
         <v>3286.5</v>
       </c>
@@ -9708,7 +9793,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="402">
+      <c r="B51" vm="406">
         <f ca="1"/>
         <v>3308.5</v>
       </c>
@@ -9718,7 +9803,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="395">
+      <c r="B52" vm="399">
         <f ca="1"/>
         <v>3255</v>
       </c>
@@ -9728,7 +9813,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="403">
+      <c r="B53" vm="407">
         <f ca="1"/>
         <v>3300</v>
       </c>
@@ -9738,7 +9823,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="404">
+      <c r="B54" vm="408">
         <f ca="1"/>
         <v>3350</v>
       </c>
@@ -9748,7 +9833,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="405">
+      <c r="B55" vm="409">
         <f ca="1"/>
         <v>3364.5</v>
       </c>
@@ -9758,7 +9843,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="406">
+      <c r="B56" vm="410">
         <f ca="1"/>
         <v>3493</v>
       </c>
@@ -9768,7 +9853,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="407">
+      <c r="B57" vm="411">
         <f ca="1"/>
         <v>3519</v>
       </c>
@@ -9778,7 +9863,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="408">
+      <c r="B58" vm="412">
         <f ca="1"/>
         <v>3482.5</v>
       </c>
@@ -9788,7 +9873,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="409">
+      <c r="B59" vm="413">
         <f ca="1"/>
         <v>3525</v>
       </c>
@@ -9798,7 +9883,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="410">
+      <c r="B60" vm="414">
         <f ca="1"/>
         <v>3607</v>
       </c>
@@ -9808,7 +9893,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="411">
+      <c r="B61" vm="415">
         <f ca="1"/>
         <v>3692</v>
       </c>
@@ -9818,7 +9903,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="412">
+      <c r="B62" vm="416">
         <f ca="1"/>
         <v>3774.5</v>
       </c>
@@ -9828,7 +9913,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="413">
+      <c r="B63" vm="417">
         <f ca="1"/>
         <v>3770</v>
       </c>
@@ -9838,7 +9923,7 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="414">
+      <c r="B64" vm="418">
         <f ca="1"/>
         <v>3871</v>
       </c>
@@ -9848,17 +9933,17 @@
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="12">
+      <c r="B65" vm="419">
         <f ca="1"/>
         <v>3839.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="159">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="415">
+      <c r="B66" vm="12">
         <f ca="1"/>
         <v>3791.5</v>
       </c>
@@ -9868,7 +9953,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="416">
+      <c r="B67" vm="420">
         <f ca="1"/>
         <v>3880</v>
       </c>
@@ -9878,7 +9963,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="417">
+      <c r="B68" vm="421">
         <f ca="1"/>
         <v>3847</v>
       </c>
@@ -9888,7 +9973,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="418">
+      <c r="B69" vm="422">
         <f ca="1"/>
         <v>3852</v>
       </c>
@@ -9898,7 +9983,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="419">
+      <c r="B70" vm="423">
         <f ca="1"/>
         <v>3739.5</v>
       </c>
@@ -9908,7 +9993,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="420">
+      <c r="B71" vm="424">
         <f ca="1"/>
         <v>3779.5</v>
       </c>
@@ -9918,7 +10003,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="413">
+      <c r="B72" vm="417">
         <f ca="1"/>
         <v>3770</v>
       </c>
@@ -9928,7 +10013,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="421">
+      <c r="B73" vm="425">
         <f ca="1"/>
         <v>3704.5</v>
       </c>
@@ -9938,7 +10023,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="422">
+      <c r="B74" vm="426">
         <f ca="1"/>
         <v>3826</v>
       </c>
@@ -9948,7 +10033,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="423">
+      <c r="B75" vm="427">
         <f ca="1"/>
         <v>3822</v>
       </c>
@@ -9958,7 +10043,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="424">
+      <c r="B76" vm="428">
         <f ca="1"/>
         <v>3900</v>
       </c>
@@ -9968,7 +10053,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="425">
+      <c r="B77" vm="429">
         <f ca="1"/>
         <v>3981</v>
       </c>
@@ -9978,7 +10063,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="426">
+      <c r="B78" vm="430">
         <f ca="1"/>
         <v>4078</v>
       </c>
@@ -9988,7 +10073,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="427">
+      <c r="B79" vm="431">
         <f ca="1"/>
         <v>4179.5</v>
       </c>
@@ -9998,7 +10083,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="428">
+      <c r="B80" vm="432">
         <f ca="1"/>
         <v>4077</v>
       </c>
@@ -10008,7 +10093,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="429">
+      <c r="B81" vm="433">
         <f ca="1"/>
         <v>3998</v>
       </c>
@@ -10018,7 +10103,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="430">
+      <c r="B82" vm="434">
         <f ca="1"/>
         <v>4148.5</v>
       </c>
@@ -10028,7 +10113,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="431">
+      <c r="B83" vm="435">
         <f ca="1"/>
         <v>4232</v>
       </c>
@@ -10038,7 +10123,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="432">
+      <c r="B84" vm="436">
         <f ca="1"/>
         <v>4240</v>
       </c>
@@ -10048,7 +10133,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="433">
+      <c r="B85" vm="437">
         <f ca="1"/>
         <v>4356</v>
       </c>
@@ -10058,7 +10143,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="434">
+      <c r="B86" vm="438">
         <f ca="1"/>
         <v>4352</v>
       </c>
@@ -10068,7 +10153,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="435">
+      <c r="B87" vm="439">
         <f ca="1"/>
         <v>4306.5</v>
       </c>
@@ -10078,7 +10163,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="436">
+      <c r="B88" vm="440">
         <f ca="1"/>
         <v>4350</v>
       </c>
@@ -10088,7 +10173,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="437">
+      <c r="B89" vm="441">
         <f ca="1"/>
         <v>4448</v>
       </c>
@@ -10098,7 +10183,7 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="438">
+      <c r="B90" vm="442">
         <f ca="1"/>
         <v>4555</v>
       </c>
@@ -10108,9 +10193,19 @@
         <f ca="1"/>
         <v>45420</v>
       </c>
-      <c r="B91" vm="439">
+      <c r="B91" vm="443">
         <f ca="1"/>
         <v>4505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" vm="210">
+        <f ca="1"/>
+        <v>45422</v>
+      </c>
+      <c r="B92" vm="444">
+        <f ca="1"/>
+        <v>4480.5</v>
       </c>
     </row>
   </sheetData>
@@ -10185,7 +10280,7 @@
       </c>
       <c r="C2" s="3">
         <f ca="1">B2+COUNTA(SBER!A:A)-1</f>
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -10196,7 +10291,7 @@
       </c>
       <c r="F2" s="2" vm="3">
         <f ca="1">VLOOKUP('Учет акций'!C2,SBER!A:B,2,FALSE)</f>
-        <v>300.55</v>
+        <v>306.2</v>
       </c>
       <c r="G2" s="4">
         <f ca="1">E2*D2</f>
@@ -10204,15 +10299,15 @@
       </c>
       <c r="H2" s="8">
         <f ca="1">F2*D2</f>
-        <v>3005.5</v>
+        <v>3062</v>
       </c>
       <c r="J2" s="4">
         <f ca="1">H2-G2</f>
-        <v>269.10000000000036</v>
+        <v>325.60000000000036</v>
       </c>
       <c r="K2" s="6">
         <f ca="1">(J2/G2)</f>
-        <v>9.8340885835404332E-2</v>
+        <v>0.11898845198070472</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -10224,7 +10319,7 @@
       </c>
       <c r="C3" s="3">
         <f ca="1">B2+COUNTA(YNDX!A:A)-1</f>
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -10235,7 +10330,7 @@
       </c>
       <c r="F3" s="2" vm="6">
         <f ca="1">VLOOKUP('Учет акций'!C3,YNDX!A:B,2,FALSE)</f>
-        <v>3889.6</v>
+        <v>3917.4</v>
       </c>
       <c r="G3" s="4">
         <f ca="1">E3*D3</f>
@@ -10243,15 +10338,15 @@
       </c>
       <c r="H3" s="8">
         <f ca="1">F3*D3</f>
-        <v>19448</v>
+        <v>19587</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">H3-G3</f>
-        <v>6596</v>
+        <v>6735</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">(J3/G3)</f>
-        <v>0.51322751322751325</v>
+        <v>0.52404295051353877</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10263,7 +10358,7 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">B2+COUNTA(MTSS!A:A)-1</f>
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -10274,7 +10369,7 @@
       </c>
       <c r="F4" s="2" vm="9">
         <f ca="1">VLOOKUP('Учет акций'!C4,MTSS!A:B,2,FALSE)</f>
-        <v>299.8</v>
+        <v>302.5</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G5" ca="1" si="0">E4*D4</f>
@@ -10282,15 +10377,15 @@
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H5" ca="1" si="1">F4*D4</f>
-        <v>2098.6</v>
+        <v>2117.5</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ref="J4:J5" ca="1" si="2">H4-G4</f>
-        <v>351.74999999999977</v>
+        <v>370.64999999999986</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K5" ca="1" si="3">(J4/G4)</f>
-        <v>0.20136245241434567</v>
+        <v>0.21218192746944492</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10302,7 +10397,7 @@
       </c>
       <c r="C5" s="3">
         <f ca="1">B2+COUNTA(OZON!A:A)-1</f>
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -10313,7 +10408,7 @@
       </c>
       <c r="F5" s="2" vm="12">
         <f ca="1">VLOOKUP('Учет акций'!C5,OZON!A:B,2,FALSE)</f>
-        <v>3839.5</v>
+        <v>3791.5</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -10321,15 +10416,15 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>15358</v>
+        <v>15166</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>4042</v>
+        <v>3850</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35719335454224105</v>
+        <v>0.34022622834923999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10340,11 +10435,11 @@
       <c r="H6" s="8"/>
       <c r="J6" s="4">
         <f ca="1">SUM(J2:J5)</f>
-        <v>11258.85</v>
+        <v>11281.25</v>
       </c>
       <c r="K6" s="6">
         <f ca="1">J6/SUM(G2:G5)</f>
-        <v>0.39296191265651587</v>
+        <v>0.39374372845861871</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10371,7 +10466,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14685,7 +14780,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7E6F50-DDBE-412B-87AD-3B0F03A2B4A2}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -14699,7 +14794,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B92" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A2,'Учет акций'!B2,TODAY(),0,2)</f>
         <v>MISX:SBER</v>
       </c>
       <c r="B1" t="str">
@@ -15342,17 +15437,17 @@
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="3">
+      <c r="B65" vm="158">
         <f ca="1"/>
         <v>300.55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" vm="158">
+      <c r="A66" s="5" vm="159">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="159">
+      <c r="B66" vm="3">
         <f ca="1"/>
         <v>306.2</v>
       </c>
@@ -15605,6 +15700,16 @@
       <c r="B91" vm="209">
         <f ca="1"/>
         <v>310.89999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" vm="210">
+        <f ca="1"/>
+        <v>45422</v>
+      </c>
+      <c r="B92" vm="211">
+        <f ca="1"/>
+        <v>312.98</v>
       </c>
     </row>
   </sheetData>
@@ -15614,7 +15719,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC451C-A319-4741-8A55-3296C7226099}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -15627,7 +15732,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="str" cm="1">
-        <f t="array" aca="1" ref="A1:B91" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
+        <f t="array" aca="1" ref="A1:B92" ca="1">_xlfn.STOCKHISTORY('Учет акций'!A3,'Учет акций'!B3,TODAY(),0,2)</f>
         <v>MISX:YNDX</v>
       </c>
       <c r="B1" t="str">
@@ -15720,7 +15825,7 @@
         <f ca="1"/>
         <v>45303</v>
       </c>
-      <c r="B10" vm="210">
+      <c r="B10" vm="212">
         <f ca="1"/>
         <v>2625.4</v>
       </c>
@@ -15730,7 +15835,7 @@
         <f ca="1"/>
         <v>45306</v>
       </c>
-      <c r="B11" vm="211">
+      <c r="B11" vm="213">
         <f ca="1"/>
         <v>2671</v>
       </c>
@@ -15740,7 +15845,7 @@
         <f ca="1"/>
         <v>45307</v>
       </c>
-      <c r="B12" vm="212">
+      <c r="B12" vm="214">
         <f ca="1"/>
         <v>2649.8</v>
       </c>
@@ -15750,7 +15855,7 @@
         <f ca="1"/>
         <v>45308</v>
       </c>
-      <c r="B13" vm="213">
+      <c r="B13" vm="215">
         <f ca="1"/>
         <v>2640.8</v>
       </c>
@@ -15760,7 +15865,7 @@
         <f ca="1"/>
         <v>45309</v>
       </c>
-      <c r="B14" vm="214">
+      <c r="B14" vm="216">
         <f ca="1"/>
         <v>2626</v>
       </c>
@@ -15780,7 +15885,7 @@
         <f ca="1"/>
         <v>45313</v>
       </c>
-      <c r="B16" vm="215">
+      <c r="B16" vm="217">
         <f ca="1"/>
         <v>2599</v>
       </c>
@@ -15790,7 +15895,7 @@
         <f ca="1"/>
         <v>45314</v>
       </c>
-      <c r="B17" vm="216">
+      <c r="B17" vm="218">
         <f ca="1"/>
         <v>2618.1999999999998</v>
       </c>
@@ -15800,7 +15905,7 @@
         <f ca="1"/>
         <v>45315</v>
       </c>
-      <c r="B18" vm="217">
+      <c r="B18" vm="219">
         <f ca="1"/>
         <v>2642</v>
       </c>
@@ -15810,7 +15915,7 @@
         <f ca="1"/>
         <v>45316</v>
       </c>
-      <c r="B19" vm="218">
+      <c r="B19" vm="220">
         <f ca="1"/>
         <v>2765</v>
       </c>
@@ -15820,7 +15925,7 @@
         <f ca="1"/>
         <v>45317</v>
       </c>
-      <c r="B20" vm="219">
+      <c r="B20" vm="221">
         <f ca="1"/>
         <v>2877.4</v>
       </c>
@@ -15830,7 +15935,7 @@
         <f ca="1"/>
         <v>45320</v>
       </c>
-      <c r="B21" vm="220">
+      <c r="B21" vm="222">
         <f ca="1"/>
         <v>2945</v>
       </c>
@@ -15840,7 +15945,7 @@
         <f ca="1"/>
         <v>45321</v>
       </c>
-      <c r="B22" vm="221">
+      <c r="B22" vm="223">
         <f ca="1"/>
         <v>3101.8</v>
       </c>
@@ -15850,7 +15955,7 @@
         <f ca="1"/>
         <v>45322</v>
       </c>
-      <c r="B23" vm="222">
+      <c r="B23" vm="224">
         <f ca="1"/>
         <v>3043.8</v>
       </c>
@@ -15860,7 +15965,7 @@
         <f ca="1"/>
         <v>45323</v>
       </c>
-      <c r="B24" vm="223">
+      <c r="B24" vm="225">
         <f ca="1"/>
         <v>3102.6</v>
       </c>
@@ -15870,7 +15975,7 @@
         <f ca="1"/>
         <v>45324</v>
       </c>
-      <c r="B25" vm="224">
+      <c r="B25" vm="226">
         <f ca="1"/>
         <v>3090</v>
       </c>
@@ -15880,7 +15985,7 @@
         <f ca="1"/>
         <v>45327</v>
       </c>
-      <c r="B26" vm="225">
+      <c r="B26" vm="227">
         <f ca="1"/>
         <v>3066.2</v>
       </c>
@@ -15890,7 +15995,7 @@
         <f ca="1"/>
         <v>45328</v>
       </c>
-      <c r="B27" vm="226">
+      <c r="B27" vm="228">
         <f ca="1"/>
         <v>3107</v>
       </c>
@@ -15900,7 +16005,7 @@
         <f ca="1"/>
         <v>45329</v>
       </c>
-      <c r="B28" vm="227">
+      <c r="B28" vm="229">
         <f ca="1"/>
         <v>3288</v>
       </c>
@@ -15910,7 +16015,7 @@
         <f ca="1"/>
         <v>45330</v>
       </c>
-      <c r="B29" vm="227">
+      <c r="B29" vm="229">
         <f ca="1"/>
         <v>3288</v>
       </c>
@@ -15920,7 +16025,7 @@
         <f ca="1"/>
         <v>45331</v>
       </c>
-      <c r="B30" vm="228">
+      <c r="B30" vm="230">
         <f ca="1"/>
         <v>3254.2</v>
       </c>
@@ -15930,7 +16035,7 @@
         <f ca="1"/>
         <v>45334</v>
       </c>
-      <c r="B31" vm="229">
+      <c r="B31" vm="231">
         <f ca="1"/>
         <v>3280.2</v>
       </c>
@@ -15940,7 +16045,7 @@
         <f ca="1"/>
         <v>45335</v>
       </c>
-      <c r="B32" vm="230">
+      <c r="B32" vm="232">
         <f ca="1"/>
         <v>3453.4</v>
       </c>
@@ -15950,7 +16055,7 @@
         <f ca="1"/>
         <v>45336</v>
       </c>
-      <c r="B33" vm="231">
+      <c r="B33" vm="233">
         <f ca="1"/>
         <v>3454</v>
       </c>
@@ -15960,7 +16065,7 @@
         <f ca="1"/>
         <v>45337</v>
       </c>
-      <c r="B34" vm="232">
+      <c r="B34" vm="234">
         <f ca="1"/>
         <v>3439.6</v>
       </c>
@@ -15970,7 +16075,7 @@
         <f ca="1"/>
         <v>45338</v>
       </c>
-      <c r="B35" vm="233">
+      <c r="B35" vm="235">
         <f ca="1"/>
         <v>3408.6</v>
       </c>
@@ -15980,7 +16085,7 @@
         <f ca="1"/>
         <v>45341</v>
       </c>
-      <c r="B36" vm="234">
+      <c r="B36" vm="236">
         <f ca="1"/>
         <v>3378.6</v>
       </c>
@@ -15990,7 +16095,7 @@
         <f ca="1"/>
         <v>45342</v>
       </c>
-      <c r="B37" vm="235">
+      <c r="B37" vm="237">
         <f ca="1"/>
         <v>3310</v>
       </c>
@@ -16000,7 +16105,7 @@
         <f ca="1"/>
         <v>45343</v>
       </c>
-      <c r="B38" vm="236">
+      <c r="B38" vm="238">
         <f ca="1"/>
         <v>3220</v>
       </c>
@@ -16010,7 +16115,7 @@
         <f ca="1"/>
         <v>45344</v>
       </c>
-      <c r="B39" vm="237">
+      <c r="B39" vm="239">
         <f ca="1"/>
         <v>3224</v>
       </c>
@@ -16020,7 +16125,7 @@
         <f ca="1"/>
         <v>45348</v>
       </c>
-      <c r="B40" vm="238">
+      <c r="B40" vm="240">
         <f ca="1"/>
         <v>3386</v>
       </c>
@@ -16030,7 +16135,7 @@
         <f ca="1"/>
         <v>45349</v>
       </c>
-      <c r="B41" vm="239">
+      <c r="B41" vm="241">
         <f ca="1"/>
         <v>3366.2</v>
       </c>
@@ -16040,7 +16145,7 @@
         <f ca="1"/>
         <v>45350</v>
       </c>
-      <c r="B42" vm="240">
+      <c r="B42" vm="242">
         <f ca="1"/>
         <v>3355</v>
       </c>
@@ -16050,7 +16155,7 @@
         <f ca="1"/>
         <v>45351</v>
       </c>
-      <c r="B43" vm="241">
+      <c r="B43" vm="243">
         <f ca="1"/>
         <v>3380</v>
       </c>
@@ -16060,7 +16165,7 @@
         <f ca="1"/>
         <v>45352</v>
       </c>
-      <c r="B44" vm="242">
+      <c r="B44" vm="244">
         <f ca="1"/>
         <v>3515</v>
       </c>
@@ -16070,7 +16175,7 @@
         <f ca="1"/>
         <v>45355</v>
       </c>
-      <c r="B45" vm="243">
+      <c r="B45" vm="245">
         <f ca="1"/>
         <v>3644</v>
       </c>
@@ -16080,7 +16185,7 @@
         <f ca="1"/>
         <v>45356</v>
       </c>
-      <c r="B46" vm="244">
+      <c r="B46" vm="246">
         <f ca="1"/>
         <v>3640</v>
       </c>
@@ -16090,7 +16195,7 @@
         <f ca="1"/>
         <v>45357</v>
       </c>
-      <c r="B47" vm="245">
+      <c r="B47" vm="247">
         <f ca="1"/>
         <v>3579.8</v>
       </c>
@@ -16100,7 +16205,7 @@
         <f ca="1"/>
         <v>45358</v>
       </c>
-      <c r="B48" vm="246">
+      <c r="B48" vm="248">
         <f ca="1"/>
         <v>3590</v>
       </c>
@@ -16110,7 +16215,7 @@
         <f ca="1"/>
         <v>45362</v>
       </c>
-      <c r="B49" vm="247">
+      <c r="B49" vm="249">
         <f ca="1"/>
         <v>3570</v>
       </c>
@@ -16120,7 +16225,7 @@
         <f ca="1"/>
         <v>45363</v>
       </c>
-      <c r="B50" vm="248">
+      <c r="B50" vm="250">
         <f ca="1"/>
         <v>3491.8</v>
       </c>
@@ -16130,7 +16235,7 @@
         <f ca="1"/>
         <v>45364</v>
       </c>
-      <c r="B51" vm="249">
+      <c r="B51" vm="251">
         <f ca="1"/>
         <v>3589</v>
       </c>
@@ -16140,7 +16245,7 @@
         <f ca="1"/>
         <v>45365</v>
       </c>
-      <c r="B52" vm="250">
+      <c r="B52" vm="252">
         <f ca="1"/>
         <v>3605</v>
       </c>
@@ -16150,7 +16255,7 @@
         <f ca="1"/>
         <v>45366</v>
       </c>
-      <c r="B53" vm="251">
+      <c r="B53" vm="253">
         <f ca="1"/>
         <v>3639</v>
       </c>
@@ -16160,7 +16265,7 @@
         <f ca="1"/>
         <v>45369</v>
       </c>
-      <c r="B54" vm="252">
+      <c r="B54" vm="254">
         <f ca="1"/>
         <v>3701</v>
       </c>
@@ -16170,7 +16275,7 @@
         <f ca="1"/>
         <v>45370</v>
       </c>
-      <c r="B55" vm="253">
+      <c r="B55" vm="255">
         <f ca="1"/>
         <v>3799</v>
       </c>
@@ -16180,7 +16285,7 @@
         <f ca="1"/>
         <v>45371</v>
       </c>
-      <c r="B56" vm="254">
+      <c r="B56" vm="256">
         <f ca="1"/>
         <v>3916.8</v>
       </c>
@@ -16190,7 +16295,7 @@
         <f ca="1"/>
         <v>45372</v>
       </c>
-      <c r="B57" vm="255">
+      <c r="B57" vm="257">
         <f ca="1"/>
         <v>3873</v>
       </c>
@@ -16200,7 +16305,7 @@
         <f ca="1"/>
         <v>45373</v>
       </c>
-      <c r="B58" vm="256">
+      <c r="B58" vm="258">
         <f ca="1"/>
         <v>3905</v>
       </c>
@@ -16210,7 +16315,7 @@
         <f ca="1"/>
         <v>45376</v>
       </c>
-      <c r="B59" vm="257">
+      <c r="B59" vm="259">
         <f ca="1"/>
         <v>3990.4</v>
       </c>
@@ -16220,7 +16325,7 @@
         <f ca="1"/>
         <v>45377</v>
       </c>
-      <c r="B60" vm="258">
+      <c r="B60" vm="260">
         <f ca="1"/>
         <v>3999</v>
       </c>
@@ -16230,7 +16335,7 @@
         <f ca="1"/>
         <v>45378</v>
       </c>
-      <c r="B61" vm="259">
+      <c r="B61" vm="261">
         <f ca="1"/>
         <v>4014</v>
       </c>
@@ -16240,7 +16345,7 @@
         <f ca="1"/>
         <v>45379</v>
       </c>
-      <c r="B62" vm="260">
+      <c r="B62" vm="262">
         <f ca="1"/>
         <v>4004.6</v>
       </c>
@@ -16250,7 +16355,7 @@
         <f ca="1"/>
         <v>45380</v>
       </c>
-      <c r="B63" vm="261">
+      <c r="B63" vm="263">
         <f ca="1"/>
         <v>4000</v>
       </c>
@@ -16260,7 +16365,7 @@
         <f ca="1"/>
         <v>45383</v>
       </c>
-      <c r="B64" vm="262">
+      <c r="B64" vm="264">
         <f ca="1"/>
         <v>3978</v>
       </c>
@@ -16270,17 +16375,17 @@
         <f ca="1"/>
         <v>45384</v>
       </c>
-      <c r="B65" vm="6">
+      <c r="B65" vm="265">
         <f ca="1"/>
         <v>3889.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" vm="158">
+      <c r="A66" vm="159">
         <f ca="1"/>
         <v>45385</v>
       </c>
-      <c r="B66" vm="263">
+      <c r="B66" vm="6">
         <f ca="1"/>
         <v>3917.4</v>
       </c>
@@ -16290,7 +16395,7 @@
         <f ca="1"/>
         <v>45386</v>
       </c>
-      <c r="B67" vm="264">
+      <c r="B67" vm="266">
         <f ca="1"/>
         <v>3962.2</v>
       </c>
@@ -16300,7 +16405,7 @@
         <f ca="1"/>
         <v>45387</v>
       </c>
-      <c r="B68" vm="265">
+      <c r="B68" vm="267">
         <f ca="1"/>
         <v>3980.2</v>
       </c>
@@ -16310,7 +16415,7 @@
         <f ca="1"/>
         <v>45390</v>
       </c>
-      <c r="B69" vm="266">
+      <c r="B69" vm="268">
         <f ca="1"/>
         <v>3960</v>
       </c>
@@ -16320,7 +16425,7 @@
         <f ca="1"/>
         <v>45391</v>
       </c>
-      <c r="B70" vm="267">
+      <c r="B70" vm="269">
         <f ca="1"/>
         <v>3949.4</v>
       </c>
@@ -16330,7 +16435,7 @@
         <f ca="1"/>
         <v>45392</v>
       </c>
-      <c r="B71" vm="268">
+      <c r="B71" vm="270">
         <f ca="1"/>
         <v>3985.8</v>
       </c>
@@ -16340,7 +16445,7 @@
         <f ca="1"/>
         <v>45393</v>
       </c>
-      <c r="B72" vm="269">
+      <c r="B72" vm="271">
         <f ca="1"/>
         <v>3940.6</v>
       </c>
@@ -16350,7 +16455,7 @@
         <f ca="1"/>
         <v>45394</v>
       </c>
-      <c r="B73" vm="270">
+      <c r="B73" vm="272">
         <f ca="1"/>
         <v>3993</v>
       </c>
@@ -16360,7 +16465,7 @@
         <f ca="1"/>
         <v>45397</v>
       </c>
-      <c r="B74" vm="271">
+      <c r="B74" vm="273">
         <f ca="1"/>
         <v>4027.4</v>
       </c>
@@ -16370,7 +16475,7 @@
         <f ca="1"/>
         <v>45398</v>
       </c>
-      <c r="B75" vm="272">
+      <c r="B75" vm="274">
         <f ca="1"/>
         <v>4047</v>
       </c>
@@ -16380,7 +16485,7 @@
         <f ca="1"/>
         <v>45399</v>
       </c>
-      <c r="B76" vm="273">
+      <c r="B76" vm="275">
         <f ca="1"/>
         <v>4190.6000000000004</v>
       </c>
@@ -16390,7 +16495,7 @@
         <f ca="1"/>
         <v>45400</v>
       </c>
-      <c r="B77" vm="274">
+      <c r="B77" vm="276">
         <f ca="1"/>
         <v>4190</v>
       </c>
@@ -16400,7 +16505,7 @@
         <f ca="1"/>
         <v>45401</v>
       </c>
-      <c r="B78" vm="275">
+      <c r="B78" vm="277">
         <f ca="1"/>
         <v>4244.2</v>
       </c>
@@ -16410,7 +16515,7 @@
         <f ca="1"/>
         <v>45404</v>
       </c>
-      <c r="B79" vm="276">
+      <c r="B79" vm="278">
         <f ca="1"/>
         <v>4252</v>
       </c>
@@ -16420,7 +16525,7 @@
         <f ca="1"/>
         <v>45405</v>
       </c>
-      <c r="B80" vm="277">
+      <c r="B80" vm="279">
         <f ca="1"/>
         <v>4153</v>
       </c>
@@ -16430,7 +16535,7 @@
         <f ca="1"/>
         <v>45406</v>
       </c>
-      <c r="B81" vm="278">
+      <c r="B81" vm="280">
         <f ca="1"/>
         <v>4099</v>
       </c>
@@ -16440,7 +16545,7 @@
         <f ca="1"/>
         <v>45407</v>
       </c>
-      <c r="B82" vm="279">
+      <c r="B82" vm="281">
         <f ca="1"/>
         <v>4103</v>
       </c>
@@ -16450,7 +16555,7 @@
         <f ca="1"/>
         <v>45408</v>
       </c>
-      <c r="B83" vm="280">
+      <c r="B83" vm="282">
         <f ca="1"/>
         <v>4228</v>
       </c>
@@ -16460,7 +16565,7 @@
         <f ca="1"/>
         <v>45409</v>
       </c>
-      <c r="B84" vm="281">
+      <c r="B84" vm="283">
         <f ca="1"/>
         <v>4140</v>
       </c>
@@ -16470,7 +16575,7 @@
         <f ca="1"/>
         <v>45411</v>
       </c>
-      <c r="B85" vm="282">
+      <c r="B85" vm="284">
         <f ca="1"/>
         <v>4174</v>
       </c>
@@ -16480,7 +16585,7 @@
         <f ca="1"/>
         <v>45412</v>
       </c>
-      <c r="B86" vm="281">
+      <c r="B86" vm="283">
         <f ca="1"/>
         <v>4140</v>
       </c>
@@ -16490,7 +16595,7 @@
         <f ca="1"/>
         <v>45414</v>
       </c>
-      <c r="B87" vm="283">
+      <c r="B87" vm="285">
         <f ca="1"/>
         <v>4160</v>
       </c>
@@ -16500,7 +16605,7 @@
         <f ca="1"/>
         <v>45415</v>
       </c>
-      <c r="B88" vm="284">
+      <c r="B88" vm="286">
         <f ca="1"/>
         <v>4209.2</v>
       </c>
@@ -16510,7 +16615,7 @@
         <f ca="1"/>
         <v>45418</v>
       </c>
-      <c r="B89" vm="285">
+      <c r="B89" vm="287">
         <f ca="1"/>
         <v>4267</v>
       </c>
@@ -16520,7 +16625,7 @@
         <f ca="1"/>
         <v>45419</v>
       </c>
-      <c r="B90" vm="286">
+      <c r="B90" vm="288">
         <f ca="1"/>
         <v>4310</v>
       </c>
@@ -16530,9 +16635,19 @@
         <f ca="1"/>
         <v>45420</v>
       </c>
-      <c r="B91" vm="287">
+      <c r="B91" vm="289">
         <f ca="1"/>
         <v>4324.3999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" vm="210">
+        <f ca="1"/>
+        <v>45422</v>
+      </c>
+      <c r="B92" vm="290">
+        <f ca="1"/>
+        <v>4360</v>
       </c>
     </row>
   </sheetData>
